--- a/nodes_source_analyses/buildings/buildings_chp_engine_biogas.central_producer.xlsx
+++ b/nodes_source_analyses/buildings/buildings_chp_engine_biogas.central_producer.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="23460" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -31,8 +36,11 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="140001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -308,9 +316,6 @@
   </si>
   <si>
     <t>Output to csv</t>
-  </si>
-  <si>
-    <t>This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and use the button to update the node attributes on ETSource.</t>
   </si>
   <si>
     <t>Cost</t>
@@ -610,6 +615,30 @@
   </si>
   <si>
     <t>20150409_Employment_v106_AW.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This sheet summarizes all node attributes formatted in the way they are used by the Energy Transition Model. Use the Excel formulas to find the original data and sources for these numbers. You can also use this document to update the attribute value. Once you have finished updating, save this document and run </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>rake import:node NODE="nodename"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> the button to update the node attributes on ETSource. 
+</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -804,11 +833,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Grande"/>
-    </font>
-    <font>
       <u/>
       <sz val="12"/>
       <color theme="10"/>
@@ -848,6 +872,12 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
   </fonts>
@@ -1468,7 +1498,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -1537,59 +1567,59 @@
     <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="21" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="183" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -1678,7 +1708,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1696,7 +1726,7 @@
     <xf numFmtId="2" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="17" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1745,35 +1775,35 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="33" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="32" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2043,80 +2073,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Button" lockText="1"/>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor>
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>165100</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>3949700</xdr:colOff>
-          <xdr:row>3</xdr:row>
-          <xdr:rowOff>12700</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="2049" name="export_data" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s2049"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="27432" bIns="22860" anchor="ctr" upright="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr algn="ctr" rtl="0">
-                <a:defRPr sz="1000"/>
-              </a:pPr>
-              <a:r>
-                <a:rPr lang="en-US" sz="1200" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                  <a:solidFill>
-                    <a:srgbClr val="000000"/>
-                  </a:solidFill>
-                  <a:latin typeface="Lucida Grande"/>
-                  <a:ea typeface="Lucida Grande"/>
-                  <a:cs typeface="Lucida Grande"/>
-                </a:rPr>
-                <a:t>Update node attributes to the ETSource</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-        <xdr:clientData fPrintsWithSheet="0"/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2312,7 +2277,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Cover Sheet"/>
@@ -2753,50 +2718,50 @@
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="42" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="44.125" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" style="34"/>
+    <col min="1" max="1" width="3.42578125" style="42" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="40" customFormat="1">
+    <row r="1" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
     </row>
-    <row r="2" spans="1:3" ht="20">
+    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="17"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
         <v>73</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
       <c r="B6" s="22" t="s">
         <v>20</v>
@@ -2805,29 +2770,29 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="17"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="17"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="17"/>
       <c r="B9" s="125" t="s">
         <v>74</v>
       </c>
       <c r="C9" s="126"/>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="127"/>
       <c r="C10" s="128"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="17"/>
       <c r="B11" s="127" t="s">
         <v>75</v>
@@ -2836,33 +2801,33 @@
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" thickBot="1">
+    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="17"/>
       <c r="B12" s="127"/>
       <c r="C12" s="30" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="16" thickBot="1">
+    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="17"/>
       <c r="B13" s="127"/>
       <c r="C13" s="130" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="127"/>
       <c r="C14" s="128" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="17"/>
       <c r="B15" s="127"/>
       <c r="C15" s="128"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="17"/>
       <c r="B16" s="127" t="s">
         <v>80</v>
@@ -2871,49 +2836,49 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="17"/>
       <c r="B17" s="127"/>
       <c r="C17" s="132" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="17"/>
       <c r="B18" s="127"/>
       <c r="C18" s="133" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="17"/>
       <c r="B19" s="127"/>
       <c r="C19" s="134" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="17"/>
       <c r="B20" s="135"/>
       <c r="C20" s="136" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="17"/>
       <c r="B21" s="135"/>
       <c r="C21" s="137" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="17"/>
       <c r="B22" s="135"/>
       <c r="C22" s="138" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B23" s="135"/>
       <c r="C23" s="139" t="s">
         <v>88</v>
@@ -2922,49 +2887,44 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
   <dimension ref="B1:K47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.75" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="49" customWidth="1"/>
     <col min="3" max="3" width="46" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12.75" style="49" customWidth="1"/>
-    <col min="5" max="5" width="17.375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="4.625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="4.5703125" style="49" customWidth="1"/>
     <col min="7" max="7" width="45" style="49" customWidth="1"/>
-    <col min="8" max="8" width="5.125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="51.5" style="49" customWidth="1"/>
-    <col min="10" max="10" width="5.375" style="49" customWidth="1"/>
-    <col min="11" max="16384" width="10.625" style="49"/>
+    <col min="8" max="8" width="5.140625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="51.42578125" style="49" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
     </row>
-    <row r="2" spans="2:11">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="178" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="C2" s="179"/>
       <c r="D2" s="179"/>
@@ -2972,7 +2932,7 @@
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="181"/>
       <c r="C3" s="182"/>
       <c r="D3" s="182"/>
@@ -2980,7 +2940,7 @@
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="184"/>
       <c r="C4" s="185"/>
       <c r="D4" s="185"/>
@@ -2988,10 +2948,10 @@
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
     </row>
-    <row r="5" spans="2:11" ht="16" thickBot="1">
+    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="D5" s="47"/>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="50"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -3002,7 +2962,7 @@
       <c r="I6" s="32"/>
       <c r="J6" s="51"/>
     </row>
-    <row r="7" spans="2:11" s="56" customFormat="1" ht="18">
+    <row r="7" spans="2:11" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B7" s="140"/>
       <c r="C7" s="31" t="s">
         <v>32</v>
@@ -3023,7 +2983,7 @@
       </c>
       <c r="J7" s="147"/>
     </row>
-    <row r="8" spans="2:11" s="56" customFormat="1" ht="18">
+    <row r="8" spans="2:11" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B8" s="36"/>
       <c r="C8" s="30"/>
       <c r="D8" s="44"/>
@@ -3034,10 +2994,10 @@
       <c r="I8" s="30"/>
       <c r="J8" s="57"/>
     </row>
-    <row r="9" spans="2:11" s="56" customFormat="1" ht="19" thickBot="1">
+    <row r="9" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="36"/>
       <c r="C9" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="30"/>
@@ -3047,10 +3007,10 @@
       <c r="I9" s="30"/>
       <c r="J9" s="57"/>
     </row>
-    <row r="10" spans="2:11" s="56" customFormat="1" ht="19" thickBot="1">
+    <row r="10" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="36"/>
       <c r="C10" s="157" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>5</v>
@@ -3063,14 +3023,14 @@
       <c r="G10" s="48"/>
       <c r="H10" s="43"/>
       <c r="I10" s="124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J10" s="57"/>
     </row>
-    <row r="11" spans="2:11" s="56" customFormat="1" ht="19" thickBot="1">
+    <row r="11" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="36"/>
       <c r="C11" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>5</v>
@@ -3083,11 +3043,11 @@
       <c r="G11" s="48"/>
       <c r="H11" s="43"/>
       <c r="I11" s="124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J11" s="57"/>
     </row>
-    <row r="12" spans="2:11" s="56" customFormat="1" ht="19" thickBot="1">
+    <row r="12" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="36"/>
       <c r="C12" s="48" t="s">
         <v>61</v>
@@ -3103,11 +3063,11 @@
       <c r="G12" s="48"/>
       <c r="H12" s="43"/>
       <c r="I12" s="124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J12" s="57"/>
     </row>
-    <row r="13" spans="2:11" ht="16" thickBot="1">
+    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="52"/>
       <c r="C13" s="48" t="s">
         <v>34</v>
@@ -3127,7 +3087,7 @@
       <c r="J13" s="148"/>
       <c r="K13" s="47"/>
     </row>
-    <row r="14" spans="2:11" ht="16" thickBot="1">
+    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="52"/>
       <c r="C14" s="48" t="s">
         <v>35</v>
@@ -3147,7 +3107,7 @@
       <c r="J14" s="148"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="2:11" ht="16" thickBot="1">
+    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B15" s="52"/>
       <c r="C15" s="48" t="s">
         <v>37</v>
@@ -3167,7 +3127,7 @@
       <c r="J15" s="148"/>
       <c r="K15" s="47"/>
     </row>
-    <row r="16" spans="2:11" ht="16" thickBot="1">
+    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="52"/>
       <c r="C16" s="48" t="s">
         <v>40</v>
@@ -3187,7 +3147,7 @@
       <c r="J16" s="148"/>
       <c r="K16" s="47"/>
     </row>
-    <row r="17" spans="2:11" ht="16" thickBot="1">
+    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="52"/>
       <c r="C17" s="48" t="s">
         <v>41</v>
@@ -3207,7 +3167,7 @@
       <c r="J17" s="148"/>
       <c r="K17" s="47"/>
     </row>
-    <row r="18" spans="2:11" ht="16" thickBot="1">
+    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="52"/>
       <c r="C18" s="48" t="s">
         <v>42</v>
@@ -3229,7 +3189,7 @@
       </c>
       <c r="J18" s="148"/>
     </row>
-    <row r="19" spans="2:11" ht="16" thickBot="1">
+    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="52"/>
       <c r="C19" s="48" t="s">
         <v>43</v>
@@ -3251,7 +3211,7 @@
       </c>
       <c r="J19" s="148"/>
     </row>
-    <row r="20" spans="2:11" ht="16" thickBot="1">
+    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="52"/>
       <c r="C20" s="85" t="s">
         <v>63</v>
@@ -3272,7 +3232,7 @@
       </c>
       <c r="J20" s="148"/>
     </row>
-    <row r="21" spans="2:11" ht="16" thickBot="1">
+    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="52"/>
       <c r="C21" s="85" t="s">
         <v>64</v>
@@ -3293,7 +3253,7 @@
       </c>
       <c r="J21" s="148"/>
     </row>
-    <row r="22" spans="2:11" ht="16" thickBot="1">
+    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="52"/>
       <c r="C22" s="85" t="s">
         <v>65</v>
@@ -3314,7 +3274,7 @@
       </c>
       <c r="J22" s="148"/>
     </row>
-    <row r="23" spans="2:11" ht="16" thickBot="1">
+    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="52"/>
       <c r="C23" s="85" t="s">
         <v>66</v>
@@ -3335,7 +3295,7 @@
       </c>
       <c r="J23" s="148"/>
     </row>
-    <row r="24" spans="2:11" ht="16" thickBot="1">
+    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" s="52"/>
       <c r="C24" s="85" t="s">
         <v>67</v>
@@ -3356,7 +3316,7 @@
       </c>
       <c r="J24" s="148"/>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B25" s="52"/>
       <c r="C25" s="108"/>
       <c r="D25" s="143"/>
@@ -3367,10 +3327,10 @@
       <c r="I25" s="47"/>
       <c r="J25" s="148"/>
     </row>
-    <row r="26" spans="2:11" ht="16" thickBot="1">
+    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="52"/>
       <c r="C26" s="30" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D26" s="143"/>
       <c r="E26" s="144"/>
@@ -3380,7 +3340,7 @@
       <c r="I26" s="47"/>
       <c r="J26" s="148"/>
     </row>
-    <row r="27" spans="2:11" ht="16" thickBot="1">
+    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B27" s="52"/>
       <c r="C27" s="48" t="s">
         <v>44</v>
@@ -3398,11 +3358,11 @@
       </c>
       <c r="H27" s="48"/>
       <c r="I27" s="124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J27" s="148"/>
     </row>
-    <row r="28" spans="2:11" ht="16" thickBot="1">
+    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B28" s="52"/>
       <c r="C28" s="48" t="s">
         <v>45</v>
@@ -3423,7 +3383,7 @@
       </c>
       <c r="J28" s="148"/>
     </row>
-    <row r="29" spans="2:11" ht="16" thickBot="1">
+    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B29" s="52"/>
       <c r="C29" s="48" t="s">
         <v>12</v>
@@ -3444,7 +3404,7 @@
       </c>
       <c r="J29" s="148"/>
     </row>
-    <row r="30" spans="2:11" ht="16" thickBot="1">
+    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B30" s="52"/>
       <c r="C30" s="48" t="s">
         <v>46</v>
@@ -3465,7 +3425,7 @@
       </c>
       <c r="J30" s="148"/>
     </row>
-    <row r="31" spans="2:11" ht="16" thickBot="1">
+    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B31" s="52"/>
       <c r="C31" s="48" t="s">
         <v>47</v>
@@ -3483,11 +3443,11 @@
       </c>
       <c r="H31" s="48"/>
       <c r="I31" s="124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J31" s="148"/>
     </row>
-    <row r="32" spans="2:11" ht="16" thickBot="1">
+    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B32" s="52"/>
       <c r="C32" s="48" t="s">
         <v>48</v>
@@ -3505,11 +3465,11 @@
       </c>
       <c r="H32" s="48"/>
       <c r="I32" s="124" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J32" s="148"/>
     </row>
-    <row r="33" spans="2:10" ht="16" thickBot="1">
+    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B33" s="52"/>
       <c r="C33" s="48" t="s">
         <v>49</v>
@@ -3530,7 +3490,7 @@
       </c>
       <c r="J33" s="148"/>
     </row>
-    <row r="34" spans="2:10" ht="16" thickBot="1">
+    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B34" s="52"/>
       <c r="C34" s="48" t="s">
         <v>52</v>
@@ -3551,7 +3511,7 @@
       </c>
       <c r="J34" s="148"/>
     </row>
-    <row r="35" spans="2:10" ht="16" thickBot="1">
+    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B35" s="52"/>
       <c r="C35" s="48" t="s">
         <v>39</v>
@@ -3570,7 +3530,7 @@
       </c>
       <c r="J35" s="148"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B36" s="52"/>
       <c r="C36" s="48"/>
       <c r="D36" s="35"/>
@@ -3581,7 +3541,7 @@
       <c r="I36" s="47"/>
       <c r="J36" s="148"/>
     </row>
-    <row r="37" spans="2:10" ht="16" thickBot="1">
+    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B37" s="52"/>
       <c r="C37" s="30" t="s">
         <v>8</v>
@@ -3594,7 +3554,7 @@
       <c r="I37" s="47"/>
       <c r="J37" s="148"/>
     </row>
-    <row r="38" spans="2:10" ht="16" thickBot="1">
+    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B38" s="52"/>
       <c r="C38" s="48" t="s">
         <v>38</v>
@@ -3612,11 +3572,11 @@
       </c>
       <c r="H38" s="48"/>
       <c r="I38" s="167" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J38" s="148"/>
     </row>
-    <row r="39" spans="2:10" ht="16" thickBot="1">
+    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B39" s="52"/>
       <c r="C39" s="48" t="s">
         <v>50</v>
@@ -3634,11 +3594,11 @@
       </c>
       <c r="H39" s="48"/>
       <c r="I39" s="160" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J39" s="148"/>
     </row>
-    <row r="40" spans="2:10" ht="16" thickBot="1">
+    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B40" s="52"/>
       <c r="C40" s="48" t="s">
         <v>51</v>
@@ -3656,11 +3616,11 @@
       </c>
       <c r="H40" s="48"/>
       <c r="I40" s="161" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J40" s="148"/>
     </row>
-    <row r="41" spans="2:10" ht="16" thickBot="1">
+    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B41" s="52"/>
       <c r="C41" s="48" t="s">
         <v>36</v>
@@ -3679,10 +3639,10 @@
       </c>
       <c r="J41" s="148"/>
     </row>
-    <row r="42" spans="2:10" ht="16" thickBot="1">
+    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B42" s="52"/>
       <c r="C42" s="162" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="142">
@@ -3692,14 +3652,14 @@
       <c r="G42" s="48"/>
       <c r="H42" s="48"/>
       <c r="I42" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J42" s="148"/>
     </row>
-    <row r="43" spans="2:10" ht="16" thickBot="1">
+    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B43" s="52"/>
       <c r="C43" s="162" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="142">
@@ -3709,14 +3669,14 @@
       <c r="G43" s="48"/>
       <c r="H43" s="48"/>
       <c r="I43" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J43" s="148"/>
     </row>
-    <row r="44" spans="2:10" ht="16" thickBot="1">
+    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B44" s="52"/>
       <c r="C44" s="162" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="35"/>
       <c r="E44" s="142">
@@ -3726,14 +3686,14 @@
       <c r="G44" s="48"/>
       <c r="H44" s="48"/>
       <c r="I44" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J44" s="148"/>
     </row>
-    <row r="45" spans="2:10" ht="16" thickBot="1">
+    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B45" s="52"/>
       <c r="C45" s="162" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="35"/>
       <c r="E45" s="142">
@@ -3743,14 +3703,14 @@
       <c r="G45" s="48"/>
       <c r="H45" s="48"/>
       <c r="I45" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J45" s="148"/>
     </row>
-    <row r="46" spans="2:10" ht="16" thickBot="1">
+    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B46" s="52"/>
       <c r="C46" s="162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D46" s="35"/>
       <c r="E46" s="142">
@@ -3760,11 +3720,11 @@
       <c r="G46" s="48"/>
       <c r="H46" s="48"/>
       <c r="I46" s="46" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J46" s="148"/>
     </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1">
+    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B47" s="53"/>
       <c r="C47" s="54"/>
       <c r="D47" s="54"/>
@@ -3781,43 +3741,6 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x14">
-      <controls>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="2049" r:id="rId3" name="export_data">
-              <controlPr defaultSize="0" print="0" autoFill="0" autoPict="0">
-                <anchor moveWithCells="1" sizeWithCells="1">
-                  <from>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>165100</xdr:colOff>
-                    <xdr:row>2</xdr:row>
-                    <xdr:rowOff>0</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>6</xdr:col>
-                    <xdr:colOff>3949700</xdr:colOff>
-                    <xdr:row>3</xdr:row>
-                    <xdr:rowOff>12700</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-          <mc:Fallback/>
-        </mc:AlternateContent>
-      </controls>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -3832,30 +3755,29 @@
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.375" style="88" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="88" customWidth="1"/>
-    <col min="3" max="3" width="35.875" style="88" customWidth="1"/>
-    <col min="4" max="4" width="16.625" style="88" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="88" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.625" style="88" customWidth="1"/>
-    <col min="7" max="7" width="10.75" style="88" customWidth="1"/>
-    <col min="8" max="8" width="4.75" style="88" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="89" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="88" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="88" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="88" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="88" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" style="88" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" style="88" customWidth="1"/>
+    <col min="8" max="8" width="4.7109375" style="88" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" style="89" customWidth="1"/>
     <col min="10" max="10" width="3" style="89" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="89" customWidth="1"/>
-    <col min="12" max="12" width="3.25" style="89" customWidth="1"/>
-    <col min="13" max="13" width="8.5" style="89" customWidth="1"/>
-    <col min="14" max="14" width="2.75" style="89" customWidth="1"/>
-    <col min="15" max="15" width="8.5" style="89" customWidth="1"/>
-    <col min="16" max="16" width="2.75" style="89" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="89" customWidth="1"/>
+    <col min="12" max="12" width="3.28515625" style="89" customWidth="1"/>
+    <col min="13" max="13" width="8.42578125" style="89" customWidth="1"/>
+    <col min="14" max="14" width="2.7109375" style="89" customWidth="1"/>
+    <col min="15" max="15" width="8.42578125" style="89" customWidth="1"/>
+    <col min="16" max="16" width="2.7109375" style="89" customWidth="1"/>
     <col min="17" max="17" width="60" style="88" customWidth="1"/>
-    <col min="18" max="16384" width="10.625" style="88"/>
+    <col min="18" max="16384" width="10.7109375" style="88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="16" thickBot="1"/>
-    <row r="2" spans="2:17">
+    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B2" s="90"/>
       <c r="C2" s="91"/>
       <c r="D2" s="91"/>
@@ -3873,10 +3795,10 @@
       <c r="P2" s="92"/>
       <c r="Q2" s="93"/>
     </row>
-    <row r="3" spans="2:17" s="37" customFormat="1">
+    <row r="3" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B3" s="36"/>
       <c r="C3" s="155" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -3888,26 +3810,26 @@
       </c>
       <c r="H3" s="155"/>
       <c r="I3" s="81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J3" s="81"/>
       <c r="K3" s="81" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L3" s="81"/>
       <c r="M3" s="81" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="N3" s="81"/>
       <c r="O3" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="P3" s="81"/>
       <c r="Q3" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B4" s="94"/>
       <c r="C4" s="95"/>
       <c r="D4" s="95"/>
@@ -3925,10 +3847,10 @@
       <c r="P4" s="154"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="2:17" ht="16" thickBot="1">
+    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="94"/>
       <c r="C5" s="45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
@@ -3945,7 +3867,7 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="2:17" ht="16" thickBot="1">
+    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="94"/>
       <c r="C6" s="97" t="s">
         <v>29</v>
@@ -3973,10 +3895,10 @@
       <c r="P6" s="102"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:17" s="12" customFormat="1" ht="16" thickBot="1">
+    <row r="7" spans="2:17" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3996,13 +3918,13 @@
       <c r="K7" s="4"/>
       <c r="L7" s="6"/>
       <c r="Q7" s="14" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="12" customFormat="1" ht="16" thickBot="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -4022,13 +3944,13 @@
       <c r="K8" s="4"/>
       <c r="L8" s="6"/>
       <c r="Q8" s="14" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" s="12" customFormat="1" ht="16" thickBot="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="11"/>
       <c r="C9" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -4048,10 +3970,10 @@
       <c r="K9" s="4"/>
       <c r="L9" s="6"/>
       <c r="Q9" s="14" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B10" s="94"/>
       <c r="C10" s="107"/>
       <c r="D10" s="107"/>
@@ -4069,7 +3991,7 @@
       <c r="P10" s="102"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="2:17" ht="16" thickBot="1">
+    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="94"/>
       <c r="C11" s="45" t="s">
         <v>8</v>
@@ -4089,10 +4011,10 @@
       <c r="P11" s="102"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="2:17" ht="16" thickBot="1">
+    <row r="12" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B12" s="94"/>
       <c r="C12" s="156" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D12" s="103"/>
       <c r="E12" s="103"/>
@@ -4115,10 +4037,10 @@
       <c r="N12" s="102"/>
       <c r="P12" s="102"/>
       <c r="Q12" s="16" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="16" thickBot="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B13" s="94"/>
       <c r="C13" s="109" t="s">
         <v>1</v>
@@ -4148,7 +4070,7 @@
       <c r="P13" s="96"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="2:17" ht="16" thickBot="1">
+    <row r="14" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B14" s="94"/>
       <c r="C14" s="112" t="s">
         <v>6</v>
@@ -4177,10 +4099,10 @@
       </c>
       <c r="P14" s="96"/>
       <c r="Q14" s="13" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B15" s="94"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
@@ -4198,10 +4120,10 @@
       <c r="P15" s="102"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="2:17" ht="16" thickBot="1">
+    <row r="16" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="94"/>
       <c r="C16" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -4218,10 +4140,10 @@
       <c r="P16" s="102"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="2:17" ht="16" thickBot="1">
+    <row r="17" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B17" s="94"/>
       <c r="C17" s="149" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
@@ -4243,7 +4165,7 @@
       <c r="P17" s="102"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="2:17" ht="16" thickBot="1">
+    <row r="18" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="94"/>
       <c r="C18" s="114" t="s">
         <v>9</v>
@@ -4251,7 +4173,7 @@
       <c r="D18" s="114"/>
       <c r="E18" s="114"/>
       <c r="F18" s="150" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G18" s="110">
         <f>I18</f>
@@ -4270,13 +4192,13 @@
       <c r="O18" s="102"/>
       <c r="P18" s="102"/>
       <c r="Q18" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="16" thickBot="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="94"/>
       <c r="C19" s="159" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
@@ -4298,15 +4220,15 @@
       <c r="P19" s="105"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="2:17" ht="16" thickBot="1">
+    <row r="20" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="94"/>
       <c r="C20" s="149" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
       <c r="F20" s="151" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="115">
         <f>ROUND(I20,2)</f>
@@ -4325,13 +4247,13 @@
       <c r="O20" s="111"/>
       <c r="P20" s="105"/>
       <c r="Q20" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="16" thickBot="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B21" s="94"/>
       <c r="C21" s="159" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D21" s="117"/>
       <c r="E21" s="117"/>
@@ -4353,15 +4275,15 @@
       <c r="P21" s="105"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="2:17" ht="16" thickBot="1">
+    <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="94"/>
       <c r="C22" s="149" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D22" s="116"/>
       <c r="E22" s="116"/>
       <c r="F22" s="150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="118">
         <v>0</v>
@@ -4380,7 +4302,7 @@
       <c r="P22" s="105"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="2:17" ht="16" thickBot="1">
+    <row r="23" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="119"/>
       <c r="C23" s="120"/>
       <c r="D23" s="120"/>
@@ -4401,11 +4323,6 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4420,22 +4337,22 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.125" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.25" style="60" customWidth="1"/>
-    <col min="2" max="2" width="3.375" style="60" customWidth="1"/>
-    <col min="3" max="3" width="28.75" style="60" customWidth="1"/>
-    <col min="4" max="4" width="3.125" style="60" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="60" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="60" customWidth="1"/>
-    <col min="7" max="9" width="12.125" style="60" customWidth="1"/>
-    <col min="10" max="10" width="33.125" style="61" customWidth="1"/>
-    <col min="11" max="11" width="87.25" style="60" customWidth="1"/>
-    <col min="12" max="16384" width="33.125" style="60"/>
+    <col min="1" max="1" width="3.28515625" style="60" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="60" customWidth="1"/>
+    <col min="3" max="3" width="28.7109375" style="60" customWidth="1"/>
+    <col min="4" max="4" width="3.140625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" style="60" customWidth="1"/>
+    <col min="7" max="9" width="12.140625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="33.140625" style="61" customWidth="1"/>
+    <col min="11" max="11" width="87.28515625" style="60" customWidth="1"/>
+    <col min="12" max="16384" width="33.140625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="16" thickBot="1"/>
-    <row r="2" spans="2:11">
+    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -4447,7 +4364,7 @@
       <c r="J2" s="64"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="65"/>
       <c r="C3" s="66" t="s">
         <v>22</v>
@@ -4461,7 +4378,7 @@
       <c r="J3" s="67"/>
       <c r="K3" s="68"/>
     </row>
-    <row r="4" spans="2:11">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="65"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -4473,7 +4390,7 @@
       <c r="J4" s="69"/>
       <c r="K4" s="68"/>
     </row>
-    <row r="5" spans="2:11">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="70"/>
       <c r="C5" s="71" t="s">
         <v>30</v>
@@ -4489,19 +4406,19 @@
         <v>31</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K5" s="71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
       <c r="D6" s="66"/>
@@ -4513,12 +4430,12 @@
       <c r="J6" s="67"/>
       <c r="K6" s="66"/>
     </row>
-    <row r="7" spans="2:11">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="65"/>
       <c r="C7" s="79"/>
       <c r="D7" s="73"/>
       <c r="E7" s="68" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>10</v>
@@ -4529,7 +4446,7 @@
       <c r="J7" s="69"/>
       <c r="K7" s="83"/>
     </row>
-    <row r="8" spans="2:11">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="65"/>
       <c r="C8" s="74" t="s">
         <v>1</v>
@@ -4543,7 +4460,7 @@
       <c r="J8" s="69"/>
       <c r="K8" s="84"/>
     </row>
-    <row r="9" spans="2:11">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="65"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -4555,7 +4472,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="84"/>
     </row>
-    <row r="10" spans="2:11">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="65"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -4567,32 +4484,32 @@
       <c r="J10" s="69"/>
       <c r="K10" s="84"/>
     </row>
-    <row r="11" spans="2:11">
+    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
       <c r="B11" s="65"/>
       <c r="C11" s="73"/>
       <c r="D11" s="78"/>
       <c r="E11" s="73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F11" s="75" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H11" s="76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I11" s="76"/>
       <c r="J11" s="76" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K11" s="73"/>
     </row>
-    <row r="12" spans="2:11">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="65"/>
       <c r="C12" s="78" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D12" s="78"/>
       <c r="E12" s="73"/>
@@ -4603,10 +4520,10 @@
       <c r="J12" s="76"/>
       <c r="K12" s="73"/>
     </row>
-    <row r="13" spans="2:11">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="65"/>
       <c r="C13" s="73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="78"/>
       <c r="E13" s="73"/>
@@ -4617,7 +4534,7 @@
       <c r="J13" s="76"/>
       <c r="K13" s="73"/>
     </row>
-    <row r="14" spans="2:11">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="65"/>
       <c r="C14" s="78" t="s">
         <v>59</v>
@@ -4631,7 +4548,7 @@
       <c r="J14" s="76"/>
       <c r="K14" s="73"/>
     </row>
-    <row r="15" spans="2:11">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="65"/>
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
@@ -4642,7 +4559,7 @@
       <c r="J15" s="80"/>
       <c r="K15" s="77"/>
     </row>
-    <row r="16" spans="2:11">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="65"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
@@ -4654,28 +4571,28 @@
       <c r="J16" s="80"/>
       <c r="K16" s="77"/>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B17" s="65"/>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
       <c r="E17" s="68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F17" s="73"/>
       <c r="G17" s="82"/>
       <c r="H17" s="82"/>
       <c r="I17" s="73" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J17" s="80"/>
       <c r="K17" s="77" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B18" s="65"/>
       <c r="C18" s="74" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D18" s="73"/>
       <c r="E18" s="68"/>
@@ -4686,23 +4603,23 @@
       <c r="J18" s="80"/>
       <c r="K18" s="77"/>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B19" s="65"/>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B20" s="65"/>
       <c r="C20" s="78"/>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B21" s="65"/>
       <c r="C21" s="176" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="F21" s="60" t="s">
         <v>143</v>
-      </c>
-      <c r="F21" s="60" t="s">
-        <v>144</v>
       </c>
       <c r="G21" s="60">
         <v>2010</v>
@@ -4711,10 +4628,10 @@
         <v>2010</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B22" s="65"/>
     </row>
   </sheetData>
@@ -4723,11 +4640,6 @@
   <ignoredErrors>
     <ignoredError sqref="G11:H11" numberStoredAsText="1"/>
   </ignoredErrors>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -4739,15 +4651,15 @@
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="168" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" style="168" customWidth="1"/>
     <col min="2" max="2" width="5" style="168" customWidth="1"/>
     <col min="3" max="16384" width="7" style="168"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="16" thickBot="1"/>
-    <row r="2" spans="2:21" s="37" customFormat="1">
+    <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="171"/>
       <c r="C2" s="172" t="s">
         <v>84</v>
@@ -4755,7 +4667,7 @@
       <c r="D2" s="172"/>
       <c r="E2" s="172"/>
       <c r="F2" s="172" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G2" s="172"/>
       <c r="H2" s="172"/>
@@ -4773,7 +4685,7 @@
       <c r="T2" s="172"/>
       <c r="U2" s="172"/>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B3" s="169"/>
       <c r="C3" s="170"/>
       <c r="D3" s="170"/>
@@ -4795,10 +4707,10 @@
       <c r="T3" s="170"/>
       <c r="U3" s="170"/>
     </row>
-    <row r="4" spans="2:21">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B4" s="169"/>
       <c r="C4" s="170" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D4" s="170"/>
       <c r="E4" s="170"/>
@@ -4819,10 +4731,10 @@
       <c r="T4" s="170"/>
       <c r="U4" s="170"/>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B5" s="169"/>
       <c r="C5" s="170" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D5" s="170"/>
       <c r="E5" s="170"/>
@@ -4843,7 +4755,7 @@
       <c r="T5" s="170"/>
       <c r="U5" s="170"/>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B6" s="169"/>
       <c r="C6" s="170"/>
       <c r="D6" s="170"/>
@@ -4865,7 +4777,7 @@
       <c r="T6" s="170"/>
       <c r="U6" s="170"/>
     </row>
-    <row r="7" spans="2:21">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B7" s="169"/>
       <c r="C7" s="170"/>
       <c r="D7" s="170"/>
@@ -4887,7 +4799,7 @@
       <c r="T7" s="170"/>
       <c r="U7" s="170"/>
     </row>
-    <row r="8" spans="2:21">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B8" s="169"/>
       <c r="C8" s="170"/>
       <c r="D8" s="170"/>
@@ -4909,7 +4821,7 @@
       <c r="T8" s="170"/>
       <c r="U8" s="170"/>
     </row>
-    <row r="9" spans="2:21">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B9" s="169"/>
       <c r="C9" s="170"/>
       <c r="D9" s="170"/>
@@ -4931,7 +4843,7 @@
       <c r="T9" s="170"/>
       <c r="U9" s="170"/>
     </row>
-    <row r="10" spans="2:21">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B10" s="169"/>
       <c r="C10" s="170"/>
       <c r="D10" s="170"/>
@@ -4939,7 +4851,7 @@
         <v>3000</v>
       </c>
       <c r="F10" s="170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G10" s="170"/>
       <c r="H10" s="170"/>
@@ -4957,10 +4869,10 @@
       <c r="T10" s="170"/>
       <c r="U10" s="170"/>
     </row>
-    <row r="11" spans="2:21">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B11" s="169"/>
       <c r="D11" s="173" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E11" s="174">
         <v>42</v>
@@ -4984,10 +4896,10 @@
       <c r="T11" s="170"/>
       <c r="U11" s="170"/>
     </row>
-    <row r="12" spans="2:21">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B12" s="169"/>
       <c r="D12" s="173" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="174">
         <v>35</v>
@@ -5011,16 +4923,16 @@
       <c r="T12" s="170"/>
       <c r="U12" s="170"/>
     </row>
-    <row r="13" spans="2:21">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B13" s="169"/>
       <c r="D13" s="173" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E13" s="170">
         <v>8000</v>
       </c>
       <c r="F13" s="173" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G13" s="170"/>
       <c r="H13" s="170"/>
@@ -5038,16 +4950,16 @@
       <c r="T13" s="170"/>
       <c r="U13" s="170"/>
     </row>
-    <row r="14" spans="2:21">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B14" s="169"/>
       <c r="D14" s="173" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="170">
         <v>6000</v>
       </c>
       <c r="F14" s="173" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G14" s="170"/>
       <c r="H14" s="170"/>
@@ -5065,7 +4977,7 @@
       <c r="T14" s="170"/>
       <c r="U14" s="170"/>
     </row>
-    <row r="15" spans="2:21">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B15" s="169"/>
       <c r="C15" s="170"/>
       <c r="D15" s="170"/>
@@ -5087,7 +4999,7 @@
       <c r="T15" s="170"/>
       <c r="U15" s="170"/>
     </row>
-    <row r="16" spans="2:21">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B16" s="169"/>
       <c r="C16" s="170"/>
       <c r="D16" s="170"/>
@@ -5109,7 +5021,7 @@
       <c r="T16" s="170"/>
       <c r="U16" s="170"/>
     </row>
-    <row r="17" spans="2:21">
+    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B17" s="169"/>
       <c r="C17" s="170"/>
       <c r="D17" s="170"/>
@@ -5131,7 +5043,7 @@
       <c r="T17" s="170"/>
       <c r="U17" s="170"/>
     </row>
-    <row r="18" spans="2:21">
+    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B18" s="169"/>
       <c r="C18" s="170"/>
       <c r="D18" s="170"/>
@@ -5153,7 +5065,7 @@
       <c r="T18" s="170"/>
       <c r="U18" s="170"/>
     </row>
-    <row r="19" spans="2:21">
+    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B19" s="169"/>
       <c r="C19" s="170"/>
       <c r="D19" s="170"/>
@@ -5175,7 +5087,7 @@
       <c r="T19" s="170"/>
       <c r="U19" s="170"/>
     </row>
-    <row r="20" spans="2:21">
+    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B20" s="169"/>
       <c r="C20" s="170"/>
       <c r="D20" s="170"/>
@@ -5197,7 +5109,7 @@
       <c r="T20" s="170"/>
       <c r="U20" s="170"/>
     </row>
-    <row r="21" spans="2:21">
+    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B21" s="169"/>
       <c r="C21" s="170"/>
       <c r="D21" s="170"/>
@@ -5219,7 +5131,7 @@
       <c r="T21" s="170"/>
       <c r="U21" s="170"/>
     </row>
-    <row r="22" spans="2:21">
+    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B22" s="169"/>
       <c r="C22" s="170"/>
       <c r="D22" s="170"/>
@@ -5241,7 +5153,7 @@
       <c r="T22" s="170"/>
       <c r="U22" s="170"/>
     </row>
-    <row r="23" spans="2:21">
+    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B23" s="169"/>
       <c r="C23" s="170"/>
       <c r="D23" s="170"/>
@@ -5263,7 +5175,7 @@
       <c r="T23" s="170"/>
       <c r="U23" s="170"/>
     </row>
-    <row r="24" spans="2:21">
+    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B24" s="169"/>
       <c r="C24" s="170"/>
       <c r="D24" s="170"/>
@@ -5285,10 +5197,10 @@
       <c r="T24" s="170"/>
       <c r="U24" s="170"/>
     </row>
-    <row r="25" spans="2:21">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="169"/>
       <c r="C25" s="170" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="170"/>
       <c r="E25" s="170"/>
@@ -5309,7 +5221,7 @@
       <c r="T25" s="170"/>
       <c r="U25" s="170"/>
     </row>
-    <row r="26" spans="2:21">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B26" s="169"/>
       <c r="C26" s="170"/>
       <c r="D26" s="170"/>
@@ -5331,7 +5243,7 @@
       <c r="T26" s="170"/>
       <c r="U26" s="170"/>
     </row>
-    <row r="27" spans="2:21">
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B27" s="169"/>
       <c r="C27" s="170"/>
       <c r="D27" s="170"/>
@@ -5353,7 +5265,7 @@
       <c r="T27" s="170"/>
       <c r="U27" s="170"/>
     </row>
-    <row r="28" spans="2:21">
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B28" s="169"/>
       <c r="C28" s="170"/>
       <c r="D28" s="170"/>
@@ -5375,7 +5287,7 @@
       <c r="T28" s="170"/>
       <c r="U28" s="170"/>
     </row>
-    <row r="29" spans="2:21">
+    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B29" s="169"/>
       <c r="C29" s="170"/>
       <c r="D29" s="170"/>
@@ -5397,7 +5309,7 @@
       <c r="T29" s="170"/>
       <c r="U29" s="170"/>
     </row>
-    <row r="30" spans="2:21">
+    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B30" s="169"/>
       <c r="C30" s="170"/>
       <c r="D30" s="170"/>
@@ -5419,7 +5331,7 @@
       <c r="T30" s="170"/>
       <c r="U30" s="170"/>
     </row>
-    <row r="31" spans="2:21">
+    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B31" s="169"/>
       <c r="C31" s="170"/>
       <c r="D31" s="170"/>
@@ -5445,7 +5357,7 @@
       <c r="T31" s="170"/>
       <c r="U31" s="170"/>
     </row>
-    <row r="32" spans="2:21">
+    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B32" s="169"/>
       <c r="C32" s="170"/>
       <c r="D32" s="170"/>
@@ -5467,7 +5379,7 @@
       <c r="T32" s="170"/>
       <c r="U32" s="170"/>
     </row>
-    <row r="33" spans="2:21">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B33" s="169"/>
       <c r="C33" s="170"/>
       <c r="D33" s="170"/>
@@ -5489,7 +5401,7 @@
       <c r="T33" s="170"/>
       <c r="U33" s="170"/>
     </row>
-    <row r="34" spans="2:21">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B34" s="169"/>
       <c r="C34" s="170"/>
       <c r="D34" s="170"/>
@@ -5511,7 +5423,7 @@
       <c r="T34" s="170"/>
       <c r="U34" s="170"/>
     </row>
-    <row r="35" spans="2:21">
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B35" s="169"/>
       <c r="C35" s="170"/>
       <c r="D35" s="170"/>
@@ -5533,7 +5445,7 @@
       <c r="T35" s="170"/>
       <c r="U35" s="170"/>
     </row>
-    <row r="36" spans="2:21">
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B36" s="169"/>
       <c r="C36" s="170"/>
       <c r="D36" s="170"/>
@@ -5555,7 +5467,7 @@
       <c r="T36" s="170"/>
       <c r="U36" s="170"/>
     </row>
-    <row r="37" spans="2:21">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="169"/>
       <c r="C37" s="170"/>
       <c r="D37" s="170"/>
@@ -5563,7 +5475,7 @@
         <v>231.8</v>
       </c>
       <c r="F37" s="170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G37" s="170"/>
       <c r="H37" s="170"/>
@@ -5581,7 +5493,7 @@
       <c r="T37" s="170"/>
       <c r="U37" s="170"/>
     </row>
-    <row r="38" spans="2:21">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B38" s="169"/>
       <c r="C38" s="170"/>
       <c r="D38" s="170"/>
@@ -5589,7 +5501,7 @@
         <v>0</v>
       </c>
       <c r="F38" s="170" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G38" s="170"/>
       <c r="H38" s="170"/>
@@ -5607,7 +5519,7 @@
       <c r="T38" s="170"/>
       <c r="U38" s="170"/>
     </row>
-    <row r="39" spans="2:21">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B39" s="169"/>
       <c r="C39" s="170"/>
       <c r="D39" s="170"/>
@@ -5629,7 +5541,7 @@
       <c r="T39" s="170"/>
       <c r="U39" s="170"/>
     </row>
-    <row r="40" spans="2:21">
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B40" s="169"/>
       <c r="C40" s="170"/>
       <c r="D40" s="170"/>
@@ -5651,7 +5563,7 @@
       <c r="T40" s="170"/>
       <c r="U40" s="170"/>
     </row>
-    <row r="41" spans="2:21">
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B41" s="169"/>
       <c r="C41" s="170"/>
       <c r="D41" s="170"/>
@@ -5673,7 +5585,7 @@
       <c r="T41" s="170"/>
       <c r="U41" s="170"/>
     </row>
-    <row r="42" spans="2:21">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B42" s="169"/>
       <c r="C42" s="170"/>
       <c r="D42" s="170"/>
@@ -5695,7 +5607,7 @@
       <c r="T42" s="170"/>
       <c r="U42" s="170"/>
     </row>
-    <row r="43" spans="2:21">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B43" s="169"/>
       <c r="C43" s="170"/>
       <c r="D43" s="170"/>
@@ -5717,7 +5629,7 @@
       <c r="T43" s="170"/>
       <c r="U43" s="170"/>
     </row>
-    <row r="44" spans="2:21">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B44" s="169"/>
       <c r="C44" s="170"/>
       <c r="D44" s="170"/>
@@ -5739,7 +5651,7 @@
       <c r="T44" s="170"/>
       <c r="U44" s="170"/>
     </row>
-    <row r="45" spans="2:21">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B45" s="169"/>
       <c r="C45" s="170"/>
       <c r="D45" s="170"/>
@@ -5761,7 +5673,7 @@
       <c r="T45" s="170"/>
       <c r="U45" s="170"/>
     </row>
-    <row r="46" spans="2:21">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B46" s="169"/>
       <c r="C46" s="170"/>
       <c r="D46" s="170"/>
@@ -5783,7 +5695,7 @@
       <c r="T46" s="170"/>
       <c r="U46" s="170"/>
     </row>
-    <row r="47" spans="2:21">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B47" s="169"/>
       <c r="C47" s="170"/>
       <c r="D47" s="170"/>
@@ -5805,7 +5717,7 @@
       <c r="T47" s="170"/>
       <c r="U47" s="170"/>
     </row>
-    <row r="48" spans="2:21">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B48" s="169"/>
       <c r="C48" s="170"/>
       <c r="D48" s="170"/>
@@ -5827,10 +5739,10 @@
       <c r="T48" s="170"/>
       <c r="U48" s="170"/>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B49" s="169"/>
       <c r="C49" s="170" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D49" s="170"/>
       <c r="E49" s="170"/>
@@ -5851,7 +5763,7 @@
       <c r="T49" s="170"/>
       <c r="U49" s="170"/>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B50" s="169"/>
       <c r="C50" s="170"/>
       <c r="D50" s="170"/>
@@ -5873,7 +5785,7 @@
       <c r="T50" s="170"/>
       <c r="U50" s="170"/>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B51" s="169"/>
       <c r="C51" s="170"/>
       <c r="D51" s="170"/>
@@ -5895,7 +5807,7 @@
       <c r="T51" s="170"/>
       <c r="U51" s="170"/>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B52" s="169"/>
       <c r="C52" s="170"/>
       <c r="D52" s="170"/>
@@ -5917,7 +5829,7 @@
       <c r="T52" s="170"/>
       <c r="U52" s="170"/>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B53" s="169"/>
       <c r="C53" s="170"/>
       <c r="D53" s="170"/>
@@ -5939,7 +5851,7 @@
       <c r="T53" s="170"/>
       <c r="U53" s="170"/>
     </row>
-    <row r="54" spans="2:21">
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B54" s="169"/>
       <c r="C54" s="170"/>
       <c r="D54" s="170"/>
@@ -5965,7 +5877,7 @@
       <c r="T54" s="170"/>
       <c r="U54" s="170"/>
     </row>
-    <row r="55" spans="2:21">
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B55" s="169"/>
       <c r="C55" s="170"/>
       <c r="D55" s="170"/>
@@ -5987,7 +5899,7 @@
       <c r="T55" s="170"/>
       <c r="U55" s="170"/>
     </row>
-    <row r="56" spans="2:21">
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B56" s="169"/>
       <c r="C56" s="170"/>
       <c r="D56" s="170"/>
@@ -6009,7 +5921,7 @@
       <c r="T56" s="170"/>
       <c r="U56" s="170"/>
     </row>
-    <row r="57" spans="2:21">
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B57" s="169"/>
       <c r="C57" s="170"/>
       <c r="D57" s="170"/>
@@ -6031,7 +5943,7 @@
       <c r="T57" s="170"/>
       <c r="U57" s="170"/>
     </row>
-    <row r="58" spans="2:21">
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B58" s="169"/>
       <c r="C58" s="170"/>
       <c r="D58" s="170"/>
@@ -6053,7 +5965,7 @@
       <c r="T58" s="170"/>
       <c r="U58" s="170"/>
     </row>
-    <row r="59" spans="2:21">
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B59" s="169"/>
       <c r="C59" s="170"/>
       <c r="D59" s="170"/>
@@ -6075,7 +5987,7 @@
       <c r="T59" s="170"/>
       <c r="U59" s="170"/>
     </row>
-    <row r="60" spans="2:21">
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B60" s="169"/>
       <c r="C60" s="170"/>
       <c r="D60" s="170"/>
@@ -6097,7 +6009,7 @@
       <c r="T60" s="170"/>
       <c r="U60" s="170"/>
     </row>
-    <row r="61" spans="2:21">
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B61" s="169"/>
       <c r="C61" s="170"/>
       <c r="D61" s="170"/>
@@ -6119,7 +6031,7 @@
       <c r="T61" s="170"/>
       <c r="U61" s="170"/>
     </row>
-    <row r="62" spans="2:21">
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B62" s="169"/>
       <c r="C62" s="170"/>
       <c r="D62" s="170"/>
@@ -6141,7 +6053,7 @@
       <c r="T62" s="170"/>
       <c r="U62" s="170"/>
     </row>
-    <row r="63" spans="2:21">
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B63" s="169"/>
       <c r="C63" s="170"/>
       <c r="D63" s="170"/>
@@ -6163,7 +6075,7 @@
       <c r="T63" s="170"/>
       <c r="U63" s="170"/>
     </row>
-    <row r="64" spans="2:21">
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B64" s="169"/>
       <c r="C64" s="170"/>
       <c r="D64" s="170"/>
@@ -6185,7 +6097,7 @@
       <c r="T64" s="170"/>
       <c r="U64" s="170"/>
     </row>
-    <row r="65" spans="2:21">
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B65" s="169"/>
       <c r="C65" s="170"/>
       <c r="D65" s="170"/>
@@ -6207,7 +6119,7 @@
       <c r="T65" s="170"/>
       <c r="U65" s="170"/>
     </row>
-    <row r="66" spans="2:21">
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B66" s="169"/>
       <c r="C66" s="170"/>
       <c r="D66" s="170"/>
@@ -6229,7 +6141,7 @@
       <c r="T66" s="170"/>
       <c r="U66" s="170"/>
     </row>
-    <row r="67" spans="2:21">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B67" s="169"/>
       <c r="C67" s="170"/>
       <c r="D67" s="170"/>
@@ -6251,7 +6163,7 @@
       <c r="T67" s="170"/>
       <c r="U67" s="170"/>
     </row>
-    <row r="68" spans="2:21">
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B68" s="169"/>
       <c r="C68" s="170"/>
       <c r="D68" s="170"/>
@@ -6273,7 +6185,7 @@
       <c r="T68" s="170"/>
       <c r="U68" s="170"/>
     </row>
-    <row r="69" spans="2:21">
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B69" s="169"/>
       <c r="C69" s="170"/>
       <c r="D69" s="170"/>
@@ -6295,7 +6207,7 @@
       <c r="T69" s="170"/>
       <c r="U69" s="170"/>
     </row>
-    <row r="70" spans="2:21">
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B70" s="169"/>
       <c r="C70" s="170"/>
       <c r="D70" s="170"/>
@@ -6317,7 +6229,7 @@
       <c r="T70" s="170"/>
       <c r="U70" s="170"/>
     </row>
-    <row r="71" spans="2:21">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B71" s="169"/>
       <c r="C71" s="170"/>
       <c r="D71" s="170"/>
@@ -6325,7 +6237,7 @@
         <v>4130</v>
       </c>
       <c r="F71" s="170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G71" s="170"/>
       <c r="H71" s="170"/>
@@ -6343,7 +6255,7 @@
       <c r="T71" s="170"/>
       <c r="U71" s="170"/>
     </row>
-    <row r="72" spans="2:21">
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B72" s="169"/>
       <c r="C72" s="170"/>
       <c r="D72" s="170"/>
@@ -6351,7 +6263,7 @@
         <v>1490</v>
       </c>
       <c r="F72" s="170" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G72" s="170"/>
       <c r="H72" s="170"/>
@@ -6369,7 +6281,7 @@
       <c r="T72" s="170"/>
       <c r="U72" s="170"/>
     </row>
-    <row r="73" spans="2:21">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B73" s="169"/>
       <c r="C73" s="170"/>
       <c r="D73" s="170"/>
@@ -6391,7 +6303,7 @@
       <c r="T73" s="170"/>
       <c r="U73" s="170"/>
     </row>
-    <row r="74" spans="2:21">
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B74" s="169"/>
       <c r="C74" s="170"/>
       <c r="D74" s="170"/>
@@ -6413,7 +6325,7 @@
       <c r="T74" s="170"/>
       <c r="U74" s="170"/>
     </row>
-    <row r="75" spans="2:21">
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B75" s="169"/>
       <c r="C75" s="170"/>
       <c r="D75" s="170"/>
@@ -6435,7 +6347,7 @@
       <c r="T75" s="170"/>
       <c r="U75" s="170"/>
     </row>
-    <row r="76" spans="2:21">
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B76" s="169"/>
       <c r="C76" s="170"/>
       <c r="D76" s="170"/>
@@ -6457,7 +6369,7 @@
       <c r="T76" s="170"/>
       <c r="U76" s="170"/>
     </row>
-    <row r="77" spans="2:21">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B77" s="169"/>
       <c r="C77" s="170"/>
       <c r="D77" s="170"/>
@@ -6479,7 +6391,7 @@
       <c r="T77" s="170"/>
       <c r="U77" s="170"/>
     </row>
-    <row r="78" spans="2:21">
+    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B78" s="169"/>
       <c r="C78" s="170"/>
       <c r="D78" s="170"/>
@@ -6501,7 +6413,7 @@
       <c r="T78" s="170"/>
       <c r="U78" s="170"/>
     </row>
-    <row r="79" spans="2:21">
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="169"/>
       <c r="C79" s="170"/>
       <c r="D79" s="170"/>
@@ -6523,7 +6435,7 @@
       <c r="T79" s="170"/>
       <c r="U79" s="170"/>
     </row>
-    <row r="80" spans="2:21">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B80" s="169"/>
       <c r="C80" s="170"/>
       <c r="D80" s="170"/>
@@ -6545,7 +6457,7 @@
       <c r="T80" s="170"/>
       <c r="U80" s="170"/>
     </row>
-    <row r="81" spans="2:21">
+    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B81" s="169"/>
       <c r="C81" s="170"/>
       <c r="D81" s="170"/>
@@ -6567,37 +6479,37 @@
       <c r="T81" s="170"/>
       <c r="U81" s="170"/>
     </row>
-    <row r="82" spans="2:21">
+    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B82" s="169"/>
     </row>
-    <row r="83" spans="2:21">
+    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B83" s="169"/>
     </row>
-    <row r="84" spans="2:21">
+    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B84" s="169"/>
       <c r="C84" s="175" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="85" spans="2:21">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B85" s="169"/>
       <c r="C85" s="175" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="86" spans="2:21">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B86" s="169"/>
     </row>
-    <row r="87" spans="2:21">
+    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B87" s="169"/>
     </row>
-    <row r="88" spans="2:21">
+    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B88" s="169"/>
     </row>
-    <row r="89" spans="2:21">
+    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B89" s="169"/>
     </row>
-    <row r="90" spans="2:21">
+    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B90" s="169"/>
       <c r="D90" s="175" t="s">
         <v>1</v>
@@ -6606,10 +6518,10 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="F90" s="175" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="91" spans="2:21">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B91" s="169"/>
       <c r="D91" s="175" t="s">
         <v>6</v>
@@ -6618,104 +6530,99 @@
         <v>20</v>
       </c>
       <c r="F91" s="175" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="92" spans="2:21">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B92" s="169"/>
     </row>
-    <row r="93" spans="2:21">
+    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B93" s="169"/>
     </row>
-    <row r="94" spans="2:21">
+    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B94" s="169"/>
     </row>
-    <row r="95" spans="2:21">
+    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B95" s="169"/>
     </row>
-    <row r="96" spans="2:21">
+    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B96" s="169"/>
     </row>
-    <row r="97" spans="2:2">
+    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B97" s="169"/>
     </row>
-    <row r="98" spans="2:2">
+    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B98" s="169"/>
     </row>
-    <row r="99" spans="2:2">
+    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B99" s="169"/>
     </row>
-    <row r="100" spans="2:2">
+    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B100" s="169"/>
     </row>
-    <row r="101" spans="2:2">
+    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B101" s="169"/>
     </row>
-    <row r="102" spans="2:2">
+    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B102" s="169"/>
     </row>
-    <row r="103" spans="2:2">
+    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B103" s="169"/>
     </row>
-    <row r="104" spans="2:2">
+    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B104" s="169"/>
     </row>
-    <row r="105" spans="2:2">
+    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B105" s="169"/>
     </row>
-    <row r="106" spans="2:2">
+    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B106" s="169"/>
     </row>
-    <row r="107" spans="2:2">
+    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B107" s="169"/>
     </row>
-    <row r="108" spans="2:2">
+    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B108" s="169"/>
     </row>
-    <row r="109" spans="2:2">
+    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B109" s="169"/>
     </row>
-    <row r="110" spans="2:2">
+    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B110" s="169"/>
     </row>
-    <row r="111" spans="2:2">
+    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B111" s="169"/>
     </row>
-    <row r="112" spans="2:2">
+    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B112" s="169"/>
     </row>
-    <row r="113" spans="2:2">
+    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B113" s="169"/>
     </row>
-    <row r="114" spans="2:2">
+    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B114" s="169"/>
     </row>
-    <row r="115" spans="2:2">
+    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B115" s="169"/>
     </row>
-    <row r="116" spans="2:2">
+    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B116" s="169"/>
     </row>
-    <row r="117" spans="2:2">
+    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B117" s="169"/>
     </row>
-    <row r="118" spans="2:2">
+    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B118" s="169"/>
     </row>
-    <row r="119" spans="2:2">
+    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B119" s="169"/>
     </row>
-    <row r="120" spans="2:2">
+    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B120" s="169"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/nodes_source_analyses/buildings/buildings_chp_engine_biogas.central_producer.xlsx
+++ b/nodes_source_analyses/buildings/buildings_chp_engine_biogas.central_producer.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dorinevandervlies/Projects/etdataset/nodes_source_analyses/buildings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/buildings/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90EC5A4D-C10E-A446-8F3C-799C27B44871}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27960" windowHeight="17540" tabRatio="762" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -36,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="179017" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="140">
   <si>
     <t>Source</t>
   </si>
@@ -238,36 +239,6 @@
   </si>
   <si>
     <t>MW</t>
-  </si>
-  <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_se</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the summer day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fal in the same time in the summer evining</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter day</t>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the same time in the winter evining</t>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <t>Author</t>
@@ -626,6 +597,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>rake import:node NODE="nodename"</t>
     </r>
@@ -644,13 +616,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
-  <fonts count="34" x14ac:knownFonts="1">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -809,6 +781,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -816,6 +789,7 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -823,6 +797,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -830,6 +805,7 @@
       <sz val="16"/>
       <color rgb="FF1F497D"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -837,6 +813,7 @@
       <sz val="12"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -844,17 +821,20 @@
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -868,17 +848,20 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -1478,7 +1461,7 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="187">
+  <cellXfs count="184">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1618,9 +1601,6 @@
     <xf numFmtId="0" fontId="28" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2077,6 +2057,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2098,7 +2081,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2136,7 +2125,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2174,7 +2169,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2212,7 +2213,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2250,7 +2257,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2710,58 +2723,58 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.42578125" style="42" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="34" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" style="34" customWidth="1"/>
-    <col min="4" max="16384" width="10.7109375" style="34"/>
+    <col min="1" max="1" width="3.5" style="42" customWidth="1"/>
+    <col min="2" max="2" width="9.1640625" style="34" customWidth="1"/>
+    <col min="3" max="3" width="44.1640625" style="34" customWidth="1"/>
+    <col min="4" max="16384" width="10.6640625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="40" customFormat="1">
       <c r="A1" s="38"/>
       <c r="B1" s="39"/>
       <c r="C1" s="39"/>
     </row>
-    <row r="2" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="17"/>
       <c r="B2" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C2" s="41"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="17"/>
       <c r="B3" s="24"/>
       <c r="C3" s="24"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="17"/>
       <c r="B4" s="18" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="17"/>
       <c r="B5" s="20" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="17"/>
       <c r="B6" s="22" t="s">
         <v>20</v>
@@ -2770,118 +2783,118 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="17"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="17"/>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="17"/>
-      <c r="B9" s="125" t="s">
+      <c r="B9" s="122" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="123"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="17"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="17"/>
+      <c r="B11" s="124" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="126" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="17"/>
+      <c r="B12" s="124"/>
+      <c r="C12" s="30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="17"/>
+      <c r="B13" s="124"/>
+      <c r="C13" s="127" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="17"/>
+      <c r="B14" s="124"/>
+      <c r="C14" s="125" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="124"/>
+      <c r="C15" s="125"/>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="17"/>
+      <c r="B16" s="124" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="128" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="124"/>
+      <c r="C17" s="129" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="17"/>
+      <c r="B18" s="124"/>
+      <c r="C18" s="130" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="17"/>
+      <c r="B19" s="124"/>
+      <c r="C19" s="131" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="126"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="127"/>
-      <c r="C10" s="128"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="127" t="s">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="17"/>
+      <c r="B20" s="132"/>
+      <c r="C20" s="133" t="s">
         <v>75</v>
       </c>
-      <c r="C11" s="129" t="s">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="17"/>
+      <c r="B21" s="132"/>
+      <c r="C21" s="134" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="127"/>
-      <c r="C12" s="30" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="17"/>
+      <c r="B22" s="132"/>
+      <c r="C22" s="135" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="127"/>
-      <c r="C13" s="130" t="s">
+    <row r="23" spans="1:3">
+      <c r="B23" s="132"/>
+      <c r="C23" s="136" t="s">
         <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="127"/>
-      <c r="C14" s="128" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
-      <c r="B15" s="127"/>
-      <c r="C15" s="128"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
-      <c r="B16" s="127" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="131" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="17"/>
-      <c r="B17" s="127"/>
-      <c r="C17" s="132" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="17"/>
-      <c r="B18" s="127"/>
-      <c r="C18" s="133" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="17"/>
-      <c r="B19" s="127"/>
-      <c r="C19" s="134" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
-      <c r="B20" s="135"/>
-      <c r="C20" s="136" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
-      <c r="B21" s="135"/>
-      <c r="C21" s="137" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
-      <c r="B22" s="135"/>
-      <c r="C22" s="138" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="135"/>
-      <c r="C23" s="139" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -2891,67 +2904,67 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="B1:K47"/>
+  <dimension ref="B1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="49" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="3.6640625" style="49" customWidth="1"/>
     <col min="3" max="3" width="46" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="4.5703125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="49" customWidth="1"/>
+    <col min="6" max="6" width="4.5" style="49" customWidth="1"/>
     <col min="7" max="7" width="45" style="49" customWidth="1"/>
-    <col min="8" max="8" width="5.140625" style="49" customWidth="1"/>
-    <col min="9" max="9" width="51.42578125" style="49" customWidth="1"/>
-    <col min="10" max="10" width="5.42578125" style="49" customWidth="1"/>
-    <col min="11" max="16384" width="10.7109375" style="49"/>
+    <col min="8" max="8" width="5.1640625" style="49" customWidth="1"/>
+    <col min="9" max="9" width="51.5" style="49" customWidth="1"/>
+    <col min="10" max="10" width="5.5" style="49" customWidth="1"/>
+    <col min="11" max="16384" width="10.6640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11">
       <c r="D1" s="47"/>
       <c r="E1" s="47"/>
       <c r="F1" s="47"/>
       <c r="G1" s="47"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B2" s="178" t="s">
-        <v>149</v>
-      </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="180"/>
+    <row r="2" spans="2:11">
+      <c r="B2" s="175" t="s">
+        <v>139</v>
+      </c>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="177"/>
       <c r="F2" s="47"/>
       <c r="G2" s="47"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B3" s="181"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="183"/>
+    <row r="3" spans="2:11">
+      <c r="B3" s="178"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
+      <c r="E3" s="180"/>
       <c r="F3" s="47"/>
       <c r="G3" s="47"/>
     </row>
-    <row r="4" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="184"/>
-      <c r="C4" s="185"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="186"/>
+    <row r="4" spans="2:11" ht="45" customHeight="1">
+      <c r="B4" s="181"/>
+      <c r="C4" s="182"/>
+      <c r="D4" s="182"/>
+      <c r="E4" s="183"/>
       <c r="F4" s="47"/>
       <c r="G4" s="47"/>
     </row>
-    <row r="5" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="17" thickBot="1">
       <c r="D5" s="47"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="50"/>
       <c r="C6" s="32"/>
       <c r="D6" s="32"/>
@@ -2962,12 +2975,12 @@
       <c r="I6" s="32"/>
       <c r="J6" s="51"/>
     </row>
-    <row r="7" spans="2:11" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="B7" s="140"/>
+    <row r="7" spans="2:11" s="56" customFormat="1" ht="19">
+      <c r="B7" s="137"/>
       <c r="C7" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="138" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="31" t="s">
@@ -2981,9 +2994,9 @@
       <c r="I7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="147"/>
-    </row>
-    <row r="8" spans="2:11" s="56" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="J7" s="144"/>
+    </row>
+    <row r="8" spans="2:11" s="56" customFormat="1" ht="19">
       <c r="B8" s="36"/>
       <c r="C8" s="30"/>
       <c r="D8" s="44"/>
@@ -2994,10 +3007,10 @@
       <c r="I8" s="30"/>
       <c r="J8" s="57"/>
     </row>
-    <row r="9" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1">
       <c r="B9" s="36"/>
       <c r="C9" s="30" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="D9" s="44"/>
       <c r="E9" s="30"/>
@@ -3007,10 +3020,10 @@
       <c r="I9" s="30"/>
       <c r="J9" s="57"/>
     </row>
-    <row r="10" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1">
       <c r="B10" s="36"/>
-      <c r="C10" s="157" t="s">
-        <v>101</v>
+      <c r="C10" s="154" t="s">
+        <v>91</v>
       </c>
       <c r="D10" s="33" t="s">
         <v>5</v>
@@ -3022,15 +3035,15 @@
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
       <c r="H10" s="43"/>
-      <c r="I10" s="124" t="s">
-        <v>103</v>
+      <c r="I10" s="121" t="s">
+        <v>93</v>
       </c>
       <c r="J10" s="57"/>
     </row>
-    <row r="11" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1">
       <c r="B11" s="36"/>
       <c r="C11" s="48" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D11" s="33" t="s">
         <v>5</v>
@@ -3042,12 +3055,12 @@
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
       <c r="H11" s="43"/>
-      <c r="I11" s="124" t="s">
-        <v>103</v>
+      <c r="I11" s="121" t="s">
+        <v>93</v>
       </c>
       <c r="J11" s="57"/>
     </row>
-    <row r="12" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" s="56" customFormat="1" ht="20" thickBot="1">
       <c r="B12" s="36"/>
       <c r="C12" s="48" t="s">
         <v>61</v>
@@ -3062,12 +3075,12 @@
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
       <c r="H12" s="43"/>
-      <c r="I12" s="124" t="s">
-        <v>103</v>
+      <c r="I12" s="121" t="s">
+        <v>93</v>
       </c>
       <c r="J12" s="57"/>
     </row>
-    <row r="13" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" ht="17" thickBot="1">
       <c r="B13" s="52"/>
       <c r="C13" s="48" t="s">
         <v>34</v>
@@ -3084,10 +3097,10 @@
       <c r="I13" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="148"/>
+      <c r="J13" s="145"/>
       <c r="K13" s="47"/>
     </row>
-    <row r="14" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" ht="17" thickBot="1">
       <c r="B14" s="52"/>
       <c r="C14" s="48" t="s">
         <v>35</v>
@@ -3104,10 +3117,10 @@
       <c r="I14" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="148"/>
+      <c r="J14" s="145"/>
       <c r="K14" s="47"/>
     </row>
-    <row r="15" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" ht="17" thickBot="1">
       <c r="B15" s="52"/>
       <c r="C15" s="48" t="s">
         <v>37</v>
@@ -3124,10 +3137,10 @@
       <c r="I15" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="148"/>
+      <c r="J15" s="145"/>
       <c r="K15" s="47"/>
     </row>
-    <row r="16" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" ht="17" thickBot="1">
       <c r="B16" s="52"/>
       <c r="C16" s="48" t="s">
         <v>40</v>
@@ -3144,10 +3157,10 @@
       <c r="I16" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="148"/>
+      <c r="J16" s="145"/>
       <c r="K16" s="47"/>
     </row>
-    <row r="17" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" ht="17" thickBot="1">
       <c r="B17" s="52"/>
       <c r="C17" s="48" t="s">
         <v>41</v>
@@ -3164,10 +3177,10 @@
       <c r="I17" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J17" s="148"/>
+      <c r="J17" s="145"/>
       <c r="K17" s="47"/>
     </row>
-    <row r="18" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" ht="17" thickBot="1">
       <c r="B18" s="52"/>
       <c r="C18" s="48" t="s">
         <v>42</v>
@@ -3187,9 +3200,9 @@
       <c r="I18" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J18" s="148"/>
-    </row>
-    <row r="19" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="145"/>
+    </row>
+    <row r="19" spans="2:11" ht="17" thickBot="1">
       <c r="B19" s="52"/>
       <c r="C19" s="48" t="s">
         <v>43</v>
@@ -3197,7 +3210,7 @@
       <c r="D19" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="163">
+      <c r="E19" s="160">
         <f>SUM(E11:E12)/E10*E18</f>
         <v>1.1111111111111109</v>
       </c>
@@ -3209,531 +3222,426 @@
       <c r="I19" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J19" s="148"/>
-    </row>
-    <row r="20" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J19" s="145"/>
+    </row>
+    <row r="20" spans="2:11">
       <c r="B20" s="52"/>
-      <c r="C20" s="85" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="58">
+      <c r="C20" s="105"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="145"/>
+    </row>
+    <row r="21" spans="2:11" ht="17" thickBot="1">
+      <c r="B21" s="52"/>
+      <c r="C21" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="140"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="145"/>
+    </row>
+    <row r="22" spans="2:11" ht="17" thickBot="1">
+      <c r="B22" s="52"/>
+      <c r="C22" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="59">
+        <f>'Research data'!G17</f>
+        <v>3000000</v>
+      </c>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="H22" s="48"/>
+      <c r="I22" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="J22" s="145"/>
+    </row>
+    <row r="23" spans="2:11" ht="17" thickBot="1">
+      <c r="B23" s="52"/>
+      <c r="C23" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="59">
         <v>0</v>
       </c>
-      <c r="F20" s="48"/>
-      <c r="G20" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="H20" s="48"/>
-      <c r="I20" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J20" s="148"/>
-    </row>
-    <row r="21" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="52"/>
-      <c r="C21" s="85" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="58">
-        <v>0</v>
-      </c>
-      <c r="F21" s="48"/>
-      <c r="G21" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="H21" s="48"/>
-      <c r="I21" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J21" s="148"/>
-    </row>
-    <row r="22" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="52"/>
-      <c r="C22" s="85" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="58">
-        <v>-0.75</v>
-      </c>
-      <c r="F22" s="48"/>
-      <c r="G22" s="86" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="48"/>
-      <c r="I22" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J22" s="148"/>
-    </row>
-    <row r="23" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="52"/>
-      <c r="C23" s="85" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="58">
-        <v>-0.75</v>
-      </c>
       <c r="F23" s="48"/>
-      <c r="G23" s="86" t="s">
-        <v>71</v>
+      <c r="G23" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="H23" s="48"/>
       <c r="I23" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J23" s="148"/>
-    </row>
-    <row r="24" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J23" s="145"/>
+    </row>
+    <row r="24" spans="2:11" ht="17" thickBot="1">
       <c r="B24" s="52"/>
-      <c r="C24" s="85" t="s">
-        <v>67</v>
+      <c r="C24" s="48" t="s">
+        <v>12</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="E24" s="59">
         <v>0</v>
       </c>
       <c r="F24" s="48"/>
-      <c r="G24" s="87" t="s">
-        <v>72</v>
+      <c r="G24" s="48" t="s">
+        <v>24</v>
       </c>
       <c r="H24" s="48"/>
       <c r="I24" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J24" s="148"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="J24" s="145"/>
+    </row>
+    <row r="25" spans="2:11" ht="17" thickBot="1">
       <c r="B25" s="52"/>
-      <c r="C25" s="108"/>
-      <c r="D25" s="143"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="108"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="148"/>
-    </row>
-    <row r="26" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C25" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="59">
+        <v>0</v>
+      </c>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="48"/>
+      <c r="I25" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J25" s="145"/>
+    </row>
+    <row r="26" spans="2:11" ht="17" thickBot="1">
       <c r="B26" s="52"/>
-      <c r="C26" s="30" t="s">
-        <v>89</v>
-      </c>
-      <c r="D26" s="143"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="108"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="148"/>
-    </row>
-    <row r="27" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C26" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="E26" s="139">
+        <f>'Research data'!G19</f>
+        <v>231800</v>
+      </c>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="H26" s="48"/>
+      <c r="I26" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="J26" s="145"/>
+    </row>
+    <row r="27" spans="2:11" ht="17" thickBot="1">
       <c r="B27" s="52"/>
       <c r="C27" s="48" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="59">
-        <f>'Research data'!G17</f>
-        <v>3000000</v>
+        <v>53</v>
+      </c>
+      <c r="E27" s="58">
+        <f>'Research data'!G21</f>
+        <v>0</v>
       </c>
       <c r="F27" s="48"/>
       <c r="G27" s="48" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="H27" s="48"/>
-      <c r="I27" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="J27" s="148"/>
-    </row>
-    <row r="28" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I27" s="121" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="145"/>
+    </row>
+    <row r="28" spans="2:11" ht="17" thickBot="1">
       <c r="B28" s="52"/>
       <c r="C28" s="48" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="59">
+        <v>53</v>
+      </c>
+      <c r="E28" s="142">
         <v>0</v>
       </c>
       <c r="F28" s="48"/>
       <c r="G28" s="48" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H28" s="48"/>
-      <c r="I28" s="46" t="s">
+      <c r="I28" s="155" t="s">
         <v>55</v>
       </c>
-      <c r="J28" s="148"/>
-    </row>
-    <row r="29" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J28" s="145"/>
+    </row>
+    <row r="29" spans="2:11" ht="17" thickBot="1">
       <c r="B29" s="52"/>
       <c r="C29" s="48" t="s">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="E29" s="59">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F29" s="48"/>
       <c r="G29" s="48" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H29" s="48"/>
       <c r="I29" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J29" s="148"/>
-    </row>
-    <row r="30" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J29" s="145"/>
+    </row>
+    <row r="30" spans="2:11" ht="17" thickBot="1">
       <c r="B30" s="52"/>
       <c r="C30" s="48" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E30" s="59">
         <v>0</v>
       </c>
       <c r="F30" s="48"/>
-      <c r="G30" s="48" t="s">
-        <v>27</v>
-      </c>
+      <c r="G30" s="48"/>
       <c r="H30" s="48"/>
       <c r="I30" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="J30" s="148"/>
-    </row>
-    <row r="31" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="J30" s="145"/>
+    </row>
+    <row r="31" spans="2:11">
       <c r="B31" s="52"/>
-      <c r="C31" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="D31" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="E31" s="142">
-        <f>'Research data'!G19</f>
-        <v>231800</v>
-      </c>
+      <c r="C31" s="48"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="143"/>
       <c r="F31" s="48"/>
-      <c r="G31" s="48" t="s">
-        <v>58</v>
-      </c>
+      <c r="G31" s="48"/>
       <c r="H31" s="48"/>
-      <c r="I31" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="J31" s="148"/>
-    </row>
-    <row r="32" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="47"/>
+      <c r="J31" s="145"/>
+    </row>
+    <row r="32" spans="2:11" ht="17" thickBot="1">
       <c r="B32" s="52"/>
-      <c r="C32" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="D32" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="58">
-        <f>'Research data'!G21</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48" t="s">
-        <v>59</v>
-      </c>
-      <c r="H32" s="48"/>
-      <c r="I32" s="124" t="s">
-        <v>103</v>
-      </c>
-      <c r="J32" s="148"/>
-    </row>
-    <row r="33" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C32" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="140"/>
+      <c r="E32" s="143"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="145"/>
+    </row>
+    <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="52"/>
       <c r="C33" s="48" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="E33" s="145">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E33" s="161">
+        <f>'Research data'!G12</f>
+        <v>1E-4</v>
       </c>
       <c r="F33" s="48"/>
       <c r="G33" s="48" t="s">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="H33" s="48"/>
-      <c r="I33" s="158" t="s">
-        <v>55</v>
-      </c>
-      <c r="J33" s="148"/>
-    </row>
-    <row r="34" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I33" s="164" t="s">
+        <v>105</v>
+      </c>
+      <c r="J33" s="145"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
       <c r="B34" s="52"/>
       <c r="C34" s="48" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E34" s="59">
-        <v>0.1</v>
+        <v>2</v>
+      </c>
+      <c r="E34" s="139">
+        <f>'Research data'!G13</f>
+        <v>1</v>
       </c>
       <c r="F34" s="48"/>
       <c r="G34" s="48" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H34" s="48"/>
-      <c r="I34" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J34" s="148"/>
-    </row>
-    <row r="35" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I34" s="157" t="s">
+        <v>107</v>
+      </c>
+      <c r="J34" s="145"/>
+    </row>
+    <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="52"/>
       <c r="C35" s="48" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E35" s="59">
+        <f>'Research data'!G14</f>
+        <v>20</v>
+      </c>
+      <c r="F35" s="48"/>
+      <c r="G35" s="48" t="s">
+        <v>25</v>
+      </c>
+      <c r="H35" s="48"/>
+      <c r="I35" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J35" s="145"/>
+    </row>
+    <row r="36" spans="2:10" ht="17" thickBot="1">
+      <c r="B36" s="52"/>
+      <c r="C36" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="59">
         <v>0</v>
       </c>
-      <c r="F35" s="48"/>
-      <c r="G35" s="48"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J35" s="148"/>
-    </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="52"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="146"/>
       <c r="F36" s="48"/>
       <c r="G36" s="48"/>
       <c r="H36" s="48"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="148"/>
-    </row>
-    <row r="37" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I36" s="46" t="s">
+        <v>55</v>
+      </c>
+      <c r="J36" s="145"/>
+    </row>
+    <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="52"/>
-      <c r="C37" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="143"/>
-      <c r="E37" s="146"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="148"/>
-    </row>
-    <row r="38" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C37" s="159" t="s">
+        <v>98</v>
+      </c>
+      <c r="D37" s="35"/>
+      <c r="E37" s="139">
+        <v>2160</v>
+      </c>
+      <c r="F37" s="48"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J37" s="145"/>
+    </row>
+    <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="52"/>
-      <c r="C38" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E38" s="164">
-        <f>'Research data'!G12</f>
-        <v>1E-4</v>
+      <c r="C38" s="159" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="35"/>
+      <c r="E38" s="139">
+        <v>0</v>
       </c>
       <c r="F38" s="48"/>
-      <c r="G38" s="48" t="s">
-        <v>15</v>
-      </c>
+      <c r="G38" s="48"/>
       <c r="H38" s="48"/>
-      <c r="I38" s="167" t="s">
-        <v>115</v>
-      </c>
-      <c r="J38" s="148"/>
-    </row>
-    <row r="39" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J38" s="145"/>
+    </row>
+    <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="52"/>
-      <c r="C39" s="48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E39" s="142">
-        <f>'Research data'!G13</f>
-        <v>1</v>
+      <c r="C39" s="159" t="s">
+        <v>100</v>
+      </c>
+      <c r="D39" s="35"/>
+      <c r="E39" s="139">
+        <v>22680</v>
       </c>
       <c r="F39" s="48"/>
-      <c r="G39" s="48" t="s">
-        <v>26</v>
-      </c>
+      <c r="G39" s="48"/>
       <c r="H39" s="48"/>
-      <c r="I39" s="160" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" s="148"/>
-    </row>
-    <row r="40" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J39" s="145"/>
+    </row>
+    <row r="40" spans="2:10" ht="17" thickBot="1">
       <c r="B40" s="52"/>
-      <c r="C40" s="48" t="s">
-        <v>51</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E40" s="59">
-        <f>'Research data'!G14</f>
-        <v>20</v>
+      <c r="C40" s="159" t="s">
+        <v>101</v>
+      </c>
+      <c r="D40" s="35"/>
+      <c r="E40" s="139">
+        <v>4140</v>
       </c>
       <c r="F40" s="48"/>
-      <c r="G40" s="48" t="s">
-        <v>25</v>
-      </c>
+      <c r="G40" s="48"/>
       <c r="H40" s="48"/>
-      <c r="I40" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J40" s="148"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="46" t="s">
+        <v>138</v>
+      </c>
+      <c r="J40" s="145"/>
+    </row>
+    <row r="41" spans="2:10" ht="17" thickBot="1">
       <c r="B41" s="52"/>
-      <c r="C41" s="48" t="s">
-        <v>36</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="59">
-        <v>0</v>
+      <c r="C41" s="159" t="s">
+        <v>102</v>
+      </c>
+      <c r="D41" s="35"/>
+      <c r="E41" s="139">
+        <v>1620</v>
       </c>
       <c r="F41" s="48"/>
       <c r="G41" s="48"/>
       <c r="H41" s="48"/>
       <c r="I41" s="46" t="s">
-        <v>55</v>
-      </c>
-      <c r="J41" s="148"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="52"/>
-      <c r="C42" s="162" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="35"/>
-      <c r="E42" s="142">
-        <v>2160</v>
-      </c>
-      <c r="F42" s="48"/>
-      <c r="G42" s="48"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="J42" s="148"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="52"/>
-      <c r="C43" s="162" t="s">
-        <v>109</v>
-      </c>
-      <c r="D43" s="35"/>
-      <c r="E43" s="142">
-        <v>0</v>
-      </c>
-      <c r="F43" s="48"/>
-      <c r="G43" s="48"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="J43" s="148"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="52"/>
-      <c r="C44" s="162" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="35"/>
-      <c r="E44" s="142">
-        <v>22680</v>
-      </c>
-      <c r="F44" s="48"/>
-      <c r="G44" s="48"/>
-      <c r="H44" s="48"/>
-      <c r="I44" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="J44" s="148"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B45" s="52"/>
-      <c r="C45" s="162" t="s">
-        <v>111</v>
-      </c>
-      <c r="D45" s="35"/>
-      <c r="E45" s="142">
-        <v>4140</v>
-      </c>
-      <c r="F45" s="48"/>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-      <c r="I45" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="J45" s="148"/>
-    </row>
-    <row r="46" spans="2:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="52"/>
-      <c r="C46" s="162" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="35"/>
-      <c r="E46" s="142">
-        <v>1620</v>
-      </c>
-      <c r="F46" s="48"/>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="46" t="s">
-        <v>148</v>
-      </c>
-      <c r="J46" s="148"/>
-    </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="53"/>
-      <c r="C47" s="54"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="54"/>
-      <c r="G47" s="54"/>
-      <c r="H47" s="54"/>
-      <c r="I47" s="54"/>
-      <c r="J47" s="55"/>
+        <v>138</v>
+      </c>
+      <c r="J41" s="145"/>
+    </row>
+    <row r="42" spans="2:10" ht="20" customHeight="1" thickBot="1">
+      <c r="B42" s="53"/>
+      <c r="C42" s="54"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
+      <c r="G42" s="54"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3745,112 +3653,112 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Sheet3">
     <tabColor theme="6" tint="0.39997558519241921"/>
   </sheetPr>
   <dimension ref="B1:Q23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.42578125" style="88" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" style="88" customWidth="1"/>
-    <col min="4" max="4" width="16.5703125" style="88" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="88" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5703125" style="88" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" style="88" customWidth="1"/>
-    <col min="8" max="8" width="4.7109375" style="88" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" style="89" customWidth="1"/>
-    <col min="10" max="10" width="3" style="89" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="89" customWidth="1"/>
-    <col min="12" max="12" width="3.28515625" style="89" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="89" customWidth="1"/>
-    <col min="14" max="14" width="2.7109375" style="89" customWidth="1"/>
-    <col min="15" max="15" width="8.42578125" style="89" customWidth="1"/>
-    <col min="16" max="16" width="2.7109375" style="89" customWidth="1"/>
-    <col min="17" max="17" width="60" style="88" customWidth="1"/>
-    <col min="18" max="16384" width="10.7109375" style="88"/>
+    <col min="1" max="2" width="3.5" style="85" customWidth="1"/>
+    <col min="3" max="3" width="35.83203125" style="85" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="85" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="85" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="85" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" style="85" customWidth="1"/>
+    <col min="8" max="8" width="4.6640625" style="85" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" style="86" customWidth="1"/>
+    <col min="10" max="10" width="3" style="86" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" style="86" customWidth="1"/>
+    <col min="12" max="12" width="3.33203125" style="86" customWidth="1"/>
+    <col min="13" max="13" width="8.5" style="86" customWidth="1"/>
+    <col min="14" max="14" width="2.6640625" style="86" customWidth="1"/>
+    <col min="15" max="15" width="8.5" style="86" customWidth="1"/>
+    <col min="16" max="16" width="2.6640625" style="86" customWidth="1"/>
+    <col min="17" max="17" width="60" style="85" customWidth="1"/>
+    <col min="18" max="16384" width="10.6640625" style="85"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="90"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="92"/>
-      <c r="M2" s="92"/>
-      <c r="N2" s="92"/>
-      <c r="O2" s="92"/>
-      <c r="P2" s="92"/>
-      <c r="Q2" s="93"/>
-    </row>
-    <row r="3" spans="2:17" s="37" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:17" ht="17" thickBot="1"/>
+    <row r="2" spans="2:17">
+      <c r="B2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
+      <c r="P2" s="89"/>
+      <c r="Q2" s="90"/>
+    </row>
+    <row r="3" spans="2:17" s="37" customFormat="1">
       <c r="B3" s="36"/>
-      <c r="C3" s="155" t="s">
-        <v>91</v>
+      <c r="C3" s="152" t="s">
+        <v>81</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
-      <c r="F3" s="155" t="s">
+      <c r="F3" s="152" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="155" t="s">
-        <v>85</v>
-      </c>
-      <c r="H3" s="155"/>
+      <c r="G3" s="152" t="s">
+        <v>75</v>
+      </c>
+      <c r="H3" s="152"/>
       <c r="I3" s="81" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="J3" s="81"/>
       <c r="K3" s="81" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L3" s="81"/>
       <c r="M3" s="81" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="N3" s="81"/>
       <c r="O3" s="81" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="P3" s="81"/>
       <c r="Q3" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="94"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="96"/>
-      <c r="I4" s="153"/>
-      <c r="J4" s="153"/>
-      <c r="K4" s="153"/>
-      <c r="L4" s="153"/>
-      <c r="M4" s="152"/>
-      <c r="N4" s="154"/>
-      <c r="O4" s="152"/>
-      <c r="P4" s="154"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="92"/>
+      <c r="F4" s="92"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="149"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="149"/>
+      <c r="P4" s="151"/>
       <c r="Q4" s="2"/>
     </row>
-    <row r="5" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="94"/>
+    <row r="5" spans="2:17" ht="17" thickBot="1">
+      <c r="B5" s="91"/>
       <c r="C5" s="45" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="D5" s="45"/>
       <c r="E5" s="45"/>
@@ -3867,38 +3775,38 @@
       <c r="P5" s="26"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="94"/>
-      <c r="C6" s="97" t="s">
+    <row r="6" spans="2:17" ht="17" thickBot="1">
+      <c r="B6" s="91"/>
+      <c r="C6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="97"/>
-      <c r="E6" s="97"/>
-      <c r="F6" s="98" t="s">
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="95" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="99">
+      <c r="G6" s="96">
         <f>ROUND(1,0)</f>
         <v>1</v>
       </c>
-      <c r="H6" s="100"/>
-      <c r="I6" s="99">
+      <c r="H6" s="97"/>
+      <c r="I6" s="96">
         <f>Notes!E31</f>
         <v>1</v>
       </c>
-      <c r="J6" s="96"/>
-      <c r="K6" s="96"/>
-      <c r="L6" s="96"/>
-      <c r="M6" s="102"/>
-      <c r="N6" s="102"/>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
+      <c r="J6" s="93"/>
+      <c r="K6" s="93"/>
+      <c r="L6" s="93"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="99"/>
+      <c r="O6" s="99"/>
+      <c r="P6" s="99"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="2:17" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" s="12" customFormat="1" ht="17" thickBot="1">
       <c r="B7" s="11"/>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -3918,13 +3826,13 @@
       <c r="K7" s="4"/>
       <c r="L7" s="6"/>
       <c r="Q7" s="14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="2:17" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" s="12" customFormat="1" ht="17" thickBot="1">
       <c r="B8" s="11"/>
       <c r="C8" s="3" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -3944,13 +3852,13 @@
       <c r="K8" s="4"/>
       <c r="L8" s="6"/>
       <c r="Q8" s="14" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="2:17" s="12" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" s="12" customFormat="1" ht="17" thickBot="1">
       <c r="B9" s="11"/>
       <c r="C9" s="3" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3970,29 +3878,29 @@
       <c r="K9" s="4"/>
       <c r="L9" s="6"/>
       <c r="Q9" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B10" s="94"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="105"/>
-      <c r="K10" s="105"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="102"/>
-      <c r="N10" s="102"/>
-      <c r="O10" s="102"/>
-      <c r="P10" s="102"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="91"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="104"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="105"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="102"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="102"/>
+      <c r="K10" s="102"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="99"/>
+      <c r="P10" s="99"/>
       <c r="Q10" s="5"/>
     </row>
-    <row r="11" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="94"/>
+    <row r="11" spans="2:17" ht="17" thickBot="1">
+      <c r="B11" s="91"/>
       <c r="C11" s="45" t="s">
         <v>8</v>
       </c>
@@ -4005,125 +3913,125 @@
       <c r="J11" s="28"/>
       <c r="K11" s="28"/>
       <c r="L11" s="28"/>
-      <c r="M11" s="102"/>
-      <c r="N11" s="102"/>
-      <c r="O11" s="102"/>
-      <c r="P11" s="102"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="94"/>
-      <c r="C12" s="156" t="s">
-        <v>100</v>
-      </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="98" t="s">
+    <row r="12" spans="2:17" ht="17" thickBot="1">
+      <c r="B12" s="91"/>
+      <c r="C12" s="153" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="95" t="s">
         <v>4</v>
       </c>
-      <c r="G12" s="166">
+      <c r="G12" s="163">
         <f>ROUND(M12,4)</f>
         <v>1E-4</v>
       </c>
-      <c r="H12" s="104"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="105"/>
-      <c r="K12" s="105"/>
-      <c r="L12" s="105"/>
-      <c r="M12" s="165">
+      <c r="H12" s="101"/>
+      <c r="I12" s="102"/>
+      <c r="J12" s="102"/>
+      <c r="K12" s="102"/>
+      <c r="L12" s="102"/>
+      <c r="M12" s="162">
         <f>Notes!E71/1000*Notes!E72/1000*G6/Notes!E54/100000</f>
         <v>7.6921249999999995E-5</v>
       </c>
-      <c r="N12" s="102"/>
-      <c r="P12" s="102"/>
+      <c r="N12" s="99"/>
+      <c r="P12" s="99"/>
       <c r="Q12" s="16" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="94"/>
-      <c r="C13" s="109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="17" thickBot="1">
+      <c r="B13" s="91"/>
+      <c r="C13" s="106" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="109"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="98" t="s">
+      <c r="D13" s="106"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="110">
+      <c r="G13" s="107">
         <f>K13</f>
         <v>1</v>
       </c>
-      <c r="H13" s="105"/>
-      <c r="I13" s="106"/>
-      <c r="J13" s="106"/>
-      <c r="K13" s="99">
+      <c r="H13" s="102"/>
+      <c r="I13" s="103"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="96">
         <v>1</v>
       </c>
-      <c r="L13" s="106"/>
-      <c r="M13" s="106"/>
-      <c r="N13" s="96"/>
-      <c r="O13" s="99">
+      <c r="L13" s="103"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="93"/>
+      <c r="O13" s="96">
         <f>Notes!E90</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="P13" s="96"/>
+      <c r="P13" s="93"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="94"/>
-      <c r="C14" s="112" t="s">
+    <row r="14" spans="2:17" ht="17" thickBot="1">
+      <c r="B14" s="91"/>
+      <c r="C14" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="98" t="s">
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="95" t="s">
         <v>2</v>
       </c>
-      <c r="G14" s="113">
+      <c r="G14" s="110">
         <f>O14</f>
         <v>20</v>
       </c>
-      <c r="H14" s="105"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="101">
+      <c r="H14" s="102"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="98">
         <v>25</v>
       </c>
-      <c r="L14" s="106"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="96"/>
-      <c r="O14" s="177">
+      <c r="L14" s="103"/>
+      <c r="M14" s="93"/>
+      <c r="N14" s="93"/>
+      <c r="O14" s="174">
         <f>Notes!E91</f>
         <v>20</v>
       </c>
-      <c r="P14" s="96"/>
+      <c r="P14" s="93"/>
       <c r="Q14" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B15" s="94"/>
+        <v>117</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="91"/>
       <c r="C15" s="45"/>
       <c r="D15" s="45"/>
       <c r="E15" s="45"/>
       <c r="F15" s="45"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28"/>
-      <c r="I15" s="106"/>
-      <c r="J15" s="106"/>
-      <c r="K15" s="106"/>
-      <c r="L15" s="106"/>
-      <c r="M15" s="102"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
+      <c r="I15" s="103"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="103"/>
+      <c r="L15" s="103"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="99"/>
+      <c r="P15" s="99"/>
       <c r="Q15" s="5"/>
     </row>
-    <row r="16" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="94"/>
+    <row r="16" spans="2:17" ht="17" thickBot="1">
+      <c r="B16" s="91"/>
       <c r="C16" s="29" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D16" s="29"/>
       <c r="E16" s="29"/>
@@ -4134,191 +4042,191 @@
       <c r="J16" s="28"/>
       <c r="K16" s="28"/>
       <c r="L16" s="28"/>
-      <c r="M16" s="102"/>
-      <c r="N16" s="102"/>
-      <c r="O16" s="102"/>
-      <c r="P16" s="102"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="99"/>
+      <c r="P16" s="99"/>
       <c r="Q16" s="5"/>
     </row>
-    <row r="17" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="94"/>
-      <c r="C17" s="149" t="s">
-        <v>96</v>
+    <row r="17" spans="2:17" ht="17" thickBot="1">
+      <c r="B17" s="91"/>
+      <c r="C17" s="146" t="s">
+        <v>86</v>
       </c>
       <c r="D17" s="29"/>
       <c r="E17" s="29"/>
-      <c r="F17" s="149" t="s">
+      <c r="F17" s="146" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="110">
+      <c r="G17" s="107">
         <f>ROUND(G18*G6*1000,2)</f>
         <v>3000000</v>
       </c>
       <c r="H17" s="28"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="105"/>
-      <c r="K17" s="105"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="102"/>
-      <c r="N17" s="102"/>
-      <c r="O17" s="102"/>
-      <c r="P17" s="102"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="102"/>
+      <c r="L17" s="102"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="99"/>
+      <c r="P17" s="99"/>
       <c r="Q17" s="8"/>
     </row>
-    <row r="18" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="94"/>
-      <c r="C18" s="114" t="s">
+    <row r="18" spans="2:17" ht="17" thickBot="1">
+      <c r="B18" s="91"/>
+      <c r="C18" s="111" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="114"/>
-      <c r="E18" s="114"/>
-      <c r="F18" s="150" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="110">
+      <c r="D18" s="111"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="147" t="s">
+        <v>83</v>
+      </c>
+      <c r="G18" s="107">
         <f>I18</f>
         <v>3000</v>
       </c>
-      <c r="H18" s="105"/>
-      <c r="I18" s="118">
+      <c r="H18" s="102"/>
+      <c r="I18" s="115">
         <f>Notes!E10</f>
         <v>3000</v>
       </c>
-      <c r="J18" s="105"/>
-      <c r="K18" s="105"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="102"/>
-      <c r="N18" s="102"/>
-      <c r="O18" s="102"/>
-      <c r="P18" s="102"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="102"/>
+      <c r="L18" s="102"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="99"/>
+      <c r="P18" s="99"/>
       <c r="Q18" s="8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="94"/>
-      <c r="C19" s="159" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="2:17" ht="17" thickBot="1">
+      <c r="B19" s="91"/>
+      <c r="C19" s="156" t="s">
+        <v>87</v>
       </c>
       <c r="D19" s="45"/>
       <c r="E19" s="45"/>
-      <c r="F19" s="123" t="s">
+      <c r="F19" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="115">
+      <c r="G19" s="112">
         <f>ROUND(G20*G6*1000,2)</f>
         <v>231800</v>
       </c>
       <c r="H19" s="28"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="105"/>
-      <c r="K19" s="105"/>
-      <c r="L19" s="105"/>
-      <c r="M19" s="111"/>
-      <c r="N19" s="105"/>
-      <c r="O19" s="111"/>
-      <c r="P19" s="105"/>
+      <c r="I19" s="102"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="102"/>
+      <c r="L19" s="102"/>
+      <c r="M19" s="108"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="102"/>
       <c r="Q19" s="8"/>
     </row>
-    <row r="20" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="94"/>
-      <c r="C20" s="149" t="s">
-        <v>98</v>
+    <row r="20" spans="2:17" ht="17" thickBot="1">
+      <c r="B20" s="91"/>
+      <c r="C20" s="146" t="s">
+        <v>88</v>
       </c>
       <c r="D20" s="45"/>
       <c r="E20" s="45"/>
-      <c r="F20" s="151" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="115">
+      <c r="F20" s="148" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="112">
         <f>ROUND(I20,2)</f>
         <v>231.8</v>
       </c>
       <c r="H20" s="28"/>
-      <c r="I20" s="118">
+      <c r="I20" s="115">
         <f>Notes!E37</f>
         <v>231.8</v>
       </c>
-      <c r="J20" s="105"/>
-      <c r="K20" s="105"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="111"/>
-      <c r="N20" s="105"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="105"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="102"/>
+      <c r="L20" s="102"/>
+      <c r="M20" s="108"/>
+      <c r="N20" s="102"/>
+      <c r="O20" s="108"/>
+      <c r="P20" s="102"/>
       <c r="Q20" s="13" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="94"/>
-      <c r="C21" s="159" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="117"/>
-      <c r="E21" s="117"/>
-      <c r="F21" s="98" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17" ht="17" thickBot="1">
+      <c r="B21" s="91"/>
+      <c r="C21" s="156" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="114"/>
+      <c r="E21" s="114"/>
+      <c r="F21" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="G21" s="110">
+      <c r="G21" s="107">
         <f>ROUND(G22*G6,2)</f>
         <v>0</v>
       </c>
-      <c r="H21" s="105"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="105"/>
-      <c r="K21" s="105"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="111"/>
-      <c r="N21" s="105"/>
-      <c r="O21" s="111"/>
-      <c r="P21" s="105"/>
+      <c r="H21" s="102"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="102"/>
+      <c r="K21" s="102"/>
+      <c r="L21" s="102"/>
+      <c r="M21" s="108"/>
+      <c r="N21" s="102"/>
+      <c r="O21" s="108"/>
+      <c r="P21" s="102"/>
       <c r="Q21" s="8"/>
     </row>
-    <row r="22" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="94"/>
-      <c r="C22" s="149" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="116"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="150" t="s">
-        <v>92</v>
-      </c>
-      <c r="G22" s="118">
+    <row r="22" spans="2:17" ht="17" thickBot="1">
+      <c r="B22" s="91"/>
+      <c r="C22" s="146" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" s="113"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="147" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="115">
         <v>0</v>
       </c>
-      <c r="H22" s="105"/>
-      <c r="I22" s="118">
+      <c r="H22" s="102"/>
+      <c r="I22" s="115">
         <f>Notes!E38</f>
         <v>0</v>
       </c>
-      <c r="J22" s="105"/>
-      <c r="K22" s="105"/>
-      <c r="L22" s="105"/>
-      <c r="M22" s="105"/>
-      <c r="N22" s="105"/>
-      <c r="O22" s="105"/>
-      <c r="P22" s="105"/>
+      <c r="J22" s="102"/>
+      <c r="K22" s="102"/>
+      <c r="L22" s="102"/>
+      <c r="M22" s="102"/>
+      <c r="N22" s="102"/>
+      <c r="O22" s="102"/>
+      <c r="P22" s="102"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" spans="2:17" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="119"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="120"/>
-      <c r="F23" s="120"/>
-      <c r="G23" s="120"/>
-      <c r="H23" s="120"/>
-      <c r="I23" s="121"/>
-      <c r="J23" s="121"/>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="121"/>
-      <c r="P23" s="121"/>
-      <c r="Q23" s="122"/>
+    <row r="23" spans="2:17" ht="17" thickBot="1">
+      <c r="B23" s="116"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="118"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="118"/>
+      <c r="M23" s="118"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="118"/>
+      <c r="P23" s="118"/>
+      <c r="Q23" s="119"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4327,8 +4235,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet4" enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Sheet4">
     <tabColor theme="6" tint="0.79998168889431442"/>
   </sheetPr>
   <dimension ref="B1:K22"/>
@@ -4337,22 +4245,22 @@
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="60" customWidth="1"/>
-    <col min="2" max="2" width="3.42578125" style="60" customWidth="1"/>
-    <col min="3" max="3" width="28.7109375" style="60" customWidth="1"/>
-    <col min="4" max="4" width="3.140625" style="60" customWidth="1"/>
-    <col min="5" max="5" width="16.140625" style="60" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" style="60" customWidth="1"/>
-    <col min="7" max="9" width="12.140625" style="60" customWidth="1"/>
-    <col min="10" max="10" width="33.140625" style="61" customWidth="1"/>
-    <col min="11" max="11" width="87.28515625" style="60" customWidth="1"/>
-    <col min="12" max="16384" width="33.140625" style="60"/>
+    <col min="1" max="1" width="3.33203125" style="60" customWidth="1"/>
+    <col min="2" max="2" width="3.5" style="60" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" style="60" customWidth="1"/>
+    <col min="4" max="4" width="3.1640625" style="60" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" style="60" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="60" customWidth="1"/>
+    <col min="7" max="9" width="12.1640625" style="60" customWidth="1"/>
+    <col min="10" max="10" width="33.1640625" style="61" customWidth="1"/>
+    <col min="11" max="11" width="87.33203125" style="60" customWidth="1"/>
+    <col min="12" max="16384" width="33.1640625" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" ht="17" thickBot="1"/>
+    <row r="2" spans="2:11">
       <c r="B2" s="62"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
@@ -4364,7 +4272,7 @@
       <c r="J2" s="64"/>
       <c r="K2" s="63"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11">
       <c r="B3" s="65"/>
       <c r="C3" s="66" t="s">
         <v>22</v>
@@ -4378,7 +4286,7 @@
       <c r="J3" s="67"/>
       <c r="K3" s="68"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11">
       <c r="B4" s="65"/>
       <c r="C4" s="68"/>
       <c r="D4" s="68"/>
@@ -4390,7 +4298,7 @@
       <c r="J4" s="69"/>
       <c r="K4" s="68"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11">
       <c r="B5" s="70"/>
       <c r="C5" s="71" t="s">
         <v>30</v>
@@ -4406,19 +4314,19 @@
         <v>31</v>
       </c>
       <c r="H5" s="71" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="I5" s="71" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="J5" s="72" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="K5" s="71" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11">
       <c r="B6" s="65"/>
       <c r="C6" s="66"/>
       <c r="D6" s="66"/>
@@ -4430,12 +4338,12 @@
       <c r="J6" s="67"/>
       <c r="K6" s="66"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11">
       <c r="B7" s="65"/>
       <c r="C7" s="79"/>
       <c r="D7" s="73"/>
       <c r="E7" s="68" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F7" s="68" t="s">
         <v>10</v>
@@ -4446,7 +4354,7 @@
       <c r="J7" s="69"/>
       <c r="K7" s="83"/>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11">
       <c r="B8" s="65"/>
       <c r="C8" s="74" t="s">
         <v>1</v>
@@ -4460,7 +4368,7 @@
       <c r="J8" s="69"/>
       <c r="K8" s="84"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11">
       <c r="B9" s="65"/>
       <c r="C9" s="73"/>
       <c r="D9" s="74"/>
@@ -4472,7 +4380,7 @@
       <c r="J9" s="69"/>
       <c r="K9" s="84"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11">
       <c r="B10" s="65"/>
       <c r="C10" s="73"/>
       <c r="D10" s="74"/>
@@ -4484,32 +4392,32 @@
       <c r="J10" s="69"/>
       <c r="K10" s="84"/>
     </row>
-    <row r="11" spans="2:11" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" ht="32">
       <c r="B11" s="65"/>
       <c r="C11" s="73"/>
       <c r="D11" s="78"/>
       <c r="E11" s="73" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="F11" s="75" t="s">
         <v>10</v>
       </c>
       <c r="G11" s="76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="H11" s="76" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="I11" s="76"/>
       <c r="J11" s="76" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="K11" s="73"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11">
       <c r="B12" s="65"/>
       <c r="C12" s="78" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D12" s="78"/>
       <c r="E12" s="73"/>
@@ -4520,10 +4428,10 @@
       <c r="J12" s="76"/>
       <c r="K12" s="73"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11">
       <c r="B13" s="65"/>
       <c r="C13" s="73" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D13" s="78"/>
       <c r="E13" s="73"/>
@@ -4534,7 +4442,7 @@
       <c r="J13" s="76"/>
       <c r="K13" s="73"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11">
       <c r="B14" s="65"/>
       <c r="C14" s="78" t="s">
         <v>59</v>
@@ -4548,7 +4456,7 @@
       <c r="J14" s="76"/>
       <c r="K14" s="73"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11">
       <c r="B15" s="65"/>
       <c r="C15" s="73"/>
       <c r="D15" s="73"/>
@@ -4559,7 +4467,7 @@
       <c r="J15" s="80"/>
       <c r="K15" s="77"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11">
       <c r="B16" s="65"/>
       <c r="C16" s="73"/>
       <c r="D16" s="73"/>
@@ -4571,28 +4479,28 @@
       <c r="J16" s="80"/>
       <c r="K16" s="77"/>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:11">
       <c r="B17" s="65"/>
       <c r="C17" s="73"/>
       <c r="D17" s="73"/>
       <c r="E17" s="68" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F17" s="73"/>
       <c r="G17" s="82"/>
       <c r="H17" s="82"/>
       <c r="I17" s="73" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="J17" s="80"/>
       <c r="K17" s="77" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
       <c r="B18" s="65"/>
       <c r="C18" s="74" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="D18" s="73"/>
       <c r="E18" s="68"/>
@@ -4603,23 +4511,23 @@
       <c r="J18" s="80"/>
       <c r="K18" s="77"/>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:11">
       <c r="B19" s="65"/>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:11">
       <c r="B20" s="65"/>
       <c r="C20" s="78"/>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:11">
       <c r="B21" s="65"/>
-      <c r="C21" s="176" t="s">
+      <c r="C21" s="173" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="60" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="F21" s="60" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G21" s="60">
         <v>2010</v>
@@ -4628,10 +4536,10 @@
         <v>2010</v>
       </c>
       <c r="J21" s="61" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
       <c r="B22" s="65"/>
     </row>
   </sheetData>
@@ -4644,1981 +4552,1981 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:U120"/>
   <sheetViews>
     <sheetView topLeftCell="A63" workbookViewId="0">
       <selection activeCell="D122" sqref="D122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" style="168" customWidth="1"/>
-    <col min="2" max="2" width="5" style="168" customWidth="1"/>
-    <col min="3" max="16384" width="7" style="168"/>
+    <col min="1" max="1" width="5.5" style="165" customWidth="1"/>
+    <col min="2" max="2" width="5" style="165" customWidth="1"/>
+    <col min="3" max="16384" width="7" style="165"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:21" s="37" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="171"/>
-      <c r="C2" s="172" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="172"/>
-      <c r="E2" s="172"/>
-      <c r="F2" s="172" t="s">
-        <v>118</v>
-      </c>
-      <c r="G2" s="172"/>
-      <c r="H2" s="172"/>
-      <c r="I2" s="172"/>
-      <c r="J2" s="172"/>
-      <c r="K2" s="172"/>
-      <c r="L2" s="172"/>
-      <c r="M2" s="172"/>
-      <c r="N2" s="172"/>
-      <c r="O2" s="172"/>
-      <c r="P2" s="172"/>
-      <c r="Q2" s="172"/>
-      <c r="R2" s="172"/>
-      <c r="S2" s="172"/>
-      <c r="T2" s="172"/>
-      <c r="U2" s="172"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B3" s="169"/>
-      <c r="C3" s="170"/>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170"/>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="170"/>
-      <c r="L3" s="170"/>
-      <c r="M3" s="170"/>
-      <c r="N3" s="170"/>
-      <c r="O3" s="170"/>
-      <c r="P3" s="170"/>
-      <c r="Q3" s="170"/>
-      <c r="R3" s="170"/>
-      <c r="S3" s="170"/>
-      <c r="T3" s="170"/>
-      <c r="U3" s="170"/>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B4" s="169"/>
-      <c r="C4" s="170" t="s">
-        <v>103</v>
-      </c>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
-      <c r="F4" s="170"/>
-      <c r="G4" s="170"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="170"/>
-      <c r="L4" s="170"/>
-      <c r="M4" s="170"/>
-      <c r="N4" s="170"/>
-      <c r="O4" s="170"/>
-      <c r="P4" s="170"/>
-      <c r="Q4" s="170"/>
-      <c r="R4" s="170"/>
-      <c r="S4" s="170"/>
-      <c r="T4" s="170"/>
-      <c r="U4" s="170"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B5" s="169"/>
-      <c r="C5" s="170" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
-      <c r="F5" s="170"/>
-      <c r="G5" s="170"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="170"/>
-      <c r="L5" s="170"/>
-      <c r="M5" s="170"/>
-      <c r="N5" s="170"/>
-      <c r="O5" s="170"/>
-      <c r="P5" s="170"/>
-      <c r="Q5" s="170"/>
-      <c r="R5" s="170"/>
-      <c r="S5" s="170"/>
-      <c r="T5" s="170"/>
-      <c r="U5" s="170"/>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B6" s="169"/>
-      <c r="C6" s="170"/>
-      <c r="D6" s="170"/>
-      <c r="E6" s="170"/>
-      <c r="F6" s="170"/>
-      <c r="G6" s="170"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="170"/>
-      <c r="L6" s="170"/>
-      <c r="M6" s="170"/>
-      <c r="N6" s="170"/>
-      <c r="O6" s="170"/>
-      <c r="P6" s="170"/>
-      <c r="Q6" s="170"/>
-      <c r="R6" s="170"/>
-      <c r="S6" s="170"/>
-      <c r="T6" s="170"/>
-      <c r="U6" s="170"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B7" s="169"/>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
-      <c r="E7" s="170"/>
-      <c r="F7" s="170"/>
-      <c r="G7" s="170"/>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
-      <c r="N7" s="170"/>
-      <c r="O7" s="170"/>
-      <c r="P7" s="170"/>
-      <c r="Q7" s="170"/>
-      <c r="R7" s="170"/>
-      <c r="S7" s="170"/>
-      <c r="T7" s="170"/>
-      <c r="U7" s="170"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B8" s="169"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
-      <c r="G8" s="170"/>
-      <c r="H8" s="170"/>
-      <c r="I8" s="170"/>
-      <c r="J8" s="170"/>
-      <c r="K8" s="170"/>
-      <c r="L8" s="170"/>
-      <c r="M8" s="170"/>
-      <c r="N8" s="170"/>
-      <c r="O8" s="170"/>
-      <c r="P8" s="170"/>
-      <c r="Q8" s="170"/>
-      <c r="R8" s="170"/>
-      <c r="S8" s="170"/>
-      <c r="T8" s="170"/>
-      <c r="U8" s="170"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B9" s="169"/>
-      <c r="C9" s="170"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="170"/>
-      <c r="H9" s="170"/>
-      <c r="I9" s="170"/>
-      <c r="J9" s="170"/>
-      <c r="K9" s="170"/>
-      <c r="L9" s="170"/>
-      <c r="M9" s="170"/>
-      <c r="N9" s="170"/>
-      <c r="O9" s="170"/>
-      <c r="P9" s="170"/>
-      <c r="Q9" s="170"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="170"/>
-      <c r="U9" s="170"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B10" s="169"/>
-      <c r="C10" s="170"/>
-      <c r="D10" s="170"/>
-      <c r="E10" s="170">
+    <row r="1" spans="2:21" ht="17" thickBot="1"/>
+    <row r="2" spans="2:21" s="37" customFormat="1">
+      <c r="B2" s="168"/>
+      <c r="C2" s="169" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="169"/>
+      <c r="E2" s="169"/>
+      <c r="F2" s="169" t="s">
+        <v>108</v>
+      </c>
+      <c r="G2" s="169"/>
+      <c r="H2" s="169"/>
+      <c r="I2" s="169"/>
+      <c r="J2" s="169"/>
+      <c r="K2" s="169"/>
+      <c r="L2" s="169"/>
+      <c r="M2" s="169"/>
+      <c r="N2" s="169"/>
+      <c r="O2" s="169"/>
+      <c r="P2" s="169"/>
+      <c r="Q2" s="169"/>
+      <c r="R2" s="169"/>
+      <c r="S2" s="169"/>
+      <c r="T2" s="169"/>
+      <c r="U2" s="169"/>
+    </row>
+    <row r="3" spans="2:21">
+      <c r="B3" s="166"/>
+      <c r="C3" s="167"/>
+      <c r="D3" s="167"/>
+      <c r="E3" s="167"/>
+      <c r="F3" s="167"/>
+      <c r="G3" s="167"/>
+      <c r="H3" s="167"/>
+      <c r="I3" s="167"/>
+      <c r="J3" s="167"/>
+      <c r="K3" s="167"/>
+      <c r="L3" s="167"/>
+      <c r="M3" s="167"/>
+      <c r="N3" s="167"/>
+      <c r="O3" s="167"/>
+      <c r="P3" s="167"/>
+      <c r="Q3" s="167"/>
+      <c r="R3" s="167"/>
+      <c r="S3" s="167"/>
+      <c r="T3" s="167"/>
+      <c r="U3" s="167"/>
+    </row>
+    <row r="4" spans="2:21">
+      <c r="B4" s="166"/>
+      <c r="C4" s="167" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="167"/>
+      <c r="E4" s="167"/>
+      <c r="F4" s="167"/>
+      <c r="G4" s="167"/>
+      <c r="H4" s="167"/>
+      <c r="I4" s="167"/>
+      <c r="J4" s="167"/>
+      <c r="K4" s="167"/>
+      <c r="L4" s="167"/>
+      <c r="M4" s="167"/>
+      <c r="N4" s="167"/>
+      <c r="O4" s="167"/>
+      <c r="P4" s="167"/>
+      <c r="Q4" s="167"/>
+      <c r="R4" s="167"/>
+      <c r="S4" s="167"/>
+      <c r="T4" s="167"/>
+      <c r="U4" s="167"/>
+    </row>
+    <row r="5" spans="2:21">
+      <c r="B5" s="166"/>
+      <c r="C5" s="167" t="s">
+        <v>109</v>
+      </c>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
+      <c r="G5" s="167"/>
+      <c r="H5" s="167"/>
+      <c r="I5" s="167"/>
+      <c r="J5" s="167"/>
+      <c r="K5" s="167"/>
+      <c r="L5" s="167"/>
+      <c r="M5" s="167"/>
+      <c r="N5" s="167"/>
+      <c r="O5" s="167"/>
+      <c r="P5" s="167"/>
+      <c r="Q5" s="167"/>
+      <c r="R5" s="167"/>
+      <c r="S5" s="167"/>
+      <c r="T5" s="167"/>
+      <c r="U5" s="167"/>
+    </row>
+    <row r="6" spans="2:21">
+      <c r="B6" s="166"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+    </row>
+    <row r="7" spans="2:21">
+      <c r="B7" s="166"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
+      <c r="G7" s="167"/>
+      <c r="H7" s="167"/>
+      <c r="I7" s="167"/>
+      <c r="J7" s="167"/>
+      <c r="K7" s="167"/>
+      <c r="L7" s="167"/>
+      <c r="M7" s="167"/>
+      <c r="N7" s="167"/>
+      <c r="O7" s="167"/>
+      <c r="P7" s="167"/>
+      <c r="Q7" s="167"/>
+      <c r="R7" s="167"/>
+      <c r="S7" s="167"/>
+      <c r="T7" s="167"/>
+      <c r="U7" s="167"/>
+    </row>
+    <row r="8" spans="2:21">
+      <c r="B8" s="166"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="167"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="167"/>
+      <c r="J8" s="167"/>
+      <c r="K8" s="167"/>
+      <c r="L8" s="167"/>
+      <c r="M8" s="167"/>
+      <c r="N8" s="167"/>
+      <c r="O8" s="167"/>
+      <c r="P8" s="167"/>
+      <c r="Q8" s="167"/>
+      <c r="R8" s="167"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="167"/>
+    </row>
+    <row r="9" spans="2:21">
+      <c r="B9" s="166"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="167"/>
+      <c r="L9" s="167"/>
+      <c r="M9" s="167"/>
+      <c r="N9" s="167"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="167"/>
+      <c r="Q9" s="167"/>
+      <c r="R9" s="167"/>
+      <c r="S9" s="167"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+    </row>
+    <row r="10" spans="2:21">
+      <c r="B10" s="166"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167">
         <v>3000</v>
       </c>
-      <c r="F10" s="170" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="170"/>
-      <c r="H10" s="170"/>
-      <c r="I10" s="170"/>
-      <c r="J10" s="170"/>
-      <c r="K10" s="170"/>
-      <c r="L10" s="170"/>
-      <c r="M10" s="170"/>
-      <c r="N10" s="170"/>
-      <c r="O10" s="170"/>
-      <c r="P10" s="170"/>
-      <c r="Q10" s="170"/>
-      <c r="R10" s="170"/>
-      <c r="S10" s="170"/>
-      <c r="T10" s="170"/>
-      <c r="U10" s="170"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B11" s="169"/>
-      <c r="D11" s="173" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="174">
+      <c r="F10" s="167" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="167"/>
+      <c r="H10" s="167"/>
+      <c r="I10" s="167"/>
+      <c r="J10" s="167"/>
+      <c r="K10" s="167"/>
+      <c r="L10" s="167"/>
+      <c r="M10" s="167"/>
+      <c r="N10" s="167"/>
+      <c r="O10" s="167"/>
+      <c r="P10" s="167"/>
+      <c r="Q10" s="167"/>
+      <c r="R10" s="167"/>
+      <c r="S10" s="167"/>
+      <c r="T10" s="167"/>
+      <c r="U10" s="167"/>
+    </row>
+    <row r="11" spans="2:21">
+      <c r="B11" s="166"/>
+      <c r="D11" s="170" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="171">
         <v>42</v>
       </c>
-      <c r="F11" s="173" t="s">
+      <c r="F11" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="G11" s="170"/>
-      <c r="H11" s="170"/>
-      <c r="I11" s="170"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="170"/>
-      <c r="L11" s="170"/>
-      <c r="M11" s="170"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="170"/>
-      <c r="Q11" s="170"/>
-      <c r="R11" s="170"/>
-      <c r="S11" s="170"/>
-      <c r="T11" s="170"/>
-      <c r="U11" s="170"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B12" s="169"/>
-      <c r="D12" s="173" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="174">
+      <c r="G11" s="167"/>
+      <c r="H11" s="167"/>
+      <c r="I11" s="167"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
+      <c r="O11" s="167"/>
+      <c r="P11" s="167"/>
+      <c r="Q11" s="167"/>
+      <c r="R11" s="167"/>
+      <c r="S11" s="167"/>
+      <c r="T11" s="167"/>
+      <c r="U11" s="167"/>
+    </row>
+    <row r="12" spans="2:21">
+      <c r="B12" s="166"/>
+      <c r="D12" s="170" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="171">
         <v>35</v>
       </c>
-      <c r="F12" s="173" t="s">
+      <c r="F12" s="170" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="170"/>
-      <c r="H12" s="170"/>
-      <c r="I12" s="170"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="170"/>
-      <c r="L12" s="170"/>
-      <c r="M12" s="170"/>
-      <c r="N12" s="170"/>
-      <c r="O12" s="170"/>
-      <c r="P12" s="170"/>
-      <c r="Q12" s="170"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="170"/>
-      <c r="U12" s="170"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B13" s="169"/>
-      <c r="D13" s="173" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="170">
+      <c r="G12" s="167"/>
+      <c r="H12" s="167"/>
+      <c r="I12" s="167"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="167"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="167"/>
+      <c r="O12" s="167"/>
+      <c r="P12" s="167"/>
+      <c r="Q12" s="167"/>
+      <c r="R12" s="167"/>
+      <c r="S12" s="167"/>
+      <c r="T12" s="167"/>
+      <c r="U12" s="167"/>
+    </row>
+    <row r="13" spans="2:21">
+      <c r="B13" s="166"/>
+      <c r="D13" s="170" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="167">
         <v>8000</v>
       </c>
-      <c r="F13" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" s="170"/>
-      <c r="H13" s="170"/>
-      <c r="I13" s="170"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="170"/>
-      <c r="L13" s="170"/>
-      <c r="M13" s="170"/>
-      <c r="N13" s="170"/>
-      <c r="O13" s="170"/>
-      <c r="P13" s="170"/>
-      <c r="Q13" s="170"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="170"/>
-      <c r="U13" s="170"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B14" s="169"/>
-      <c r="D14" s="173" t="s">
-        <v>139</v>
-      </c>
-      <c r="E14" s="170">
+      <c r="F13" s="170" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="167"/>
+      <c r="H13" s="167"/>
+      <c r="I13" s="167"/>
+      <c r="J13" s="167"/>
+      <c r="K13" s="167"/>
+      <c r="L13" s="167"/>
+      <c r="M13" s="167"/>
+      <c r="N13" s="167"/>
+      <c r="O13" s="167"/>
+      <c r="P13" s="167"/>
+      <c r="Q13" s="167"/>
+      <c r="R13" s="167"/>
+      <c r="S13" s="167"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
+    </row>
+    <row r="14" spans="2:21">
+      <c r="B14" s="166"/>
+      <c r="D14" s="170" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="167">
         <v>6000</v>
       </c>
-      <c r="F14" s="173" t="s">
-        <v>140</v>
-      </c>
-      <c r="G14" s="170"/>
-      <c r="H14" s="170"/>
-      <c r="I14" s="170"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="170"/>
-      <c r="L14" s="170"/>
-      <c r="M14" s="170"/>
-      <c r="N14" s="170"/>
-      <c r="O14" s="170"/>
-      <c r="P14" s="170"/>
-      <c r="Q14" s="170"/>
-      <c r="R14" s="170"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="170"/>
-      <c r="U14" s="170"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B15" s="169"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
-      <c r="E15" s="170"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="170"/>
-      <c r="I15" s="170"/>
-      <c r="J15" s="170"/>
-      <c r="K15" s="170"/>
-      <c r="L15" s="170"/>
-      <c r="M15" s="170"/>
-      <c r="N15" s="170"/>
-      <c r="O15" s="170"/>
-      <c r="P15" s="170"/>
-      <c r="Q15" s="170"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="170"/>
-      <c r="U15" s="170"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B16" s="169"/>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
-      <c r="E16" s="170"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="170"/>
-      <c r="J16" s="170"/>
-      <c r="K16" s="170"/>
-      <c r="L16" s="170"/>
-      <c r="M16" s="170"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="170"/>
-      <c r="Q16" s="170"/>
-      <c r="R16" s="170"/>
-      <c r="S16" s="170"/>
-      <c r="T16" s="170"/>
-      <c r="U16" s="170"/>
-    </row>
-    <row r="17" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B17" s="169"/>
-      <c r="C17" s="170"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="170"/>
-      <c r="I17" s="170"/>
-      <c r="J17" s="170"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="170"/>
-      <c r="M17" s="170"/>
-      <c r="N17" s="170"/>
-      <c r="O17" s="170"/>
-      <c r="P17" s="170"/>
-      <c r="Q17" s="170"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-    </row>
-    <row r="18" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B18" s="169"/>
-      <c r="C18" s="170"/>
-      <c r="D18" s="170"/>
-      <c r="E18" s="170"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="170"/>
-      <c r="J18" s="170"/>
-      <c r="K18" s="170"/>
-      <c r="L18" s="170"/>
-      <c r="M18" s="170"/>
-      <c r="N18" s="170"/>
-      <c r="O18" s="170"/>
-      <c r="P18" s="170"/>
-      <c r="Q18" s="170"/>
-      <c r="R18" s="170"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="170"/>
-      <c r="U18" s="170"/>
-    </row>
-    <row r="19" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B19" s="169"/>
-      <c r="C19" s="170"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="170"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="170"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="170"/>
-      <c r="M19" s="170"/>
-      <c r="N19" s="170"/>
-      <c r="O19" s="170"/>
-      <c r="P19" s="170"/>
-      <c r="Q19" s="170"/>
-      <c r="R19" s="170"/>
-      <c r="S19" s="170"/>
-      <c r="T19" s="170"/>
-      <c r="U19" s="170"/>
-    </row>
-    <row r="20" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B20" s="169"/>
-      <c r="C20" s="170"/>
-      <c r="D20" s="170"/>
-      <c r="E20" s="170"/>
-      <c r="F20" s="170"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="170"/>
-      <c r="I20" s="170"/>
-      <c r="J20" s="170"/>
-      <c r="K20" s="170"/>
-      <c r="L20" s="170"/>
-      <c r="M20" s="170"/>
-      <c r="N20" s="170"/>
-      <c r="O20" s="170"/>
-      <c r="P20" s="170"/>
-      <c r="Q20" s="170"/>
-      <c r="R20" s="170"/>
-      <c r="S20" s="170"/>
-      <c r="T20" s="170"/>
-      <c r="U20" s="170"/>
-    </row>
-    <row r="21" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B21" s="169"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
-      <c r="J21" s="170"/>
-      <c r="K21" s="170"/>
-      <c r="L21" s="170"/>
-      <c r="M21" s="170"/>
-      <c r="N21" s="170"/>
-      <c r="O21" s="170"/>
-      <c r="P21" s="170"/>
-      <c r="Q21" s="170"/>
-      <c r="R21" s="170"/>
-      <c r="S21" s="170"/>
-      <c r="T21" s="170"/>
-      <c r="U21" s="170"/>
-    </row>
-    <row r="22" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B22" s="169"/>
-      <c r="C22" s="170"/>
-      <c r="D22" s="170"/>
-      <c r="E22" s="170"/>
-      <c r="F22" s="170"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="170"/>
-      <c r="I22" s="170"/>
-      <c r="J22" s="170"/>
-      <c r="K22" s="170"/>
-      <c r="L22" s="170"/>
-      <c r="M22" s="170"/>
-      <c r="N22" s="170"/>
-      <c r="O22" s="170"/>
-      <c r="P22" s="170"/>
-      <c r="Q22" s="170"/>
-      <c r="R22" s="170"/>
-      <c r="S22" s="170"/>
-      <c r="T22" s="170"/>
-      <c r="U22" s="170"/>
-    </row>
-    <row r="23" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B23" s="169"/>
-      <c r="C23" s="170"/>
-      <c r="D23" s="170"/>
-      <c r="E23" s="170"/>
-      <c r="F23" s="170"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="170"/>
-      <c r="I23" s="170"/>
-      <c r="J23" s="170"/>
-      <c r="K23" s="170"/>
-      <c r="L23" s="170"/>
-      <c r="M23" s="170"/>
-      <c r="N23" s="170"/>
-      <c r="O23" s="170"/>
-      <c r="P23" s="170"/>
-      <c r="Q23" s="170"/>
-      <c r="R23" s="170"/>
-      <c r="S23" s="170"/>
-      <c r="T23" s="170"/>
-      <c r="U23" s="170"/>
-    </row>
-    <row r="24" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B24" s="169"/>
-      <c r="C24" s="170"/>
-      <c r="D24" s="170"/>
-      <c r="E24" s="170"/>
-      <c r="F24" s="170"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="170"/>
-      <c r="I24" s="170"/>
-      <c r="J24" s="170"/>
-      <c r="K24" s="170"/>
-      <c r="L24" s="170"/>
-      <c r="M24" s="170"/>
-      <c r="N24" s="170"/>
-      <c r="O24" s="170"/>
-      <c r="P24" s="170"/>
-      <c r="Q24" s="170"/>
-      <c r="R24" s="170"/>
-      <c r="S24" s="170"/>
-      <c r="T24" s="170"/>
-      <c r="U24" s="170"/>
-    </row>
-    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B25" s="169"/>
-      <c r="C25" s="170" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="170"/>
-      <c r="E25" s="170"/>
-      <c r="F25" s="170"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="170"/>
-      <c r="I25" s="170"/>
-      <c r="J25" s="170"/>
-      <c r="K25" s="170"/>
-      <c r="L25" s="170"/>
-      <c r="M25" s="170"/>
-      <c r="N25" s="170"/>
-      <c r="O25" s="170"/>
-      <c r="P25" s="170"/>
-      <c r="Q25" s="170"/>
-      <c r="R25" s="170"/>
-      <c r="S25" s="170"/>
-      <c r="T25" s="170"/>
-      <c r="U25" s="170"/>
-    </row>
-    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B26" s="169"/>
-      <c r="C26" s="170"/>
-      <c r="D26" s="170"/>
-      <c r="E26" s="170"/>
-      <c r="F26" s="170"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="170"/>
-      <c r="I26" s="170"/>
-      <c r="J26" s="170"/>
-      <c r="K26" s="170"/>
-      <c r="L26" s="170"/>
-      <c r="M26" s="170"/>
-      <c r="N26" s="170"/>
-      <c r="O26" s="170"/>
-      <c r="P26" s="170"/>
-      <c r="Q26" s="170"/>
-      <c r="R26" s="170"/>
-      <c r="S26" s="170"/>
-      <c r="T26" s="170"/>
-      <c r="U26" s="170"/>
-    </row>
-    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B27" s="169"/>
-      <c r="C27" s="170"/>
-      <c r="D27" s="170"/>
-      <c r="E27" s="170"/>
-      <c r="F27" s="170"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="170"/>
-      <c r="I27" s="170"/>
-      <c r="J27" s="170"/>
-      <c r="K27" s="170"/>
-      <c r="L27" s="170"/>
-      <c r="M27" s="170"/>
-      <c r="N27" s="170"/>
-      <c r="O27" s="170"/>
-      <c r="P27" s="170"/>
-      <c r="Q27" s="170"/>
-      <c r="R27" s="170"/>
-      <c r="S27" s="170"/>
-      <c r="T27" s="170"/>
-      <c r="U27" s="170"/>
-    </row>
-    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B28" s="169"/>
-      <c r="C28" s="170"/>
-      <c r="D28" s="170"/>
-      <c r="E28" s="170"/>
-      <c r="F28" s="170"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="170"/>
-      <c r="I28" s="170"/>
-      <c r="J28" s="170"/>
-      <c r="K28" s="170"/>
-      <c r="L28" s="170"/>
-      <c r="M28" s="170"/>
-      <c r="N28" s="170"/>
-      <c r="O28" s="170"/>
-      <c r="P28" s="170"/>
-      <c r="Q28" s="170"/>
-      <c r="R28" s="170"/>
-      <c r="S28" s="170"/>
-      <c r="T28" s="170"/>
-      <c r="U28" s="170"/>
-    </row>
-    <row r="29" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B29" s="169"/>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
-      <c r="E29" s="170"/>
-      <c r="F29" s="170"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="170"/>
-      <c r="I29" s="170"/>
-      <c r="J29" s="170"/>
-      <c r="K29" s="170"/>
-      <c r="L29" s="170"/>
-      <c r="M29" s="170"/>
-      <c r="N29" s="170"/>
-      <c r="O29" s="170"/>
-      <c r="P29" s="170"/>
-      <c r="Q29" s="170"/>
-      <c r="R29" s="170"/>
-      <c r="S29" s="170"/>
-      <c r="T29" s="170"/>
-      <c r="U29" s="170"/>
-    </row>
-    <row r="30" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B30" s="169"/>
-      <c r="C30" s="170"/>
-      <c r="D30" s="170"/>
-      <c r="E30" s="170"/>
-      <c r="F30" s="170"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="170"/>
-      <c r="I30" s="170"/>
-      <c r="J30" s="170"/>
-      <c r="K30" s="170"/>
-      <c r="L30" s="170"/>
-      <c r="M30" s="170"/>
-      <c r="N30" s="170"/>
-      <c r="O30" s="170"/>
-      <c r="P30" s="170"/>
-      <c r="Q30" s="170"/>
-      <c r="R30" s="170"/>
-      <c r="S30" s="170"/>
-      <c r="T30" s="170"/>
-      <c r="U30" s="170"/>
-    </row>
-    <row r="31" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B31" s="169"/>
-      <c r="C31" s="170"/>
-      <c r="D31" s="170"/>
-      <c r="E31" s="170">
+      <c r="F14" s="170" t="s">
+        <v>130</v>
+      </c>
+      <c r="G14" s="167"/>
+      <c r="H14" s="167"/>
+      <c r="I14" s="167"/>
+      <c r="J14" s="167"/>
+      <c r="K14" s="167"/>
+      <c r="L14" s="167"/>
+      <c r="M14" s="167"/>
+      <c r="N14" s="167"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="167"/>
+      <c r="Q14" s="167"/>
+      <c r="R14" s="167"/>
+      <c r="S14" s="167"/>
+      <c r="T14" s="167"/>
+      <c r="U14" s="167"/>
+    </row>
+    <row r="15" spans="2:21">
+      <c r="B15" s="166"/>
+      <c r="C15" s="167"/>
+      <c r="D15" s="167"/>
+      <c r="E15" s="167"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="167"/>
+      <c r="H15" s="167"/>
+      <c r="I15" s="167"/>
+      <c r="J15" s="167"/>
+      <c r="K15" s="167"/>
+      <c r="L15" s="167"/>
+      <c r="M15" s="167"/>
+      <c r="N15" s="167"/>
+      <c r="O15" s="167"/>
+      <c r="P15" s="167"/>
+      <c r="Q15" s="167"/>
+      <c r="R15" s="167"/>
+      <c r="S15" s="167"/>
+      <c r="T15" s="167"/>
+      <c r="U15" s="167"/>
+    </row>
+    <row r="16" spans="2:21">
+      <c r="B16" s="166"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
+      <c r="E16" s="167"/>
+      <c r="F16" s="167"/>
+      <c r="G16" s="167"/>
+      <c r="H16" s="167"/>
+      <c r="I16" s="167"/>
+      <c r="J16" s="167"/>
+      <c r="K16" s="167"/>
+      <c r="L16" s="167"/>
+      <c r="M16" s="167"/>
+      <c r="N16" s="167"/>
+      <c r="O16" s="167"/>
+      <c r="P16" s="167"/>
+      <c r="Q16" s="167"/>
+      <c r="R16" s="167"/>
+      <c r="S16" s="167"/>
+      <c r="T16" s="167"/>
+      <c r="U16" s="167"/>
+    </row>
+    <row r="17" spans="2:21">
+      <c r="B17" s="166"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="167"/>
+      <c r="E17" s="167"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="167"/>
+      <c r="H17" s="167"/>
+      <c r="I17" s="167"/>
+      <c r="J17" s="167"/>
+      <c r="K17" s="167"/>
+      <c r="L17" s="167"/>
+      <c r="M17" s="167"/>
+      <c r="N17" s="167"/>
+      <c r="O17" s="167"/>
+      <c r="P17" s="167"/>
+      <c r="Q17" s="167"/>
+      <c r="R17" s="167"/>
+      <c r="S17" s="167"/>
+      <c r="T17" s="167"/>
+      <c r="U17" s="167"/>
+    </row>
+    <row r="18" spans="2:21">
+      <c r="B18" s="166"/>
+      <c r="C18" s="167"/>
+      <c r="D18" s="167"/>
+      <c r="E18" s="167"/>
+      <c r="F18" s="167"/>
+      <c r="G18" s="167"/>
+      <c r="H18" s="167"/>
+      <c r="I18" s="167"/>
+      <c r="J18" s="167"/>
+      <c r="K18" s="167"/>
+      <c r="L18" s="167"/>
+      <c r="M18" s="167"/>
+      <c r="N18" s="167"/>
+      <c r="O18" s="167"/>
+      <c r="P18" s="167"/>
+      <c r="Q18" s="167"/>
+      <c r="R18" s="167"/>
+      <c r="S18" s="167"/>
+      <c r="T18" s="167"/>
+      <c r="U18" s="167"/>
+    </row>
+    <row r="19" spans="2:21">
+      <c r="B19" s="166"/>
+      <c r="C19" s="167"/>
+      <c r="D19" s="167"/>
+      <c r="E19" s="167"/>
+      <c r="F19" s="167"/>
+      <c r="G19" s="167"/>
+      <c r="H19" s="167"/>
+      <c r="I19" s="167"/>
+      <c r="J19" s="167"/>
+      <c r="K19" s="167"/>
+      <c r="L19" s="167"/>
+      <c r="M19" s="167"/>
+      <c r="N19" s="167"/>
+      <c r="O19" s="167"/>
+      <c r="P19" s="167"/>
+      <c r="Q19" s="167"/>
+      <c r="R19" s="167"/>
+      <c r="S19" s="167"/>
+      <c r="T19" s="167"/>
+      <c r="U19" s="167"/>
+    </row>
+    <row r="20" spans="2:21">
+      <c r="B20" s="166"/>
+      <c r="C20" s="167"/>
+      <c r="D20" s="167"/>
+      <c r="E20" s="167"/>
+      <c r="F20" s="167"/>
+      <c r="G20" s="167"/>
+      <c r="H20" s="167"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
+      <c r="O20" s="167"/>
+      <c r="P20" s="167"/>
+      <c r="Q20" s="167"/>
+      <c r="R20" s="167"/>
+      <c r="S20" s="167"/>
+      <c r="T20" s="167"/>
+      <c r="U20" s="167"/>
+    </row>
+    <row r="21" spans="2:21">
+      <c r="B21" s="166"/>
+      <c r="C21" s="167"/>
+      <c r="D21" s="167"/>
+      <c r="E21" s="167"/>
+      <c r="F21" s="167"/>
+      <c r="G21" s="167"/>
+      <c r="H21" s="167"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="167"/>
+      <c r="O21" s="167"/>
+      <c r="P21" s="167"/>
+      <c r="Q21" s="167"/>
+      <c r="R21" s="167"/>
+      <c r="S21" s="167"/>
+      <c r="T21" s="167"/>
+      <c r="U21" s="167"/>
+    </row>
+    <row r="22" spans="2:21">
+      <c r="B22" s="166"/>
+      <c r="C22" s="167"/>
+      <c r="D22" s="167"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="167"/>
+      <c r="H22" s="167"/>
+      <c r="I22" s="167"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
+      <c r="O22" s="167"/>
+      <c r="P22" s="167"/>
+      <c r="Q22" s="167"/>
+      <c r="R22" s="167"/>
+      <c r="S22" s="167"/>
+      <c r="T22" s="167"/>
+      <c r="U22" s="167"/>
+    </row>
+    <row r="23" spans="2:21">
+      <c r="B23" s="166"/>
+      <c r="C23" s="167"/>
+      <c r="D23" s="167"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="167"/>
+      <c r="H23" s="167"/>
+      <c r="I23" s="167"/>
+      <c r="J23" s="167"/>
+      <c r="K23" s="167"/>
+      <c r="L23" s="167"/>
+      <c r="M23" s="167"/>
+      <c r="N23" s="167"/>
+      <c r="O23" s="167"/>
+      <c r="P23" s="167"/>
+      <c r="Q23" s="167"/>
+      <c r="R23" s="167"/>
+      <c r="S23" s="167"/>
+      <c r="T23" s="167"/>
+      <c r="U23" s="167"/>
+    </row>
+    <row r="24" spans="2:21">
+      <c r="B24" s="166"/>
+      <c r="C24" s="167"/>
+      <c r="D24" s="167"/>
+      <c r="E24" s="167"/>
+      <c r="F24" s="167"/>
+      <c r="G24" s="167"/>
+      <c r="H24" s="167"/>
+      <c r="I24" s="167"/>
+      <c r="J24" s="167"/>
+      <c r="K24" s="167"/>
+      <c r="L24" s="167"/>
+      <c r="M24" s="167"/>
+      <c r="N24" s="167"/>
+      <c r="O24" s="167"/>
+      <c r="P24" s="167"/>
+      <c r="Q24" s="167"/>
+      <c r="R24" s="167"/>
+      <c r="S24" s="167"/>
+      <c r="T24" s="167"/>
+      <c r="U24" s="167"/>
+    </row>
+    <row r="25" spans="2:21">
+      <c r="B25" s="166"/>
+      <c r="C25" s="167" t="s">
+        <v>110</v>
+      </c>
+      <c r="D25" s="167"/>
+      <c r="E25" s="167"/>
+      <c r="F25" s="167"/>
+      <c r="G25" s="167"/>
+      <c r="H25" s="167"/>
+      <c r="I25" s="167"/>
+      <c r="J25" s="167"/>
+      <c r="K25" s="167"/>
+      <c r="L25" s="167"/>
+      <c r="M25" s="167"/>
+      <c r="N25" s="167"/>
+      <c r="O25" s="167"/>
+      <c r="P25" s="167"/>
+      <c r="Q25" s="167"/>
+      <c r="R25" s="167"/>
+      <c r="S25" s="167"/>
+      <c r="T25" s="167"/>
+      <c r="U25" s="167"/>
+    </row>
+    <row r="26" spans="2:21">
+      <c r="B26" s="166"/>
+      <c r="C26" s="167"/>
+      <c r="D26" s="167"/>
+      <c r="E26" s="167"/>
+      <c r="F26" s="167"/>
+      <c r="G26" s="167"/>
+      <c r="H26" s="167"/>
+      <c r="I26" s="167"/>
+      <c r="J26" s="167"/>
+      <c r="K26" s="167"/>
+      <c r="L26" s="167"/>
+      <c r="M26" s="167"/>
+      <c r="N26" s="167"/>
+      <c r="O26" s="167"/>
+      <c r="P26" s="167"/>
+      <c r="Q26" s="167"/>
+      <c r="R26" s="167"/>
+      <c r="S26" s="167"/>
+      <c r="T26" s="167"/>
+      <c r="U26" s="167"/>
+    </row>
+    <row r="27" spans="2:21">
+      <c r="B27" s="166"/>
+      <c r="C27" s="167"/>
+      <c r="D27" s="167"/>
+      <c r="E27" s="167"/>
+      <c r="F27" s="167"/>
+      <c r="G27" s="167"/>
+      <c r="H27" s="167"/>
+      <c r="I27" s="167"/>
+      <c r="J27" s="167"/>
+      <c r="K27" s="167"/>
+      <c r="L27" s="167"/>
+      <c r="M27" s="167"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="167"/>
+      <c r="P27" s="167"/>
+      <c r="Q27" s="167"/>
+      <c r="R27" s="167"/>
+      <c r="S27" s="167"/>
+      <c r="T27" s="167"/>
+      <c r="U27" s="167"/>
+    </row>
+    <row r="28" spans="2:21">
+      <c r="B28" s="166"/>
+      <c r="C28" s="167"/>
+      <c r="D28" s="167"/>
+      <c r="E28" s="167"/>
+      <c r="F28" s="167"/>
+      <c r="G28" s="167"/>
+      <c r="H28" s="167"/>
+      <c r="I28" s="167"/>
+      <c r="J28" s="167"/>
+      <c r="K28" s="167"/>
+      <c r="L28" s="167"/>
+      <c r="M28" s="167"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="167"/>
+      <c r="P28" s="167"/>
+      <c r="Q28" s="167"/>
+      <c r="R28" s="167"/>
+      <c r="S28" s="167"/>
+      <c r="T28" s="167"/>
+      <c r="U28" s="167"/>
+    </row>
+    <row r="29" spans="2:21">
+      <c r="B29" s="166"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
+      <c r="E29" s="167"/>
+      <c r="F29" s="167"/>
+      <c r="G29" s="167"/>
+      <c r="H29" s="167"/>
+      <c r="I29" s="167"/>
+      <c r="J29" s="167"/>
+      <c r="K29" s="167"/>
+      <c r="L29" s="167"/>
+      <c r="M29" s="167"/>
+      <c r="N29" s="167"/>
+      <c r="O29" s="167"/>
+      <c r="P29" s="167"/>
+      <c r="Q29" s="167"/>
+      <c r="R29" s="167"/>
+      <c r="S29" s="167"/>
+      <c r="T29" s="167"/>
+      <c r="U29" s="167"/>
+    </row>
+    <row r="30" spans="2:21">
+      <c r="B30" s="166"/>
+      <c r="C30" s="167"/>
+      <c r="D30" s="167"/>
+      <c r="E30" s="167"/>
+      <c r="F30" s="167"/>
+      <c r="G30" s="167"/>
+      <c r="H30" s="167"/>
+      <c r="I30" s="167"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="167"/>
+      <c r="L30" s="167"/>
+      <c r="M30" s="167"/>
+      <c r="N30" s="167"/>
+      <c r="O30" s="167"/>
+      <c r="P30" s="167"/>
+      <c r="Q30" s="167"/>
+      <c r="R30" s="167"/>
+      <c r="S30" s="167"/>
+      <c r="T30" s="167"/>
+      <c r="U30" s="167"/>
+    </row>
+    <row r="31" spans="2:21">
+      <c r="B31" s="166"/>
+      <c r="C31" s="167"/>
+      <c r="D31" s="167"/>
+      <c r="E31" s="167">
         <v>1</v>
       </c>
-      <c r="F31" s="170" t="s">
+      <c r="F31" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="G31" s="170"/>
-      <c r="H31" s="170"/>
-      <c r="I31" s="170"/>
-      <c r="J31" s="170"/>
-      <c r="K31" s="170"/>
-      <c r="L31" s="170"/>
-      <c r="M31" s="170"/>
-      <c r="N31" s="170"/>
-      <c r="O31" s="170"/>
-      <c r="P31" s="170"/>
-      <c r="Q31" s="170"/>
-      <c r="R31" s="170"/>
-      <c r="S31" s="170"/>
-      <c r="T31" s="170"/>
-      <c r="U31" s="170"/>
-    </row>
-    <row r="32" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B32" s="169"/>
-      <c r="C32" s="170"/>
-      <c r="D32" s="170"/>
-      <c r="E32" s="170"/>
-      <c r="F32" s="170"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="170"/>
-      <c r="I32" s="170"/>
-      <c r="J32" s="170"/>
-      <c r="K32" s="170"/>
-      <c r="L32" s="170"/>
-      <c r="M32" s="170"/>
-      <c r="N32" s="170"/>
-      <c r="O32" s="170"/>
-      <c r="P32" s="170"/>
-      <c r="Q32" s="170"/>
-      <c r="R32" s="170"/>
-      <c r="S32" s="170"/>
-      <c r="T32" s="170"/>
-      <c r="U32" s="170"/>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B33" s="169"/>
-      <c r="C33" s="170"/>
-      <c r="D33" s="170"/>
-      <c r="E33" s="170"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="170"/>
-      <c r="I33" s="170"/>
-      <c r="J33" s="170"/>
-      <c r="K33" s="170"/>
-      <c r="L33" s="170"/>
-      <c r="M33" s="170"/>
-      <c r="N33" s="170"/>
-      <c r="O33" s="170"/>
-      <c r="P33" s="170"/>
-      <c r="Q33" s="170"/>
-      <c r="R33" s="170"/>
-      <c r="S33" s="170"/>
-      <c r="T33" s="170"/>
-      <c r="U33" s="170"/>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B34" s="169"/>
-      <c r="C34" s="170"/>
-      <c r="D34" s="170"/>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="170"/>
-      <c r="N34" s="170"/>
-      <c r="O34" s="170"/>
-      <c r="P34" s="170"/>
-      <c r="Q34" s="170"/>
-      <c r="R34" s="170"/>
-      <c r="S34" s="170"/>
-      <c r="T34" s="170"/>
-      <c r="U34" s="170"/>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B35" s="169"/>
-      <c r="C35" s="170"/>
-      <c r="D35" s="170"/>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="170"/>
-      <c r="O35" s="170"/>
-      <c r="P35" s="170"/>
-      <c r="Q35" s="170"/>
-      <c r="R35" s="170"/>
-      <c r="S35" s="170"/>
-      <c r="T35" s="170"/>
-      <c r="U35" s="170"/>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B36" s="169"/>
-      <c r="C36" s="170"/>
-      <c r="D36" s="170"/>
-      <c r="E36" s="170"/>
-      <c r="F36" s="170"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="170"/>
-      <c r="I36" s="170"/>
-      <c r="J36" s="170"/>
-      <c r="K36" s="170"/>
-      <c r="L36" s="170"/>
-      <c r="M36" s="170"/>
-      <c r="N36" s="170"/>
-      <c r="O36" s="170"/>
-      <c r="P36" s="170"/>
-      <c r="Q36" s="170"/>
-      <c r="R36" s="170"/>
-      <c r="S36" s="170"/>
-      <c r="T36" s="170"/>
-      <c r="U36" s="170"/>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B37" s="169"/>
-      <c r="C37" s="170"/>
-      <c r="D37" s="170"/>
-      <c r="E37" s="170">
+      <c r="G31" s="167"/>
+      <c r="H31" s="167"/>
+      <c r="I31" s="167"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="167"/>
+      <c r="L31" s="167"/>
+      <c r="M31" s="167"/>
+      <c r="N31" s="167"/>
+      <c r="O31" s="167"/>
+      <c r="P31" s="167"/>
+      <c r="Q31" s="167"/>
+      <c r="R31" s="167"/>
+      <c r="S31" s="167"/>
+      <c r="T31" s="167"/>
+      <c r="U31" s="167"/>
+    </row>
+    <row r="32" spans="2:21">
+      <c r="B32" s="166"/>
+      <c r="C32" s="167"/>
+      <c r="D32" s="167"/>
+      <c r="E32" s="167"/>
+      <c r="F32" s="167"/>
+      <c r="G32" s="167"/>
+      <c r="H32" s="167"/>
+      <c r="I32" s="167"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="167"/>
+      <c r="L32" s="167"/>
+      <c r="M32" s="167"/>
+      <c r="N32" s="167"/>
+      <c r="O32" s="167"/>
+      <c r="P32" s="167"/>
+      <c r="Q32" s="167"/>
+      <c r="R32" s="167"/>
+      <c r="S32" s="167"/>
+      <c r="T32" s="167"/>
+      <c r="U32" s="167"/>
+    </row>
+    <row r="33" spans="2:21">
+      <c r="B33" s="166"/>
+      <c r="C33" s="167"/>
+      <c r="D33" s="167"/>
+      <c r="E33" s="167"/>
+      <c r="F33" s="167"/>
+      <c r="G33" s="167"/>
+      <c r="H33" s="167"/>
+      <c r="I33" s="167"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="167"/>
+      <c r="L33" s="167"/>
+      <c r="M33" s="167"/>
+      <c r="N33" s="167"/>
+      <c r="O33" s="167"/>
+      <c r="P33" s="167"/>
+      <c r="Q33" s="167"/>
+      <c r="R33" s="167"/>
+      <c r="S33" s="167"/>
+      <c r="T33" s="167"/>
+      <c r="U33" s="167"/>
+    </row>
+    <row r="34" spans="2:21">
+      <c r="B34" s="166"/>
+      <c r="C34" s="167"/>
+      <c r="D34" s="167"/>
+      <c r="E34" s="167"/>
+      <c r="F34" s="167"/>
+      <c r="G34" s="167"/>
+      <c r="H34" s="167"/>
+      <c r="I34" s="167"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="167"/>
+      <c r="L34" s="167"/>
+      <c r="M34" s="167"/>
+      <c r="N34" s="167"/>
+      <c r="O34" s="167"/>
+      <c r="P34" s="167"/>
+      <c r="Q34" s="167"/>
+      <c r="R34" s="167"/>
+      <c r="S34" s="167"/>
+      <c r="T34" s="167"/>
+      <c r="U34" s="167"/>
+    </row>
+    <row r="35" spans="2:21">
+      <c r="B35" s="166"/>
+      <c r="C35" s="167"/>
+      <c r="D35" s="167"/>
+      <c r="E35" s="167"/>
+      <c r="F35" s="167"/>
+      <c r="G35" s="167"/>
+      <c r="H35" s="167"/>
+      <c r="I35" s="167"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="167"/>
+      <c r="L35" s="167"/>
+      <c r="M35" s="167"/>
+      <c r="N35" s="167"/>
+      <c r="O35" s="167"/>
+      <c r="P35" s="167"/>
+      <c r="Q35" s="167"/>
+      <c r="R35" s="167"/>
+      <c r="S35" s="167"/>
+      <c r="T35" s="167"/>
+      <c r="U35" s="167"/>
+    </row>
+    <row r="36" spans="2:21">
+      <c r="B36" s="166"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
+      <c r="E36" s="167"/>
+      <c r="F36" s="167"/>
+      <c r="G36" s="167"/>
+      <c r="H36" s="167"/>
+      <c r="I36" s="167"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="167"/>
+      <c r="L36" s="167"/>
+      <c r="M36" s="167"/>
+      <c r="N36" s="167"/>
+      <c r="O36" s="167"/>
+      <c r="P36" s="167"/>
+      <c r="Q36" s="167"/>
+      <c r="R36" s="167"/>
+      <c r="S36" s="167"/>
+      <c r="T36" s="167"/>
+      <c r="U36" s="167"/>
+    </row>
+    <row r="37" spans="2:21">
+      <c r="B37" s="166"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
+      <c r="E37" s="167">
         <v>231.8</v>
       </c>
-      <c r="F37" s="170" t="s">
-        <v>121</v>
-      </c>
-      <c r="G37" s="170"/>
-      <c r="H37" s="170"/>
-      <c r="I37" s="170"/>
-      <c r="J37" s="170"/>
-      <c r="K37" s="170"/>
-      <c r="L37" s="170"/>
-      <c r="M37" s="170"/>
-      <c r="N37" s="170"/>
-      <c r="O37" s="170"/>
-      <c r="P37" s="170"/>
-      <c r="Q37" s="170"/>
-      <c r="R37" s="170"/>
-      <c r="S37" s="170"/>
-      <c r="T37" s="170"/>
-      <c r="U37" s="170"/>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B38" s="169"/>
-      <c r="C38" s="170"/>
-      <c r="D38" s="170"/>
-      <c r="E38" s="170">
+      <c r="F37" s="167" t="s">
+        <v>111</v>
+      </c>
+      <c r="G37" s="167"/>
+      <c r="H37" s="167"/>
+      <c r="I37" s="167"/>
+      <c r="J37" s="167"/>
+      <c r="K37" s="167"/>
+      <c r="L37" s="167"/>
+      <c r="M37" s="167"/>
+      <c r="N37" s="167"/>
+      <c r="O37" s="167"/>
+      <c r="P37" s="167"/>
+      <c r="Q37" s="167"/>
+      <c r="R37" s="167"/>
+      <c r="S37" s="167"/>
+      <c r="T37" s="167"/>
+      <c r="U37" s="167"/>
+    </row>
+    <row r="38" spans="2:21">
+      <c r="B38" s="166"/>
+      <c r="C38" s="167"/>
+      <c r="D38" s="167"/>
+      <c r="E38" s="167">
         <v>0</v>
       </c>
-      <c r="F38" s="170" t="s">
-        <v>121</v>
-      </c>
-      <c r="G38" s="170"/>
-      <c r="H38" s="170"/>
-      <c r="I38" s="170"/>
-      <c r="J38" s="170"/>
-      <c r="K38" s="170"/>
-      <c r="L38" s="170"/>
-      <c r="M38" s="170"/>
-      <c r="N38" s="170"/>
-      <c r="O38" s="170"/>
-      <c r="P38" s="170"/>
-      <c r="Q38" s="170"/>
-      <c r="R38" s="170"/>
-      <c r="S38" s="170"/>
-      <c r="T38" s="170"/>
-      <c r="U38" s="170"/>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B39" s="169"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="170"/>
-      <c r="E39" s="170"/>
-      <c r="F39" s="170"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="170"/>
-      <c r="I39" s="170"/>
-      <c r="J39" s="170"/>
-      <c r="K39" s="170"/>
-      <c r="L39" s="170"/>
-      <c r="M39" s="170"/>
-      <c r="N39" s="170"/>
-      <c r="O39" s="170"/>
-      <c r="P39" s="170"/>
-      <c r="Q39" s="170"/>
-      <c r="R39" s="170"/>
-      <c r="S39" s="170"/>
-      <c r="T39" s="170"/>
-      <c r="U39" s="170"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B40" s="169"/>
-      <c r="C40" s="170"/>
-      <c r="D40" s="170"/>
-      <c r="E40" s="170"/>
-      <c r="F40" s="170"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="170"/>
-      <c r="I40" s="170"/>
-      <c r="J40" s="170"/>
-      <c r="K40" s="170"/>
-      <c r="L40" s="170"/>
-      <c r="M40" s="170"/>
-      <c r="N40" s="170"/>
-      <c r="O40" s="170"/>
-      <c r="P40" s="170"/>
-      <c r="Q40" s="170"/>
-      <c r="R40" s="170"/>
-      <c r="S40" s="170"/>
-      <c r="T40" s="170"/>
-      <c r="U40" s="170"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B41" s="169"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="170"/>
-      <c r="E41" s="170"/>
-      <c r="F41" s="170"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="170"/>
-      <c r="I41" s="170"/>
-      <c r="J41" s="170"/>
-      <c r="K41" s="170"/>
-      <c r="L41" s="170"/>
-      <c r="M41" s="170"/>
-      <c r="N41" s="170"/>
-      <c r="O41" s="170"/>
-      <c r="P41" s="170"/>
-      <c r="Q41" s="170"/>
-      <c r="R41" s="170"/>
-      <c r="S41" s="170"/>
-      <c r="T41" s="170"/>
-      <c r="U41" s="170"/>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B42" s="169"/>
-      <c r="C42" s="170"/>
-      <c r="D42" s="170"/>
-      <c r="E42" s="170"/>
-      <c r="F42" s="170"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="170"/>
-      <c r="I42" s="170"/>
-      <c r="J42" s="170"/>
-      <c r="K42" s="170"/>
-      <c r="L42" s="170"/>
-      <c r="M42" s="170"/>
-      <c r="N42" s="170"/>
-      <c r="O42" s="170"/>
-      <c r="P42" s="170"/>
-      <c r="Q42" s="170"/>
-      <c r="R42" s="170"/>
-      <c r="S42" s="170"/>
-      <c r="T42" s="170"/>
-      <c r="U42" s="170"/>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B43" s="169"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="170"/>
-      <c r="J43" s="170"/>
-      <c r="K43" s="170"/>
-      <c r="L43" s="170"/>
-      <c r="M43" s="170"/>
-      <c r="N43" s="170"/>
-      <c r="O43" s="170"/>
-      <c r="P43" s="170"/>
-      <c r="Q43" s="170"/>
-      <c r="R43" s="170"/>
-      <c r="S43" s="170"/>
-      <c r="T43" s="170"/>
-      <c r="U43" s="170"/>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B44" s="169"/>
-      <c r="C44" s="170"/>
-      <c r="D44" s="170"/>
-      <c r="E44" s="170"/>
-      <c r="F44" s="170"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="170"/>
-      <c r="I44" s="170"/>
-      <c r="J44" s="170"/>
-      <c r="K44" s="170"/>
-      <c r="L44" s="170"/>
-      <c r="M44" s="170"/>
-      <c r="N44" s="170"/>
-      <c r="O44" s="170"/>
-      <c r="P44" s="170"/>
-      <c r="Q44" s="170"/>
-      <c r="R44" s="170"/>
-      <c r="S44" s="170"/>
-      <c r="T44" s="170"/>
-      <c r="U44" s="170"/>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B45" s="169"/>
-      <c r="C45" s="170"/>
-      <c r="D45" s="170"/>
-      <c r="E45" s="170"/>
-      <c r="F45" s="170"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="170"/>
-      <c r="I45" s="170"/>
-      <c r="J45" s="170"/>
-      <c r="K45" s="170"/>
-      <c r="L45" s="170"/>
-      <c r="M45" s="170"/>
-      <c r="N45" s="170"/>
-      <c r="O45" s="170"/>
-      <c r="P45" s="170"/>
-      <c r="Q45" s="170"/>
-      <c r="R45" s="170"/>
-      <c r="S45" s="170"/>
-      <c r="T45" s="170"/>
-      <c r="U45" s="170"/>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B46" s="169"/>
-      <c r="C46" s="170"/>
-      <c r="D46" s="170"/>
-      <c r="E46" s="170"/>
-      <c r="F46" s="170"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="170"/>
-      <c r="I46" s="170"/>
-      <c r="J46" s="170"/>
-      <c r="K46" s="170"/>
-      <c r="L46" s="170"/>
-      <c r="M46" s="170"/>
-      <c r="N46" s="170"/>
-      <c r="O46" s="170"/>
-      <c r="P46" s="170"/>
-      <c r="Q46" s="170"/>
-      <c r="R46" s="170"/>
-      <c r="S46" s="170"/>
-      <c r="T46" s="170"/>
-      <c r="U46" s="170"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B47" s="169"/>
-      <c r="C47" s="170"/>
-      <c r="D47" s="170"/>
-      <c r="E47" s="170"/>
-      <c r="F47" s="170"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="170"/>
-      <c r="I47" s="170"/>
-      <c r="J47" s="170"/>
-      <c r="K47" s="170"/>
-      <c r="L47" s="170"/>
-      <c r="M47" s="170"/>
-      <c r="N47" s="170"/>
-      <c r="O47" s="170"/>
-      <c r="P47" s="170"/>
-      <c r="Q47" s="170"/>
-      <c r="R47" s="170"/>
-      <c r="S47" s="170"/>
-      <c r="T47" s="170"/>
-      <c r="U47" s="170"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B48" s="169"/>
-      <c r="C48" s="170"/>
-      <c r="D48" s="170"/>
-      <c r="E48" s="170"/>
-      <c r="F48" s="170"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="170"/>
-      <c r="I48" s="170"/>
-      <c r="J48" s="170"/>
-      <c r="K48" s="170"/>
-      <c r="L48" s="170"/>
-      <c r="M48" s="170"/>
-      <c r="N48" s="170"/>
-      <c r="O48" s="170"/>
-      <c r="P48" s="170"/>
-      <c r="Q48" s="170"/>
-      <c r="R48" s="170"/>
-      <c r="S48" s="170"/>
-      <c r="T48" s="170"/>
-      <c r="U48" s="170"/>
-    </row>
-    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B49" s="169"/>
-      <c r="C49" s="170" t="s">
-        <v>115</v>
-      </c>
-      <c r="D49" s="170"/>
-      <c r="E49" s="170"/>
-      <c r="F49" s="170"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="170"/>
-      <c r="I49" s="170"/>
-      <c r="J49" s="170"/>
-      <c r="K49" s="170"/>
-      <c r="L49" s="170"/>
-      <c r="M49" s="170"/>
-      <c r="N49" s="170"/>
-      <c r="O49" s="170"/>
-      <c r="P49" s="170"/>
-      <c r="Q49" s="170"/>
-      <c r="R49" s="170"/>
-      <c r="S49" s="170"/>
-      <c r="T49" s="170"/>
-      <c r="U49" s="170"/>
-    </row>
-    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B50" s="169"/>
-      <c r="C50" s="170"/>
-      <c r="D50" s="170"/>
-      <c r="E50" s="170"/>
-      <c r="F50" s="170"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="170"/>
-      <c r="I50" s="170"/>
-      <c r="J50" s="170"/>
-      <c r="K50" s="170"/>
-      <c r="L50" s="170"/>
-      <c r="M50" s="170"/>
-      <c r="N50" s="170"/>
-      <c r="O50" s="170"/>
-      <c r="P50" s="170"/>
-      <c r="Q50" s="170"/>
-      <c r="R50" s="170"/>
-      <c r="S50" s="170"/>
-      <c r="T50" s="170"/>
-      <c r="U50" s="170"/>
-    </row>
-    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B51" s="169"/>
-      <c r="C51" s="170"/>
-      <c r="D51" s="170"/>
-      <c r="E51" s="170"/>
-      <c r="F51" s="170"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="170"/>
-      <c r="J51" s="170"/>
-      <c r="K51" s="170"/>
-      <c r="L51" s="170"/>
-      <c r="M51" s="170"/>
-      <c r="N51" s="170"/>
-      <c r="O51" s="170"/>
-      <c r="P51" s="170"/>
-      <c r="Q51" s="170"/>
-      <c r="R51" s="170"/>
-      <c r="S51" s="170"/>
-      <c r="T51" s="170"/>
-      <c r="U51" s="170"/>
-    </row>
-    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B52" s="169"/>
-      <c r="C52" s="170"/>
-      <c r="D52" s="170"/>
-      <c r="E52" s="170"/>
-      <c r="F52" s="170"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="170"/>
-      <c r="I52" s="170"/>
-      <c r="J52" s="170"/>
-      <c r="K52" s="170"/>
-      <c r="L52" s="170"/>
-      <c r="M52" s="170"/>
-      <c r="N52" s="170"/>
-      <c r="O52" s="170"/>
-      <c r="P52" s="170"/>
-      <c r="Q52" s="170"/>
-      <c r="R52" s="170"/>
-      <c r="S52" s="170"/>
-      <c r="T52" s="170"/>
-      <c r="U52" s="170"/>
-    </row>
-    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B53" s="169"/>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
-      <c r="F53" s="170"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="170"/>
-      <c r="I53" s="170"/>
-      <c r="J53" s="170"/>
-      <c r="K53" s="170"/>
-      <c r="L53" s="170"/>
-      <c r="M53" s="170"/>
-      <c r="N53" s="170"/>
-      <c r="O53" s="170"/>
-      <c r="P53" s="170"/>
-      <c r="Q53" s="170"/>
-      <c r="R53" s="170"/>
-      <c r="S53" s="170"/>
-      <c r="T53" s="170"/>
-      <c r="U53" s="170"/>
-    </row>
-    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B54" s="169"/>
-      <c r="C54" s="170"/>
-      <c r="D54" s="170"/>
-      <c r="E54" s="170">
+      <c r="F38" s="167" t="s">
+        <v>111</v>
+      </c>
+      <c r="G38" s="167"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="167"/>
+      <c r="J38" s="167"/>
+      <c r="K38" s="167"/>
+      <c r="L38" s="167"/>
+      <c r="M38" s="167"/>
+      <c r="N38" s="167"/>
+      <c r="O38" s="167"/>
+      <c r="P38" s="167"/>
+      <c r="Q38" s="167"/>
+      <c r="R38" s="167"/>
+      <c r="S38" s="167"/>
+      <c r="T38" s="167"/>
+      <c r="U38" s="167"/>
+    </row>
+    <row r="39" spans="2:21">
+      <c r="B39" s="166"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="167"/>
+      <c r="E39" s="167"/>
+      <c r="F39" s="167"/>
+      <c r="G39" s="167"/>
+      <c r="H39" s="167"/>
+      <c r="I39" s="167"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="167"/>
+      <c r="L39" s="167"/>
+      <c r="M39" s="167"/>
+      <c r="N39" s="167"/>
+      <c r="O39" s="167"/>
+      <c r="P39" s="167"/>
+      <c r="Q39" s="167"/>
+      <c r="R39" s="167"/>
+      <c r="S39" s="167"/>
+      <c r="T39" s="167"/>
+      <c r="U39" s="167"/>
+    </row>
+    <row r="40" spans="2:21">
+      <c r="B40" s="166"/>
+      <c r="C40" s="167"/>
+      <c r="D40" s="167"/>
+      <c r="E40" s="167"/>
+      <c r="F40" s="167"/>
+      <c r="G40" s="167"/>
+      <c r="H40" s="167"/>
+      <c r="I40" s="167"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="167"/>
+      <c r="L40" s="167"/>
+      <c r="M40" s="167"/>
+      <c r="N40" s="167"/>
+      <c r="O40" s="167"/>
+      <c r="P40" s="167"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="167"/>
+      <c r="S40" s="167"/>
+      <c r="T40" s="167"/>
+      <c r="U40" s="167"/>
+    </row>
+    <row r="41" spans="2:21">
+      <c r="B41" s="166"/>
+      <c r="C41" s="167"/>
+      <c r="D41" s="167"/>
+      <c r="E41" s="167"/>
+      <c r="F41" s="167"/>
+      <c r="G41" s="167"/>
+      <c r="H41" s="167"/>
+      <c r="I41" s="167"/>
+      <c r="J41" s="167"/>
+      <c r="K41" s="167"/>
+      <c r="L41" s="167"/>
+      <c r="M41" s="167"/>
+      <c r="N41" s="167"/>
+      <c r="O41" s="167"/>
+      <c r="P41" s="167"/>
+      <c r="Q41" s="167"/>
+      <c r="R41" s="167"/>
+      <c r="S41" s="167"/>
+      <c r="T41" s="167"/>
+      <c r="U41" s="167"/>
+    </row>
+    <row r="42" spans="2:21">
+      <c r="B42" s="166"/>
+      <c r="C42" s="167"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
+      <c r="J42" s="167"/>
+      <c r="K42" s="167"/>
+      <c r="L42" s="167"/>
+      <c r="M42" s="167"/>
+      <c r="N42" s="167"/>
+      <c r="O42" s="167"/>
+      <c r="P42" s="167"/>
+      <c r="Q42" s="167"/>
+      <c r="R42" s="167"/>
+      <c r="S42" s="167"/>
+      <c r="T42" s="167"/>
+      <c r="U42" s="167"/>
+    </row>
+    <row r="43" spans="2:21">
+      <c r="B43" s="166"/>
+      <c r="C43" s="167"/>
+      <c r="D43" s="167"/>
+      <c r="E43" s="167"/>
+      <c r="F43" s="167"/>
+      <c r="G43" s="167"/>
+      <c r="H43" s="167"/>
+      <c r="I43" s="167"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="167"/>
+      <c r="L43" s="167"/>
+      <c r="M43" s="167"/>
+      <c r="N43" s="167"/>
+      <c r="O43" s="167"/>
+      <c r="P43" s="167"/>
+      <c r="Q43" s="167"/>
+      <c r="R43" s="167"/>
+      <c r="S43" s="167"/>
+      <c r="T43" s="167"/>
+      <c r="U43" s="167"/>
+    </row>
+    <row r="44" spans="2:21">
+      <c r="B44" s="166"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="167"/>
+      <c r="E44" s="167"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
+      <c r="I44" s="167"/>
+      <c r="J44" s="167"/>
+      <c r="K44" s="167"/>
+      <c r="L44" s="167"/>
+      <c r="M44" s="167"/>
+      <c r="N44" s="167"/>
+      <c r="O44" s="167"/>
+      <c r="P44" s="167"/>
+      <c r="Q44" s="167"/>
+      <c r="R44" s="167"/>
+      <c r="S44" s="167"/>
+      <c r="T44" s="167"/>
+      <c r="U44" s="167"/>
+    </row>
+    <row r="45" spans="2:21">
+      <c r="B45" s="166"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="167"/>
+      <c r="E45" s="167"/>
+      <c r="F45" s="167"/>
+      <c r="G45" s="167"/>
+      <c r="H45" s="167"/>
+      <c r="I45" s="167"/>
+      <c r="J45" s="167"/>
+      <c r="K45" s="167"/>
+      <c r="L45" s="167"/>
+      <c r="M45" s="167"/>
+      <c r="N45" s="167"/>
+      <c r="O45" s="167"/>
+      <c r="P45" s="167"/>
+      <c r="Q45" s="167"/>
+      <c r="R45" s="167"/>
+      <c r="S45" s="167"/>
+      <c r="T45" s="167"/>
+      <c r="U45" s="167"/>
+    </row>
+    <row r="46" spans="2:21">
+      <c r="B46" s="166"/>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
+      <c r="J46" s="167"/>
+      <c r="K46" s="167"/>
+      <c r="L46" s="167"/>
+      <c r="M46" s="167"/>
+      <c r="N46" s="167"/>
+      <c r="O46" s="167"/>
+      <c r="P46" s="167"/>
+      <c r="Q46" s="167"/>
+      <c r="R46" s="167"/>
+      <c r="S46" s="167"/>
+      <c r="T46" s="167"/>
+      <c r="U46" s="167"/>
+    </row>
+    <row r="47" spans="2:21">
+      <c r="B47" s="166"/>
+      <c r="C47" s="167"/>
+      <c r="D47" s="167"/>
+      <c r="E47" s="167"/>
+      <c r="F47" s="167"/>
+      <c r="G47" s="167"/>
+      <c r="H47" s="167"/>
+      <c r="I47" s="167"/>
+      <c r="J47" s="167"/>
+      <c r="K47" s="167"/>
+      <c r="L47" s="167"/>
+      <c r="M47" s="167"/>
+      <c r="N47" s="167"/>
+      <c r="O47" s="167"/>
+      <c r="P47" s="167"/>
+      <c r="Q47" s="167"/>
+      <c r="R47" s="167"/>
+      <c r="S47" s="167"/>
+      <c r="T47" s="167"/>
+      <c r="U47" s="167"/>
+    </row>
+    <row r="48" spans="2:21">
+      <c r="B48" s="166"/>
+      <c r="C48" s="167"/>
+      <c r="D48" s="167"/>
+      <c r="E48" s="167"/>
+      <c r="F48" s="167"/>
+      <c r="G48" s="167"/>
+      <c r="H48" s="167"/>
+      <c r="I48" s="167"/>
+      <c r="J48" s="167"/>
+      <c r="K48" s="167"/>
+      <c r="L48" s="167"/>
+      <c r="M48" s="167"/>
+      <c r="N48" s="167"/>
+      <c r="O48" s="167"/>
+      <c r="P48" s="167"/>
+      <c r="Q48" s="167"/>
+      <c r="R48" s="167"/>
+      <c r="S48" s="167"/>
+      <c r="T48" s="167"/>
+      <c r="U48" s="167"/>
+    </row>
+    <row r="49" spans="2:21">
+      <c r="B49" s="166"/>
+      <c r="C49" s="167" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="167"/>
+      <c r="E49" s="167"/>
+      <c r="F49" s="167"/>
+      <c r="G49" s="167"/>
+      <c r="H49" s="167"/>
+      <c r="I49" s="167"/>
+      <c r="J49" s="167"/>
+      <c r="K49" s="167"/>
+      <c r="L49" s="167"/>
+      <c r="M49" s="167"/>
+      <c r="N49" s="167"/>
+      <c r="O49" s="167"/>
+      <c r="P49" s="167"/>
+      <c r="Q49" s="167"/>
+      <c r="R49" s="167"/>
+      <c r="S49" s="167"/>
+      <c r="T49" s="167"/>
+      <c r="U49" s="167"/>
+    </row>
+    <row r="50" spans="2:21">
+      <c r="B50" s="166"/>
+      <c r="C50" s="167"/>
+      <c r="D50" s="167"/>
+      <c r="E50" s="167"/>
+      <c r="F50" s="167"/>
+      <c r="G50" s="167"/>
+      <c r="H50" s="167"/>
+      <c r="I50" s="167"/>
+      <c r="J50" s="167"/>
+      <c r="K50" s="167"/>
+      <c r="L50" s="167"/>
+      <c r="M50" s="167"/>
+      <c r="N50" s="167"/>
+      <c r="O50" s="167"/>
+      <c r="P50" s="167"/>
+      <c r="Q50" s="167"/>
+      <c r="R50" s="167"/>
+      <c r="S50" s="167"/>
+      <c r="T50" s="167"/>
+      <c r="U50" s="167"/>
+    </row>
+    <row r="51" spans="2:21">
+      <c r="B51" s="166"/>
+      <c r="C51" s="167"/>
+      <c r="D51" s="167"/>
+      <c r="E51" s="167"/>
+      <c r="F51" s="167"/>
+      <c r="G51" s="167"/>
+      <c r="H51" s="167"/>
+      <c r="I51" s="167"/>
+      <c r="J51" s="167"/>
+      <c r="K51" s="167"/>
+      <c r="L51" s="167"/>
+      <c r="M51" s="167"/>
+      <c r="N51" s="167"/>
+      <c r="O51" s="167"/>
+      <c r="P51" s="167"/>
+      <c r="Q51" s="167"/>
+      <c r="R51" s="167"/>
+      <c r="S51" s="167"/>
+      <c r="T51" s="167"/>
+      <c r="U51" s="167"/>
+    </row>
+    <row r="52" spans="2:21">
+      <c r="B52" s="166"/>
+      <c r="C52" s="167"/>
+      <c r="D52" s="167"/>
+      <c r="E52" s="167"/>
+      <c r="F52" s="167"/>
+      <c r="G52" s="167"/>
+      <c r="H52" s="167"/>
+      <c r="I52" s="167"/>
+      <c r="J52" s="167"/>
+      <c r="K52" s="167"/>
+      <c r="L52" s="167"/>
+      <c r="M52" s="167"/>
+      <c r="N52" s="167"/>
+      <c r="O52" s="167"/>
+      <c r="P52" s="167"/>
+      <c r="Q52" s="167"/>
+      <c r="R52" s="167"/>
+      <c r="S52" s="167"/>
+      <c r="T52" s="167"/>
+      <c r="U52" s="167"/>
+    </row>
+    <row r="53" spans="2:21">
+      <c r="B53" s="166"/>
+      <c r="C53" s="167"/>
+      <c r="D53" s="167"/>
+      <c r="E53" s="167"/>
+      <c r="F53" s="167"/>
+      <c r="G53" s="167"/>
+      <c r="H53" s="167"/>
+      <c r="I53" s="167"/>
+      <c r="J53" s="167"/>
+      <c r="K53" s="167"/>
+      <c r="L53" s="167"/>
+      <c r="M53" s="167"/>
+      <c r="N53" s="167"/>
+      <c r="O53" s="167"/>
+      <c r="P53" s="167"/>
+      <c r="Q53" s="167"/>
+      <c r="R53" s="167"/>
+      <c r="S53" s="167"/>
+      <c r="T53" s="167"/>
+      <c r="U53" s="167"/>
+    </row>
+    <row r="54" spans="2:21">
+      <c r="B54" s="166"/>
+      <c r="C54" s="167"/>
+      <c r="D54" s="167"/>
+      <c r="E54" s="167">
         <v>0.8</v>
       </c>
-      <c r="F54" s="170" t="s">
+      <c r="F54" s="167" t="s">
         <v>62</v>
       </c>
-      <c r="G54" s="170"/>
-      <c r="H54" s="170"/>
-      <c r="I54" s="170"/>
-      <c r="J54" s="170"/>
-      <c r="K54" s="170"/>
-      <c r="L54" s="170"/>
-      <c r="M54" s="170"/>
-      <c r="N54" s="170"/>
-      <c r="O54" s="170"/>
-      <c r="P54" s="170"/>
-      <c r="Q54" s="170"/>
-      <c r="R54" s="170"/>
-      <c r="S54" s="170"/>
-      <c r="T54" s="170"/>
-      <c r="U54" s="170"/>
-    </row>
-    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B55" s="169"/>
-      <c r="C55" s="170"/>
-      <c r="D55" s="170"/>
-      <c r="E55" s="170"/>
-      <c r="F55" s="170"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="170"/>
-      <c r="I55" s="170"/>
-      <c r="J55" s="170"/>
-      <c r="K55" s="170"/>
-      <c r="L55" s="170"/>
-      <c r="M55" s="170"/>
-      <c r="N55" s="170"/>
-      <c r="O55" s="170"/>
-      <c r="P55" s="170"/>
-      <c r="Q55" s="170"/>
-      <c r="R55" s="170"/>
-      <c r="S55" s="170"/>
-      <c r="T55" s="170"/>
-      <c r="U55" s="170"/>
-    </row>
-    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B56" s="169"/>
-      <c r="C56" s="170"/>
-      <c r="D56" s="170"/>
-      <c r="E56" s="170"/>
-      <c r="F56" s="170"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="170"/>
-      <c r="I56" s="170"/>
-      <c r="J56" s="170"/>
-      <c r="K56" s="170"/>
-      <c r="L56" s="170"/>
-      <c r="M56" s="170"/>
-      <c r="N56" s="170"/>
-      <c r="O56" s="170"/>
-      <c r="P56" s="170"/>
-      <c r="Q56" s="170"/>
-      <c r="R56" s="170"/>
-      <c r="S56" s="170"/>
-      <c r="T56" s="170"/>
-      <c r="U56" s="170"/>
-    </row>
-    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B57" s="169"/>
-      <c r="C57" s="170"/>
-      <c r="D57" s="170"/>
-      <c r="E57" s="170"/>
-      <c r="F57" s="170"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="170"/>
-      <c r="I57" s="170"/>
-      <c r="J57" s="170"/>
-      <c r="K57" s="170"/>
-      <c r="L57" s="170"/>
-      <c r="M57" s="170"/>
-      <c r="N57" s="170"/>
-      <c r="O57" s="170"/>
-      <c r="P57" s="170"/>
-      <c r="Q57" s="170"/>
-      <c r="R57" s="170"/>
-      <c r="S57" s="170"/>
-      <c r="T57" s="170"/>
-      <c r="U57" s="170"/>
-    </row>
-    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B58" s="169"/>
-      <c r="C58" s="170"/>
-      <c r="D58" s="170"/>
-      <c r="E58" s="170"/>
-      <c r="F58" s="170"/>
-      <c r="G58" s="170"/>
-      <c r="H58" s="170"/>
-      <c r="I58" s="170"/>
-      <c r="J58" s="170"/>
-      <c r="K58" s="170"/>
-      <c r="L58" s="170"/>
-      <c r="M58" s="170"/>
-      <c r="N58" s="170"/>
-      <c r="O58" s="170"/>
-      <c r="P58" s="170"/>
-      <c r="Q58" s="170"/>
-      <c r="R58" s="170"/>
-      <c r="S58" s="170"/>
-      <c r="T58" s="170"/>
-      <c r="U58" s="170"/>
-    </row>
-    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B59" s="169"/>
-      <c r="C59" s="170"/>
-      <c r="D59" s="170"/>
-      <c r="E59" s="170"/>
-      <c r="F59" s="170"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="170"/>
-      <c r="I59" s="170"/>
-      <c r="J59" s="170"/>
-      <c r="K59" s="170"/>
-      <c r="L59" s="170"/>
-      <c r="M59" s="170"/>
-      <c r="N59" s="170"/>
-      <c r="O59" s="170"/>
-      <c r="P59" s="170"/>
-      <c r="Q59" s="170"/>
-      <c r="R59" s="170"/>
-      <c r="S59" s="170"/>
-      <c r="T59" s="170"/>
-      <c r="U59" s="170"/>
-    </row>
-    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B60" s="169"/>
-      <c r="C60" s="170"/>
-      <c r="D60" s="170"/>
-      <c r="E60" s="170"/>
-      <c r="F60" s="170"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="170"/>
-      <c r="I60" s="170"/>
-      <c r="J60" s="170"/>
-      <c r="K60" s="170"/>
-      <c r="L60" s="170"/>
-      <c r="M60" s="170"/>
-      <c r="N60" s="170"/>
-      <c r="O60" s="170"/>
-      <c r="P60" s="170"/>
-      <c r="Q60" s="170"/>
-      <c r="R60" s="170"/>
-      <c r="S60" s="170"/>
-      <c r="T60" s="170"/>
-      <c r="U60" s="170"/>
-    </row>
-    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B61" s="169"/>
-      <c r="C61" s="170"/>
-      <c r="D61" s="170"/>
-      <c r="E61" s="170"/>
-      <c r="F61" s="170"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="170"/>
-      <c r="I61" s="170"/>
-      <c r="J61" s="170"/>
-      <c r="K61" s="170"/>
-      <c r="L61" s="170"/>
-      <c r="M61" s="170"/>
-      <c r="N61" s="170"/>
-      <c r="O61" s="170"/>
-      <c r="P61" s="170"/>
-      <c r="Q61" s="170"/>
-      <c r="R61" s="170"/>
-      <c r="S61" s="170"/>
-      <c r="T61" s="170"/>
-      <c r="U61" s="170"/>
-    </row>
-    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B62" s="169"/>
-      <c r="C62" s="170"/>
-      <c r="D62" s="170"/>
-      <c r="E62" s="170"/>
-      <c r="F62" s="170"/>
-      <c r="G62" s="170"/>
-      <c r="H62" s="170"/>
-      <c r="I62" s="170"/>
-      <c r="J62" s="170"/>
-      <c r="K62" s="170"/>
-      <c r="L62" s="170"/>
-      <c r="M62" s="170"/>
-      <c r="N62" s="170"/>
-      <c r="O62" s="170"/>
-      <c r="P62" s="170"/>
-      <c r="Q62" s="170"/>
-      <c r="R62" s="170"/>
-      <c r="S62" s="170"/>
-      <c r="T62" s="170"/>
-      <c r="U62" s="170"/>
-    </row>
-    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B63" s="169"/>
-      <c r="C63" s="170"/>
-      <c r="D63" s="170"/>
-      <c r="E63" s="170"/>
-      <c r="F63" s="170"/>
-      <c r="G63" s="170"/>
-      <c r="H63" s="170"/>
-      <c r="I63" s="170"/>
-      <c r="J63" s="170"/>
-      <c r="K63" s="170"/>
-      <c r="L63" s="170"/>
-      <c r="M63" s="170"/>
-      <c r="N63" s="170"/>
-      <c r="O63" s="170"/>
-      <c r="P63" s="170"/>
-      <c r="Q63" s="170"/>
-      <c r="R63" s="170"/>
-      <c r="S63" s="170"/>
-      <c r="T63" s="170"/>
-      <c r="U63" s="170"/>
-    </row>
-    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B64" s="169"/>
-      <c r="C64" s="170"/>
-      <c r="D64" s="170"/>
-      <c r="E64" s="170"/>
-      <c r="F64" s="170"/>
-      <c r="G64" s="170"/>
-      <c r="H64" s="170"/>
-      <c r="I64" s="170"/>
-      <c r="J64" s="170"/>
-      <c r="K64" s="170"/>
-      <c r="L64" s="170"/>
-      <c r="M64" s="170"/>
-      <c r="N64" s="170"/>
-      <c r="O64" s="170"/>
-      <c r="P64" s="170"/>
-      <c r="Q64" s="170"/>
-      <c r="R64" s="170"/>
-      <c r="S64" s="170"/>
-      <c r="T64" s="170"/>
-      <c r="U64" s="170"/>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B65" s="169"/>
-      <c r="C65" s="170"/>
-      <c r="D65" s="170"/>
-      <c r="E65" s="170"/>
-      <c r="F65" s="170"/>
-      <c r="G65" s="170"/>
-      <c r="H65" s="170"/>
-      <c r="I65" s="170"/>
-      <c r="J65" s="170"/>
-      <c r="K65" s="170"/>
-      <c r="L65" s="170"/>
-      <c r="M65" s="170"/>
-      <c r="N65" s="170"/>
-      <c r="O65" s="170"/>
-      <c r="P65" s="170"/>
-      <c r="Q65" s="170"/>
-      <c r="R65" s="170"/>
-      <c r="S65" s="170"/>
-      <c r="T65" s="170"/>
-      <c r="U65" s="170"/>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B66" s="169"/>
-      <c r="C66" s="170"/>
-      <c r="D66" s="170"/>
-      <c r="E66" s="170"/>
-      <c r="F66" s="170"/>
-      <c r="G66" s="170"/>
-      <c r="H66" s="170"/>
-      <c r="I66" s="170"/>
-      <c r="J66" s="170"/>
-      <c r="K66" s="170"/>
-      <c r="L66" s="170"/>
-      <c r="M66" s="170"/>
-      <c r="N66" s="170"/>
-      <c r="O66" s="170"/>
-      <c r="P66" s="170"/>
-      <c r="Q66" s="170"/>
-      <c r="R66" s="170"/>
-      <c r="S66" s="170"/>
-      <c r="T66" s="170"/>
-      <c r="U66" s="170"/>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B67" s="169"/>
-      <c r="C67" s="170"/>
-      <c r="D67" s="170"/>
-      <c r="E67" s="170"/>
-      <c r="F67" s="170"/>
-      <c r="G67" s="170"/>
-      <c r="H67" s="170"/>
-      <c r="I67" s="170"/>
-      <c r="J67" s="170"/>
-      <c r="K67" s="170"/>
-      <c r="L67" s="170"/>
-      <c r="M67" s="170"/>
-      <c r="N67" s="170"/>
-      <c r="O67" s="170"/>
-      <c r="P67" s="170"/>
-      <c r="Q67" s="170"/>
-      <c r="R67" s="170"/>
-      <c r="S67" s="170"/>
-      <c r="T67" s="170"/>
-      <c r="U67" s="170"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B68" s="169"/>
-      <c r="C68" s="170"/>
-      <c r="D68" s="170"/>
-      <c r="E68" s="170"/>
-      <c r="F68" s="170"/>
-      <c r="G68" s="170"/>
-      <c r="H68" s="170"/>
-      <c r="I68" s="170"/>
-      <c r="J68" s="170"/>
-      <c r="K68" s="170"/>
-      <c r="L68" s="170"/>
-      <c r="M68" s="170"/>
-      <c r="N68" s="170"/>
-      <c r="O68" s="170"/>
-      <c r="P68" s="170"/>
-      <c r="Q68" s="170"/>
-      <c r="R68" s="170"/>
-      <c r="S68" s="170"/>
-      <c r="T68" s="170"/>
-      <c r="U68" s="170"/>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B69" s="169"/>
-      <c r="C69" s="170"/>
-      <c r="D69" s="170"/>
-      <c r="E69" s="170"/>
-      <c r="F69" s="170"/>
-      <c r="G69" s="170"/>
-      <c r="H69" s="170"/>
-      <c r="I69" s="170"/>
-      <c r="J69" s="170"/>
-      <c r="K69" s="170"/>
-      <c r="L69" s="170"/>
-      <c r="M69" s="170"/>
-      <c r="N69" s="170"/>
-      <c r="O69" s="170"/>
-      <c r="P69" s="170"/>
-      <c r="Q69" s="170"/>
-      <c r="R69" s="170"/>
-      <c r="S69" s="170"/>
-      <c r="T69" s="170"/>
-      <c r="U69" s="170"/>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B70" s="169"/>
-      <c r="C70" s="170"/>
-      <c r="D70" s="170"/>
-      <c r="E70" s="170"/>
-      <c r="F70" s="170"/>
-      <c r="G70" s="170"/>
-      <c r="H70" s="170"/>
-      <c r="I70" s="170"/>
-      <c r="J70" s="170"/>
-      <c r="K70" s="170"/>
-      <c r="L70" s="170"/>
-      <c r="M70" s="170"/>
-      <c r="N70" s="170"/>
-      <c r="O70" s="170"/>
-      <c r="P70" s="170"/>
-      <c r="Q70" s="170"/>
-      <c r="R70" s="170"/>
-      <c r="S70" s="170"/>
-      <c r="T70" s="170"/>
-      <c r="U70" s="170"/>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B71" s="169"/>
-      <c r="C71" s="170"/>
-      <c r="D71" s="170"/>
-      <c r="E71" s="170">
+      <c r="G54" s="167"/>
+      <c r="H54" s="167"/>
+      <c r="I54" s="167"/>
+      <c r="J54" s="167"/>
+      <c r="K54" s="167"/>
+      <c r="L54" s="167"/>
+      <c r="M54" s="167"/>
+      <c r="N54" s="167"/>
+      <c r="O54" s="167"/>
+      <c r="P54" s="167"/>
+      <c r="Q54" s="167"/>
+      <c r="R54" s="167"/>
+      <c r="S54" s="167"/>
+      <c r="T54" s="167"/>
+      <c r="U54" s="167"/>
+    </row>
+    <row r="55" spans="2:21">
+      <c r="B55" s="166"/>
+      <c r="C55" s="167"/>
+      <c r="D55" s="167"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="167"/>
+      <c r="H55" s="167"/>
+      <c r="I55" s="167"/>
+      <c r="J55" s="167"/>
+      <c r="K55" s="167"/>
+      <c r="L55" s="167"/>
+      <c r="M55" s="167"/>
+      <c r="N55" s="167"/>
+      <c r="O55" s="167"/>
+      <c r="P55" s="167"/>
+      <c r="Q55" s="167"/>
+      <c r="R55" s="167"/>
+      <c r="S55" s="167"/>
+      <c r="T55" s="167"/>
+      <c r="U55" s="167"/>
+    </row>
+    <row r="56" spans="2:21">
+      <c r="B56" s="166"/>
+      <c r="C56" s="167"/>
+      <c r="D56" s="167"/>
+      <c r="E56" s="167"/>
+      <c r="F56" s="167"/>
+      <c r="G56" s="167"/>
+      <c r="H56" s="167"/>
+      <c r="I56" s="167"/>
+      <c r="J56" s="167"/>
+      <c r="K56" s="167"/>
+      <c r="L56" s="167"/>
+      <c r="M56" s="167"/>
+      <c r="N56" s="167"/>
+      <c r="O56" s="167"/>
+      <c r="P56" s="167"/>
+      <c r="Q56" s="167"/>
+      <c r="R56" s="167"/>
+      <c r="S56" s="167"/>
+      <c r="T56" s="167"/>
+      <c r="U56" s="167"/>
+    </row>
+    <row r="57" spans="2:21">
+      <c r="B57" s="166"/>
+      <c r="C57" s="167"/>
+      <c r="D57" s="167"/>
+      <c r="E57" s="167"/>
+      <c r="F57" s="167"/>
+      <c r="G57" s="167"/>
+      <c r="H57" s="167"/>
+      <c r="I57" s="167"/>
+      <c r="J57" s="167"/>
+      <c r="K57" s="167"/>
+      <c r="L57" s="167"/>
+      <c r="M57" s="167"/>
+      <c r="N57" s="167"/>
+      <c r="O57" s="167"/>
+      <c r="P57" s="167"/>
+      <c r="Q57" s="167"/>
+      <c r="R57" s="167"/>
+      <c r="S57" s="167"/>
+      <c r="T57" s="167"/>
+      <c r="U57" s="167"/>
+    </row>
+    <row r="58" spans="2:21">
+      <c r="B58" s="166"/>
+      <c r="C58" s="167"/>
+      <c r="D58" s="167"/>
+      <c r="E58" s="167"/>
+      <c r="F58" s="167"/>
+      <c r="G58" s="167"/>
+      <c r="H58" s="167"/>
+      <c r="I58" s="167"/>
+      <c r="J58" s="167"/>
+      <c r="K58" s="167"/>
+      <c r="L58" s="167"/>
+      <c r="M58" s="167"/>
+      <c r="N58" s="167"/>
+      <c r="O58" s="167"/>
+      <c r="P58" s="167"/>
+      <c r="Q58" s="167"/>
+      <c r="R58" s="167"/>
+      <c r="S58" s="167"/>
+      <c r="T58" s="167"/>
+      <c r="U58" s="167"/>
+    </row>
+    <row r="59" spans="2:21">
+      <c r="B59" s="166"/>
+      <c r="C59" s="167"/>
+      <c r="D59" s="167"/>
+      <c r="E59" s="167"/>
+      <c r="F59" s="167"/>
+      <c r="G59" s="167"/>
+      <c r="H59" s="167"/>
+      <c r="I59" s="167"/>
+      <c r="J59" s="167"/>
+      <c r="K59" s="167"/>
+      <c r="L59" s="167"/>
+      <c r="M59" s="167"/>
+      <c r="N59" s="167"/>
+      <c r="O59" s="167"/>
+      <c r="P59" s="167"/>
+      <c r="Q59" s="167"/>
+      <c r="R59" s="167"/>
+      <c r="S59" s="167"/>
+      <c r="T59" s="167"/>
+      <c r="U59" s="167"/>
+    </row>
+    <row r="60" spans="2:21">
+      <c r="B60" s="166"/>
+      <c r="C60" s="167"/>
+      <c r="D60" s="167"/>
+      <c r="E60" s="167"/>
+      <c r="F60" s="167"/>
+      <c r="G60" s="167"/>
+      <c r="H60" s="167"/>
+      <c r="I60" s="167"/>
+      <c r="J60" s="167"/>
+      <c r="K60" s="167"/>
+      <c r="L60" s="167"/>
+      <c r="M60" s="167"/>
+      <c r="N60" s="167"/>
+      <c r="O60" s="167"/>
+      <c r="P60" s="167"/>
+      <c r="Q60" s="167"/>
+      <c r="R60" s="167"/>
+      <c r="S60" s="167"/>
+      <c r="T60" s="167"/>
+      <c r="U60" s="167"/>
+    </row>
+    <row r="61" spans="2:21">
+      <c r="B61" s="166"/>
+      <c r="C61" s="167"/>
+      <c r="D61" s="167"/>
+      <c r="E61" s="167"/>
+      <c r="F61" s="167"/>
+      <c r="G61" s="167"/>
+      <c r="H61" s="167"/>
+      <c r="I61" s="167"/>
+      <c r="J61" s="167"/>
+      <c r="K61" s="167"/>
+      <c r="L61" s="167"/>
+      <c r="M61" s="167"/>
+      <c r="N61" s="167"/>
+      <c r="O61" s="167"/>
+      <c r="P61" s="167"/>
+      <c r="Q61" s="167"/>
+      <c r="R61" s="167"/>
+      <c r="S61" s="167"/>
+      <c r="T61" s="167"/>
+      <c r="U61" s="167"/>
+    </row>
+    <row r="62" spans="2:21">
+      <c r="B62" s="166"/>
+      <c r="C62" s="167"/>
+      <c r="D62" s="167"/>
+      <c r="E62" s="167"/>
+      <c r="F62" s="167"/>
+      <c r="G62" s="167"/>
+      <c r="H62" s="167"/>
+      <c r="I62" s="167"/>
+      <c r="J62" s="167"/>
+      <c r="K62" s="167"/>
+      <c r="L62" s="167"/>
+      <c r="M62" s="167"/>
+      <c r="N62" s="167"/>
+      <c r="O62" s="167"/>
+      <c r="P62" s="167"/>
+      <c r="Q62" s="167"/>
+      <c r="R62" s="167"/>
+      <c r="S62" s="167"/>
+      <c r="T62" s="167"/>
+      <c r="U62" s="167"/>
+    </row>
+    <row r="63" spans="2:21">
+      <c r="B63" s="166"/>
+      <c r="C63" s="167"/>
+      <c r="D63" s="167"/>
+      <c r="E63" s="167"/>
+      <c r="F63" s="167"/>
+      <c r="G63" s="167"/>
+      <c r="H63" s="167"/>
+      <c r="I63" s="167"/>
+      <c r="J63" s="167"/>
+      <c r="K63" s="167"/>
+      <c r="L63" s="167"/>
+      <c r="M63" s="167"/>
+      <c r="N63" s="167"/>
+      <c r="O63" s="167"/>
+      <c r="P63" s="167"/>
+      <c r="Q63" s="167"/>
+      <c r="R63" s="167"/>
+      <c r="S63" s="167"/>
+      <c r="T63" s="167"/>
+      <c r="U63" s="167"/>
+    </row>
+    <row r="64" spans="2:21">
+      <c r="B64" s="166"/>
+      <c r="C64" s="167"/>
+      <c r="D64" s="167"/>
+      <c r="E64" s="167"/>
+      <c r="F64" s="167"/>
+      <c r="G64" s="167"/>
+      <c r="H64" s="167"/>
+      <c r="I64" s="167"/>
+      <c r="J64" s="167"/>
+      <c r="K64" s="167"/>
+      <c r="L64" s="167"/>
+      <c r="M64" s="167"/>
+      <c r="N64" s="167"/>
+      <c r="O64" s="167"/>
+      <c r="P64" s="167"/>
+      <c r="Q64" s="167"/>
+      <c r="R64" s="167"/>
+      <c r="S64" s="167"/>
+      <c r="T64" s="167"/>
+      <c r="U64" s="167"/>
+    </row>
+    <row r="65" spans="2:21">
+      <c r="B65" s="166"/>
+      <c r="C65" s="167"/>
+      <c r="D65" s="167"/>
+      <c r="E65" s="167"/>
+      <c r="F65" s="167"/>
+      <c r="G65" s="167"/>
+      <c r="H65" s="167"/>
+      <c r="I65" s="167"/>
+      <c r="J65" s="167"/>
+      <c r="K65" s="167"/>
+      <c r="L65" s="167"/>
+      <c r="M65" s="167"/>
+      <c r="N65" s="167"/>
+      <c r="O65" s="167"/>
+      <c r="P65" s="167"/>
+      <c r="Q65" s="167"/>
+      <c r="R65" s="167"/>
+      <c r="S65" s="167"/>
+      <c r="T65" s="167"/>
+      <c r="U65" s="167"/>
+    </row>
+    <row r="66" spans="2:21">
+      <c r="B66" s="166"/>
+      <c r="C66" s="167"/>
+      <c r="D66" s="167"/>
+      <c r="E66" s="167"/>
+      <c r="F66" s="167"/>
+      <c r="G66" s="167"/>
+      <c r="H66" s="167"/>
+      <c r="I66" s="167"/>
+      <c r="J66" s="167"/>
+      <c r="K66" s="167"/>
+      <c r="L66" s="167"/>
+      <c r="M66" s="167"/>
+      <c r="N66" s="167"/>
+      <c r="O66" s="167"/>
+      <c r="P66" s="167"/>
+      <c r="Q66" s="167"/>
+      <c r="R66" s="167"/>
+      <c r="S66" s="167"/>
+      <c r="T66" s="167"/>
+      <c r="U66" s="167"/>
+    </row>
+    <row r="67" spans="2:21">
+      <c r="B67" s="166"/>
+      <c r="C67" s="167"/>
+      <c r="D67" s="167"/>
+      <c r="E67" s="167"/>
+      <c r="F67" s="167"/>
+      <c r="G67" s="167"/>
+      <c r="H67" s="167"/>
+      <c r="I67" s="167"/>
+      <c r="J67" s="167"/>
+      <c r="K67" s="167"/>
+      <c r="L67" s="167"/>
+      <c r="M67" s="167"/>
+      <c r="N67" s="167"/>
+      <c r="O67" s="167"/>
+      <c r="P67" s="167"/>
+      <c r="Q67" s="167"/>
+      <c r="R67" s="167"/>
+      <c r="S67" s="167"/>
+      <c r="T67" s="167"/>
+      <c r="U67" s="167"/>
+    </row>
+    <row r="68" spans="2:21">
+      <c r="B68" s="166"/>
+      <c r="C68" s="167"/>
+      <c r="D68" s="167"/>
+      <c r="E68" s="167"/>
+      <c r="F68" s="167"/>
+      <c r="G68" s="167"/>
+      <c r="H68" s="167"/>
+      <c r="I68" s="167"/>
+      <c r="J68" s="167"/>
+      <c r="K68" s="167"/>
+      <c r="L68" s="167"/>
+      <c r="M68" s="167"/>
+      <c r="N68" s="167"/>
+      <c r="O68" s="167"/>
+      <c r="P68" s="167"/>
+      <c r="Q68" s="167"/>
+      <c r="R68" s="167"/>
+      <c r="S68" s="167"/>
+      <c r="T68" s="167"/>
+      <c r="U68" s="167"/>
+    </row>
+    <row r="69" spans="2:21">
+      <c r="B69" s="166"/>
+      <c r="C69" s="167"/>
+      <c r="D69" s="167"/>
+      <c r="E69" s="167"/>
+      <c r="F69" s="167"/>
+      <c r="G69" s="167"/>
+      <c r="H69" s="167"/>
+      <c r="I69" s="167"/>
+      <c r="J69" s="167"/>
+      <c r="K69" s="167"/>
+      <c r="L69" s="167"/>
+      <c r="M69" s="167"/>
+      <c r="N69" s="167"/>
+      <c r="O69" s="167"/>
+      <c r="P69" s="167"/>
+      <c r="Q69" s="167"/>
+      <c r="R69" s="167"/>
+      <c r="S69" s="167"/>
+      <c r="T69" s="167"/>
+      <c r="U69" s="167"/>
+    </row>
+    <row r="70" spans="2:21">
+      <c r="B70" s="166"/>
+      <c r="C70" s="167"/>
+      <c r="D70" s="167"/>
+      <c r="E70" s="167"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="167"/>
+      <c r="H70" s="167"/>
+      <c r="I70" s="167"/>
+      <c r="J70" s="167"/>
+      <c r="K70" s="167"/>
+      <c r="L70" s="167"/>
+      <c r="M70" s="167"/>
+      <c r="N70" s="167"/>
+      <c r="O70" s="167"/>
+      <c r="P70" s="167"/>
+      <c r="Q70" s="167"/>
+      <c r="R70" s="167"/>
+      <c r="S70" s="167"/>
+      <c r="T70" s="167"/>
+      <c r="U70" s="167"/>
+    </row>
+    <row r="71" spans="2:21">
+      <c r="B71" s="166"/>
+      <c r="C71" s="167"/>
+      <c r="D71" s="167"/>
+      <c r="E71" s="167">
         <v>4130</v>
       </c>
-      <c r="F71" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="G71" s="170"/>
-      <c r="H71" s="170"/>
-      <c r="I71" s="170"/>
-      <c r="J71" s="170"/>
-      <c r="K71" s="170"/>
-      <c r="L71" s="170"/>
-      <c r="M71" s="170"/>
-      <c r="N71" s="170"/>
-      <c r="O71" s="170"/>
-      <c r="P71" s="170"/>
-      <c r="Q71" s="170"/>
-      <c r="R71" s="170"/>
-      <c r="S71" s="170"/>
-      <c r="T71" s="170"/>
-      <c r="U71" s="170"/>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B72" s="169"/>
-      <c r="C72" s="170"/>
-      <c r="D72" s="170"/>
-      <c r="E72" s="170">
+      <c r="F71" s="167" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="167"/>
+      <c r="H71" s="167"/>
+      <c r="I71" s="167"/>
+      <c r="J71" s="167"/>
+      <c r="K71" s="167"/>
+      <c r="L71" s="167"/>
+      <c r="M71" s="167"/>
+      <c r="N71" s="167"/>
+      <c r="O71" s="167"/>
+      <c r="P71" s="167"/>
+      <c r="Q71" s="167"/>
+      <c r="R71" s="167"/>
+      <c r="S71" s="167"/>
+      <c r="T71" s="167"/>
+      <c r="U71" s="167"/>
+    </row>
+    <row r="72" spans="2:21">
+      <c r="B72" s="166"/>
+      <c r="C72" s="167"/>
+      <c r="D72" s="167"/>
+      <c r="E72" s="167">
         <v>1490</v>
       </c>
-      <c r="F72" s="170" t="s">
-        <v>123</v>
-      </c>
-      <c r="G72" s="170"/>
-      <c r="H72" s="170"/>
-      <c r="I72" s="170"/>
-      <c r="J72" s="170"/>
-      <c r="K72" s="170"/>
-      <c r="L72" s="170"/>
-      <c r="M72" s="170"/>
-      <c r="N72" s="170"/>
-      <c r="O72" s="170"/>
-      <c r="P72" s="170"/>
-      <c r="Q72" s="170"/>
-      <c r="R72" s="170"/>
-      <c r="S72" s="170"/>
-      <c r="T72" s="170"/>
-      <c r="U72" s="170"/>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B73" s="169"/>
-      <c r="C73" s="170"/>
-      <c r="D73" s="170"/>
-      <c r="E73" s="170"/>
-      <c r="F73" s="170"/>
-      <c r="G73" s="170"/>
-      <c r="H73" s="170"/>
-      <c r="I73" s="170"/>
-      <c r="J73" s="170"/>
-      <c r="K73" s="170"/>
-      <c r="L73" s="170"/>
-      <c r="M73" s="170"/>
-      <c r="N73" s="170"/>
-      <c r="O73" s="170"/>
-      <c r="P73" s="170"/>
-      <c r="Q73" s="170"/>
-      <c r="R73" s="170"/>
-      <c r="S73" s="170"/>
-      <c r="T73" s="170"/>
-      <c r="U73" s="170"/>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B74" s="169"/>
-      <c r="C74" s="170"/>
-      <c r="D74" s="170"/>
-      <c r="E74" s="170"/>
-      <c r="F74" s="170"/>
-      <c r="G74" s="170"/>
-      <c r="H74" s="170"/>
-      <c r="I74" s="170"/>
-      <c r="J74" s="170"/>
-      <c r="K74" s="170"/>
-      <c r="L74" s="170"/>
-      <c r="M74" s="170"/>
-      <c r="N74" s="170"/>
-      <c r="O74" s="170"/>
-      <c r="P74" s="170"/>
-      <c r="Q74" s="170"/>
-      <c r="R74" s="170"/>
-      <c r="S74" s="170"/>
-      <c r="T74" s="170"/>
-      <c r="U74" s="170"/>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B75" s="169"/>
-      <c r="C75" s="170"/>
-      <c r="D75" s="170"/>
-      <c r="E75" s="170"/>
-      <c r="F75" s="170"/>
-      <c r="G75" s="170"/>
-      <c r="H75" s="170"/>
-      <c r="I75" s="170"/>
-      <c r="J75" s="170"/>
-      <c r="K75" s="170"/>
-      <c r="L75" s="170"/>
-      <c r="M75" s="170"/>
-      <c r="N75" s="170"/>
-      <c r="O75" s="170"/>
-      <c r="P75" s="170"/>
-      <c r="Q75" s="170"/>
-      <c r="R75" s="170"/>
-      <c r="S75" s="170"/>
-      <c r="T75" s="170"/>
-      <c r="U75" s="170"/>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B76" s="169"/>
-      <c r="C76" s="170"/>
-      <c r="D76" s="170"/>
-      <c r="E76" s="170"/>
-      <c r="F76" s="170"/>
-      <c r="G76" s="170"/>
-      <c r="H76" s="170"/>
-      <c r="I76" s="170"/>
-      <c r="J76" s="170"/>
-      <c r="K76" s="170"/>
-      <c r="L76" s="170"/>
-      <c r="M76" s="170"/>
-      <c r="N76" s="170"/>
-      <c r="O76" s="170"/>
-      <c r="P76" s="170"/>
-      <c r="Q76" s="170"/>
-      <c r="R76" s="170"/>
-      <c r="S76" s="170"/>
-      <c r="T76" s="170"/>
-      <c r="U76" s="170"/>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B77" s="169"/>
-      <c r="C77" s="170"/>
-      <c r="D77" s="170"/>
-      <c r="E77" s="170"/>
-      <c r="F77" s="170"/>
-      <c r="G77" s="170"/>
-      <c r="H77" s="170"/>
-      <c r="I77" s="170"/>
-      <c r="J77" s="170"/>
-      <c r="K77" s="170"/>
-      <c r="L77" s="170"/>
-      <c r="M77" s="170"/>
-      <c r="N77" s="170"/>
-      <c r="O77" s="170"/>
-      <c r="P77" s="170"/>
-      <c r="Q77" s="170"/>
-      <c r="R77" s="170"/>
-      <c r="S77" s="170"/>
-      <c r="T77" s="170"/>
-      <c r="U77" s="170"/>
-    </row>
-    <row r="78" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B78" s="169"/>
-      <c r="C78" s="170"/>
-      <c r="D78" s="170"/>
-      <c r="E78" s="170"/>
-      <c r="F78" s="170"/>
-      <c r="G78" s="170"/>
-      <c r="H78" s="170"/>
-      <c r="I78" s="170"/>
-      <c r="J78" s="170"/>
-      <c r="K78" s="170"/>
-      <c r="L78" s="170"/>
-      <c r="M78" s="170"/>
-      <c r="N78" s="170"/>
-      <c r="O78" s="170"/>
-      <c r="P78" s="170"/>
-      <c r="Q78" s="170"/>
-      <c r="R78" s="170"/>
-      <c r="S78" s="170"/>
-      <c r="T78" s="170"/>
-      <c r="U78" s="170"/>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B79" s="169"/>
-      <c r="C79" s="170"/>
-      <c r="D79" s="170"/>
-      <c r="E79" s="170"/>
-      <c r="F79" s="170"/>
-      <c r="G79" s="170"/>
-      <c r="H79" s="170"/>
-      <c r="I79" s="170"/>
-      <c r="J79" s="170"/>
-      <c r="K79" s="170"/>
-      <c r="L79" s="170"/>
-      <c r="M79" s="170"/>
-      <c r="N79" s="170"/>
-      <c r="O79" s="170"/>
-      <c r="P79" s="170"/>
-      <c r="Q79" s="170"/>
-      <c r="R79" s="170"/>
-      <c r="S79" s="170"/>
-      <c r="T79" s="170"/>
-      <c r="U79" s="170"/>
-    </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B80" s="169"/>
-      <c r="C80" s="170"/>
-      <c r="D80" s="170"/>
-      <c r="E80" s="170"/>
-      <c r="F80" s="170"/>
-      <c r="G80" s="170"/>
-      <c r="H80" s="170"/>
-      <c r="I80" s="170"/>
-      <c r="J80" s="170"/>
-      <c r="K80" s="170"/>
-      <c r="L80" s="170"/>
-      <c r="M80" s="170"/>
-      <c r="N80" s="170"/>
-      <c r="O80" s="170"/>
-      <c r="P80" s="170"/>
-      <c r="Q80" s="170"/>
-      <c r="R80" s="170"/>
-      <c r="S80" s="170"/>
-      <c r="T80" s="170"/>
-      <c r="U80" s="170"/>
-    </row>
-    <row r="81" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B81" s="169"/>
-      <c r="C81" s="170"/>
-      <c r="D81" s="170"/>
-      <c r="E81" s="170"/>
-      <c r="F81" s="170"/>
-      <c r="G81" s="170"/>
-      <c r="H81" s="170"/>
-      <c r="I81" s="170"/>
-      <c r="J81" s="170"/>
-      <c r="K81" s="170"/>
-      <c r="L81" s="170"/>
-      <c r="M81" s="170"/>
-      <c r="N81" s="170"/>
-      <c r="O81" s="170"/>
-      <c r="P81" s="170"/>
-      <c r="Q81" s="170"/>
-      <c r="R81" s="170"/>
-      <c r="S81" s="170"/>
-      <c r="T81" s="170"/>
-      <c r="U81" s="170"/>
-    </row>
-    <row r="82" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B82" s="169"/>
-    </row>
-    <row r="83" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B83" s="169"/>
-    </row>
-    <row r="84" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B84" s="169"/>
-      <c r="C84" s="175" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B85" s="169"/>
-      <c r="C85" s="175" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="86" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B86" s="169"/>
-    </row>
-    <row r="87" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B87" s="169"/>
-    </row>
-    <row r="88" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B88" s="169"/>
-    </row>
-    <row r="89" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B89" s="169"/>
-    </row>
-    <row r="90" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B90" s="169"/>
-      <c r="D90" s="175" t="s">
+      <c r="F72" s="167" t="s">
+        <v>113</v>
+      </c>
+      <c r="G72" s="167"/>
+      <c r="H72" s="167"/>
+      <c r="I72" s="167"/>
+      <c r="J72" s="167"/>
+      <c r="K72" s="167"/>
+      <c r="L72" s="167"/>
+      <c r="M72" s="167"/>
+      <c r="N72" s="167"/>
+      <c r="O72" s="167"/>
+      <c r="P72" s="167"/>
+      <c r="Q72" s="167"/>
+      <c r="R72" s="167"/>
+      <c r="S72" s="167"/>
+      <c r="T72" s="167"/>
+      <c r="U72" s="167"/>
+    </row>
+    <row r="73" spans="2:21">
+      <c r="B73" s="166"/>
+      <c r="C73" s="167"/>
+      <c r="D73" s="167"/>
+      <c r="E73" s="167"/>
+      <c r="F73" s="167"/>
+      <c r="G73" s="167"/>
+      <c r="H73" s="167"/>
+      <c r="I73" s="167"/>
+      <c r="J73" s="167"/>
+      <c r="K73" s="167"/>
+      <c r="L73" s="167"/>
+      <c r="M73" s="167"/>
+      <c r="N73" s="167"/>
+      <c r="O73" s="167"/>
+      <c r="P73" s="167"/>
+      <c r="Q73" s="167"/>
+      <c r="R73" s="167"/>
+      <c r="S73" s="167"/>
+      <c r="T73" s="167"/>
+      <c r="U73" s="167"/>
+    </row>
+    <row r="74" spans="2:21">
+      <c r="B74" s="166"/>
+      <c r="C74" s="167"/>
+      <c r="D74" s="167"/>
+      <c r="E74" s="167"/>
+      <c r="F74" s="167"/>
+      <c r="G74" s="167"/>
+      <c r="H74" s="167"/>
+      <c r="I74" s="167"/>
+      <c r="J74" s="167"/>
+      <c r="K74" s="167"/>
+      <c r="L74" s="167"/>
+      <c r="M74" s="167"/>
+      <c r="N74" s="167"/>
+      <c r="O74" s="167"/>
+      <c r="P74" s="167"/>
+      <c r="Q74" s="167"/>
+      <c r="R74" s="167"/>
+      <c r="S74" s="167"/>
+      <c r="T74" s="167"/>
+      <c r="U74" s="167"/>
+    </row>
+    <row r="75" spans="2:21">
+      <c r="B75" s="166"/>
+      <c r="C75" s="167"/>
+      <c r="D75" s="167"/>
+      <c r="E75" s="167"/>
+      <c r="F75" s="167"/>
+      <c r="G75" s="167"/>
+      <c r="H75" s="167"/>
+      <c r="I75" s="167"/>
+      <c r="J75" s="167"/>
+      <c r="K75" s="167"/>
+      <c r="L75" s="167"/>
+      <c r="M75" s="167"/>
+      <c r="N75" s="167"/>
+      <c r="O75" s="167"/>
+      <c r="P75" s="167"/>
+      <c r="Q75" s="167"/>
+      <c r="R75" s="167"/>
+      <c r="S75" s="167"/>
+      <c r="T75" s="167"/>
+      <c r="U75" s="167"/>
+    </row>
+    <row r="76" spans="2:21">
+      <c r="B76" s="166"/>
+      <c r="C76" s="167"/>
+      <c r="D76" s="167"/>
+      <c r="E76" s="167"/>
+      <c r="F76" s="167"/>
+      <c r="G76" s="167"/>
+      <c r="H76" s="167"/>
+      <c r="I76" s="167"/>
+      <c r="J76" s="167"/>
+      <c r="K76" s="167"/>
+      <c r="L76" s="167"/>
+      <c r="M76" s="167"/>
+      <c r="N76" s="167"/>
+      <c r="O76" s="167"/>
+      <c r="P76" s="167"/>
+      <c r="Q76" s="167"/>
+      <c r="R76" s="167"/>
+      <c r="S76" s="167"/>
+      <c r="T76" s="167"/>
+      <c r="U76" s="167"/>
+    </row>
+    <row r="77" spans="2:21">
+      <c r="B77" s="166"/>
+      <c r="C77" s="167"/>
+      <c r="D77" s="167"/>
+      <c r="E77" s="167"/>
+      <c r="F77" s="167"/>
+      <c r="G77" s="167"/>
+      <c r="H77" s="167"/>
+      <c r="I77" s="167"/>
+      <c r="J77" s="167"/>
+      <c r="K77" s="167"/>
+      <c r="L77" s="167"/>
+      <c r="M77" s="167"/>
+      <c r="N77" s="167"/>
+      <c r="O77" s="167"/>
+      <c r="P77" s="167"/>
+      <c r="Q77" s="167"/>
+      <c r="R77" s="167"/>
+      <c r="S77" s="167"/>
+      <c r="T77" s="167"/>
+      <c r="U77" s="167"/>
+    </row>
+    <row r="78" spans="2:21">
+      <c r="B78" s="166"/>
+      <c r="C78" s="167"/>
+      <c r="D78" s="167"/>
+      <c r="E78" s="167"/>
+      <c r="F78" s="167"/>
+      <c r="G78" s="167"/>
+      <c r="H78" s="167"/>
+      <c r="I78" s="167"/>
+      <c r="J78" s="167"/>
+      <c r="K78" s="167"/>
+      <c r="L78" s="167"/>
+      <c r="M78" s="167"/>
+      <c r="N78" s="167"/>
+      <c r="O78" s="167"/>
+      <c r="P78" s="167"/>
+      <c r="Q78" s="167"/>
+      <c r="R78" s="167"/>
+      <c r="S78" s="167"/>
+      <c r="T78" s="167"/>
+      <c r="U78" s="167"/>
+    </row>
+    <row r="79" spans="2:21">
+      <c r="B79" s="166"/>
+      <c r="C79" s="167"/>
+      <c r="D79" s="167"/>
+      <c r="E79" s="167"/>
+      <c r="F79" s="167"/>
+      <c r="G79" s="167"/>
+      <c r="H79" s="167"/>
+      <c r="I79" s="167"/>
+      <c r="J79" s="167"/>
+      <c r="K79" s="167"/>
+      <c r="L79" s="167"/>
+      <c r="M79" s="167"/>
+      <c r="N79" s="167"/>
+      <c r="O79" s="167"/>
+      <c r="P79" s="167"/>
+      <c r="Q79" s="167"/>
+      <c r="R79" s="167"/>
+      <c r="S79" s="167"/>
+      <c r="T79" s="167"/>
+      <c r="U79" s="167"/>
+    </row>
+    <row r="80" spans="2:21">
+      <c r="B80" s="166"/>
+      <c r="C80" s="167"/>
+      <c r="D80" s="167"/>
+      <c r="E80" s="167"/>
+      <c r="F80" s="167"/>
+      <c r="G80" s="167"/>
+      <c r="H80" s="167"/>
+      <c r="I80" s="167"/>
+      <c r="J80" s="167"/>
+      <c r="K80" s="167"/>
+      <c r="L80" s="167"/>
+      <c r="M80" s="167"/>
+      <c r="N80" s="167"/>
+      <c r="O80" s="167"/>
+      <c r="P80" s="167"/>
+      <c r="Q80" s="167"/>
+      <c r="R80" s="167"/>
+      <c r="S80" s="167"/>
+      <c r="T80" s="167"/>
+      <c r="U80" s="167"/>
+    </row>
+    <row r="81" spans="2:21">
+      <c r="B81" s="166"/>
+      <c r="C81" s="167"/>
+      <c r="D81" s="167"/>
+      <c r="E81" s="167"/>
+      <c r="F81" s="167"/>
+      <c r="G81" s="167"/>
+      <c r="H81" s="167"/>
+      <c r="I81" s="167"/>
+      <c r="J81" s="167"/>
+      <c r="K81" s="167"/>
+      <c r="L81" s="167"/>
+      <c r="M81" s="167"/>
+      <c r="N81" s="167"/>
+      <c r="O81" s="167"/>
+      <c r="P81" s="167"/>
+      <c r="Q81" s="167"/>
+      <c r="R81" s="167"/>
+      <c r="S81" s="167"/>
+      <c r="T81" s="167"/>
+      <c r="U81" s="167"/>
+    </row>
+    <row r="82" spans="2:21">
+      <c r="B82" s="166"/>
+    </row>
+    <row r="83" spans="2:21">
+      <c r="B83" s="166"/>
+    </row>
+    <row r="84" spans="2:21">
+      <c r="B84" s="166"/>
+      <c r="C84" s="172" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="85" spans="2:21">
+      <c r="B85" s="166"/>
+      <c r="C85" s="172" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="86" spans="2:21">
+      <c r="B86" s="166"/>
+    </row>
+    <row r="87" spans="2:21">
+      <c r="B87" s="166"/>
+    </row>
+    <row r="88" spans="2:21">
+      <c r="B88" s="166"/>
+    </row>
+    <row r="89" spans="2:21">
+      <c r="B89" s="166"/>
+    </row>
+    <row r="90" spans="2:21">
+      <c r="B90" s="166"/>
+      <c r="D90" s="172" t="s">
         <v>1</v>
       </c>
-      <c r="E90" s="175">
+      <c r="E90" s="172">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F90" s="175" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="91" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B91" s="169"/>
-      <c r="D91" s="175" t="s">
+      <c r="F90" s="172" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="91" spans="2:21">
+      <c r="B91" s="166"/>
+      <c r="D91" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="E91" s="175">
+      <c r="E91" s="172">
         <v>20</v>
       </c>
-      <c r="F91" s="175" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="92" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B92" s="169"/>
-    </row>
-    <row r="93" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B93" s="169"/>
-    </row>
-    <row r="94" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B94" s="169"/>
-    </row>
-    <row r="95" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B95" s="169"/>
-    </row>
-    <row r="96" spans="2:21" x14ac:dyDescent="0.2">
-      <c r="B96" s="169"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="169"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="169"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="169"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="169"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="169"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="169"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="169"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="169"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="169"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="169"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="169"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="169"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="169"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="169"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="169"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="169"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="169"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="169"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="169"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="169"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="169"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="169"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="169"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="169"/>
+      <c r="F91" s="172" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="2:21">
+      <c r="B92" s="166"/>
+    </row>
+    <row r="93" spans="2:21">
+      <c r="B93" s="166"/>
+    </row>
+    <row r="94" spans="2:21">
+      <c r="B94" s="166"/>
+    </row>
+    <row r="95" spans="2:21">
+      <c r="B95" s="166"/>
+    </row>
+    <row r="96" spans="2:21">
+      <c r="B96" s="166"/>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="166"/>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="166"/>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="166"/>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="166"/>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="166"/>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="166"/>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="166"/>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="166"/>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="166"/>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="166"/>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="166"/>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="166"/>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="166"/>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="166"/>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="166"/>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="166"/>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="166"/>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="166"/>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="166"/>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="166"/>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="166"/>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="166"/>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="166"/>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="166"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
